--- a/output.xlsx
+++ b/output.xlsx
@@ -397,4834 +397,4834 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>201.8</v>
+        <v>224.5</v>
       </c>
       <c r="B2" s="2">
-        <v>45490.81597222222</v>
+        <v>45495.56597222222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>201.6</v>
+        <v>224.3</v>
       </c>
       <c r="B3" s="2">
-        <v>45490.81944444445</v>
+        <v>45495.56944444445</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>201.8</v>
+        <v>225</v>
       </c>
       <c r="B4" s="2">
-        <v>45490.82291666666</v>
+        <v>45495.57291666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>201.9</v>
+        <v>224.5</v>
       </c>
       <c r="B5" s="2">
-        <v>45490.82638888889</v>
+        <v>45495.57638888889</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>201.7</v>
+        <v>224.6</v>
       </c>
       <c r="B6" s="2">
-        <v>45490.82986111111</v>
+        <v>45495.57986111111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>201.8</v>
+        <v>224.6</v>
       </c>
       <c r="B7" s="2">
-        <v>45490.83333333334</v>
+        <v>45495.58333333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>201.5</v>
+        <v>225</v>
       </c>
       <c r="B8" s="2">
-        <v>45490.83680555555</v>
+        <v>45495.58680555555</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>201.5</v>
+        <v>225.1</v>
       </c>
       <c r="B9" s="2">
-        <v>45490.84027777778</v>
+        <v>45495.59027777778</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>201.8</v>
+        <v>224.8</v>
       </c>
       <c r="B10" s="2">
-        <v>45490.84375</v>
+        <v>45495.59375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>202.4</v>
+        <v>224.4</v>
       </c>
       <c r="B11" s="2">
-        <v>45490.84722222222</v>
+        <v>45495.59722222222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>202.1</v>
+        <v>224.5</v>
       </c>
       <c r="B12" s="2">
-        <v>45490.85069444445</v>
+        <v>45495.60069444445</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>202.2</v>
+        <v>224.5</v>
       </c>
       <c r="B13" s="2">
-        <v>45490.85416666666</v>
+        <v>45495.60416666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>202.1</v>
+        <v>224.8</v>
       </c>
       <c r="B14" s="2">
-        <v>45490.85763888889</v>
+        <v>45495.60763888889</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>202.1</v>
+        <v>225.9</v>
       </c>
       <c r="B15" s="2">
-        <v>45490.86111111111</v>
+        <v>45495.61111111111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B16" s="2">
-        <v>45490.86458333334</v>
+        <v>45495.61458333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>201.9</v>
+        <v>225.9</v>
       </c>
       <c r="B17" s="2">
-        <v>45490.86805555555</v>
+        <v>45495.61805555555</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>202</v>
+        <v>226.5</v>
       </c>
       <c r="B18" s="2">
-        <v>45490.87152777778</v>
+        <v>45495.62152777778</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>201.8</v>
+        <v>226.1</v>
       </c>
       <c r="B19" s="2">
-        <v>45490.87847222222</v>
+        <v>45495.625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>221.8</v>
+        <v>226.1</v>
       </c>
       <c r="B20" s="2">
-        <v>45491.53819444445</v>
+        <v>45495.62847222222</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>215.1</v>
+        <v>227.2</v>
       </c>
       <c r="B21" s="2">
-        <v>45491.54166666666</v>
+        <v>45495.63194444445</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>214.1</v>
+        <v>228.8</v>
       </c>
       <c r="B22" s="2">
-        <v>45491.54513888889</v>
+        <v>45495.63541666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>213.7</v>
+        <v>228.8</v>
       </c>
       <c r="B23" s="2">
-        <v>45491.54861111111</v>
+        <v>45495.63888888889</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>213.8</v>
+        <v>228.8</v>
       </c>
       <c r="B24" s="2">
-        <v>45491.55208333334</v>
+        <v>45495.64236111111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>215.4</v>
+        <v>228.8</v>
       </c>
       <c r="B25" s="2">
-        <v>45491.55555555555</v>
+        <v>45495.64583333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>217.3</v>
+        <v>228.8</v>
       </c>
       <c r="B26" s="2">
-        <v>45491.55902777778</v>
+        <v>45495.64930555555</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>216.5</v>
+        <v>228.8</v>
       </c>
       <c r="B27" s="2">
-        <v>45491.5625</v>
+        <v>45495.65277777778</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>216.8</v>
+        <v>228.8</v>
       </c>
       <c r="B28" s="2">
-        <v>45491.56597222222</v>
+        <v>45495.65625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>216.4</v>
+        <v>228.8</v>
       </c>
       <c r="B29" s="2">
-        <v>45491.56944444445</v>
+        <v>45495.65972222222</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>216</v>
+        <v>228.8</v>
       </c>
       <c r="B30" s="2">
-        <v>45491.57291666666</v>
+        <v>45495.66319444445</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>215.5</v>
+        <v>228.8</v>
       </c>
       <c r="B31" s="2">
-        <v>45491.57638888889</v>
+        <v>45495.66666666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>216.2</v>
+        <v>228.8</v>
       </c>
       <c r="B32" s="2">
-        <v>45491.57986111111</v>
+        <v>45495.67013888889</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>215.6</v>
+        <v>228.8</v>
       </c>
       <c r="B33" s="2">
-        <v>45491.58333333334</v>
+        <v>45495.67361111111</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>215.7</v>
+        <v>228.8</v>
       </c>
       <c r="B34" s="2">
-        <v>45491.58680555555</v>
+        <v>45495.67708333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>215.5</v>
+        <v>228.8</v>
       </c>
       <c r="B35" s="2">
-        <v>45491.59027777778</v>
+        <v>45495.68055555555</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>215.3</v>
+        <v>228.8</v>
       </c>
       <c r="B36" s="2">
-        <v>45491.59375</v>
+        <v>45495.68402777778</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>216.7</v>
+        <v>228.8</v>
       </c>
       <c r="B37" s="2">
-        <v>45491.59722222222</v>
+        <v>45495.6875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>217.2</v>
+        <v>228.8</v>
       </c>
       <c r="B38" s="2">
-        <v>45491.60069444445</v>
+        <v>45495.69097222222</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>217.5</v>
+        <v>228.8</v>
       </c>
       <c r="B39" s="2">
-        <v>45491.60416666666</v>
+        <v>45495.69444444445</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>216.9</v>
+        <v>228.8</v>
       </c>
       <c r="B40" s="2">
-        <v>45491.60763888889</v>
+        <v>45495.69791666666</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>216.9</v>
+        <v>228.8</v>
       </c>
       <c r="B41" s="2">
-        <v>45491.61111111111</v>
+        <v>45495.70138888889</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>217</v>
+        <v>228.8</v>
       </c>
       <c r="B42" s="2">
-        <v>45491.61458333334</v>
+        <v>45495.70486111111</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>217.2</v>
+        <v>228.8</v>
       </c>
       <c r="B43" s="2">
-        <v>45491.61805555555</v>
+        <v>45495.70833333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>217.4</v>
+        <v>228.8</v>
       </c>
       <c r="B44" s="2">
-        <v>45491.62152777778</v>
+        <v>45495.71180555555</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>217.9</v>
+        <v>228.8</v>
       </c>
       <c r="B45" s="2">
-        <v>45491.625</v>
+        <v>45495.71527777778</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>218</v>
+        <v>228.8</v>
       </c>
       <c r="B46" s="2">
-        <v>45491.62847222222</v>
+        <v>45495.71875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>217.8</v>
+        <v>228.8</v>
       </c>
       <c r="B47" s="2">
-        <v>45491.63194444445</v>
+        <v>45495.72222222222</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>217.9</v>
+        <v>228.8</v>
       </c>
       <c r="B48" s="2">
-        <v>45491.63541666666</v>
+        <v>45495.72569444445</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>217.8</v>
+        <v>228.8</v>
       </c>
       <c r="B49" s="2">
-        <v>45491.63888888889</v>
+        <v>45495.72916666666</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>218</v>
+        <v>228.8</v>
       </c>
       <c r="B50" s="2">
-        <v>45491.64236111111</v>
+        <v>45495.73263888889</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>217.9</v>
+        <v>228.8</v>
       </c>
       <c r="B51" s="2">
-        <v>45491.64583333334</v>
+        <v>45495.73611111111</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>217.7</v>
+        <v>228.8</v>
       </c>
       <c r="B52" s="2">
-        <v>45491.64930555555</v>
+        <v>45495.73958333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>218.3</v>
+        <v>228.8</v>
       </c>
       <c r="B53" s="2">
-        <v>45491.65277777778</v>
+        <v>45495.74305555555</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>218.8</v>
+        <v>228.8</v>
       </c>
       <c r="B54" s="2">
-        <v>45491.65625</v>
+        <v>45495.74652777778</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>218.8</v>
+        <v>228.8</v>
       </c>
       <c r="B55" s="2">
-        <v>45491.65972222222</v>
+        <v>45495.75347222222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>218.4</v>
+        <v>239</v>
       </c>
       <c r="B56" s="2">
-        <v>45491.66319444445</v>
+        <v>45496.41319444445</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>219.1</v>
+        <v>242</v>
       </c>
       <c r="B57" s="2">
-        <v>45491.66666666666</v>
+        <v>45496.41666666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>218.8</v>
+        <v>247.2</v>
       </c>
       <c r="B58" s="2">
-        <v>45491.67013888889</v>
+        <v>45496.42013888889</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>218.7</v>
+        <v>251.5</v>
       </c>
       <c r="B59" s="2">
-        <v>45491.67361111111</v>
+        <v>45496.42361111111</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>218.8</v>
+        <v>251.5</v>
       </c>
       <c r="B60" s="2">
-        <v>45491.67708333334</v>
+        <v>45496.42708333334</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>218.5</v>
+        <v>251.5</v>
       </c>
       <c r="B61" s="2">
-        <v>45491.68055555555</v>
+        <v>45496.43055555555</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>218.7</v>
+        <v>251.5</v>
       </c>
       <c r="B62" s="2">
-        <v>45491.68402777778</v>
+        <v>45496.43402777778</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>218.6</v>
+        <v>251.5</v>
       </c>
       <c r="B63" s="2">
-        <v>45491.6875</v>
+        <v>45496.4375</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>218.8</v>
+        <v>251.5</v>
       </c>
       <c r="B64" s="2">
-        <v>45491.69097222222</v>
+        <v>45496.44097222222</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>218.5</v>
+        <v>251.5</v>
       </c>
       <c r="B65" s="2">
-        <v>45491.69444444445</v>
+        <v>45496.44444444445</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>218</v>
+        <v>251.5</v>
       </c>
       <c r="B66" s="2">
-        <v>45491.69791666666</v>
+        <v>45496.44791666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>217.8</v>
+        <v>251.5</v>
       </c>
       <c r="B67" s="2">
-        <v>45491.70138888889</v>
+        <v>45496.45138888889</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>217.7</v>
+        <v>251.5</v>
       </c>
       <c r="B68" s="2">
-        <v>45491.70486111111</v>
+        <v>45496.45486111111</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>217.3</v>
+        <v>251.5</v>
       </c>
       <c r="B69" s="2">
-        <v>45491.70833333334</v>
+        <v>45496.45833333334</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>216.8</v>
+        <v>251.5</v>
       </c>
       <c r="B70" s="2">
-        <v>45491.71180555555</v>
+        <v>45496.46180555555</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>216.6</v>
+        <v>251.5</v>
       </c>
       <c r="B71" s="2">
-        <v>45491.71527777778</v>
+        <v>45496.46527777778</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>216.5</v>
+        <v>251.5</v>
       </c>
       <c r="B72" s="2">
-        <v>45491.71875</v>
+        <v>45496.46875</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>216.4</v>
+        <v>251.5</v>
       </c>
       <c r="B73" s="2">
-        <v>45491.72222222222</v>
+        <v>45496.47222222222</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>216.3</v>
+        <v>251.5</v>
       </c>
       <c r="B74" s="2">
-        <v>45491.72569444445</v>
+        <v>45496.47569444445</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>216.2</v>
+        <v>251.5</v>
       </c>
       <c r="B75" s="2">
-        <v>45491.72916666666</v>
+        <v>45496.47916666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>216</v>
+        <v>251.5</v>
       </c>
       <c r="B76" s="2">
-        <v>45491.73263888889</v>
+        <v>45496.48263888889</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>216</v>
+        <v>251.5</v>
       </c>
       <c r="B77" s="2">
-        <v>45491.73611111111</v>
+        <v>45496.48611111111</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>215.8</v>
+        <v>251.5</v>
       </c>
       <c r="B78" s="2">
-        <v>45491.73958333334</v>
+        <v>45496.48958333334</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>216.1</v>
+        <v>251.5</v>
       </c>
       <c r="B79" s="2">
-        <v>45491.74305555555</v>
+        <v>45496.49305555555</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>216.6</v>
+        <v>251.5</v>
       </c>
       <c r="B80" s="2">
-        <v>45491.74652777778</v>
+        <v>45496.49652777778</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>216.4</v>
+        <v>251.5</v>
       </c>
       <c r="B81" s="2">
-        <v>45491.75</v>
+        <v>45496.5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>215.7</v>
+        <v>251.5</v>
       </c>
       <c r="B82" s="2">
-        <v>45491.75347222222</v>
+        <v>45496.50347222222</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>215.7</v>
+        <v>251.5</v>
       </c>
       <c r="B83" s="2">
-        <v>45491.75694444445</v>
+        <v>45496.50694444445</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>215.6</v>
+        <v>251.5</v>
       </c>
       <c r="B84" s="2">
-        <v>45491.76041666666</v>
+        <v>45496.51041666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>215.7</v>
+        <v>251.5</v>
       </c>
       <c r="B85" s="2">
-        <v>45491.76388888889</v>
+        <v>45496.51388888889</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>216.8</v>
+        <v>251.5</v>
       </c>
       <c r="B86" s="2">
-        <v>45491.76736111111</v>
+        <v>45496.51736111111</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>216.7</v>
+        <v>251.5</v>
       </c>
       <c r="B87" s="2">
-        <v>45491.77083333334</v>
+        <v>45496.52083333334</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>216.5</v>
+        <v>251.5</v>
       </c>
       <c r="B88" s="2">
-        <v>45491.77430555555</v>
+        <v>45496.52430555555</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>216.4</v>
+        <v>251.5</v>
       </c>
       <c r="B89" s="2">
-        <v>45491.77777777778</v>
+        <v>45496.52777777778</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>216.6</v>
+        <v>251.5</v>
       </c>
       <c r="B90" s="2">
-        <v>45491.78125</v>
+        <v>45496.53125</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>216.1</v>
+        <v>251.5</v>
       </c>
       <c r="B91" s="2">
-        <v>45491.78472222222</v>
+        <v>45496.53472222222</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>216.4</v>
+        <v>251.5</v>
       </c>
       <c r="B92" s="2">
-        <v>45491.78819444445</v>
+        <v>45496.53819444445</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>216.6</v>
+        <v>251.5</v>
       </c>
       <c r="B93" s="2">
-        <v>45491.79166666666</v>
+        <v>45496.54166666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>216.7</v>
+        <v>251.5</v>
       </c>
       <c r="B94" s="2">
-        <v>45491.79513888889</v>
+        <v>45496.54513888889</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>216.7</v>
+        <v>251.5</v>
       </c>
       <c r="B95" s="2">
-        <v>45491.79861111111</v>
+        <v>45496.54861111111</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>216.7</v>
+        <v>251.5</v>
       </c>
       <c r="B96" s="2">
-        <v>45491.80208333334</v>
+        <v>45496.55208333334</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>217</v>
+        <v>251.5</v>
       </c>
       <c r="B97" s="2">
-        <v>45491.80555555555</v>
+        <v>45496.55555555555</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>217.1</v>
+        <v>251.5</v>
       </c>
       <c r="B98" s="2">
-        <v>45491.80902777778</v>
+        <v>45496.55902777778</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>217.1</v>
+        <v>251.5</v>
       </c>
       <c r="B99" s="2">
-        <v>45491.8125</v>
+        <v>45496.5625</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>217.2</v>
+        <v>251.5</v>
       </c>
       <c r="B100" s="2">
-        <v>45491.81597222222</v>
+        <v>45496.56597222222</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>217.5</v>
+        <v>251.5</v>
       </c>
       <c r="B101" s="2">
-        <v>45491.81944444445</v>
+        <v>45496.56944444445</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>217.1</v>
+        <v>251.5</v>
       </c>
       <c r="B102" s="2">
-        <v>45491.82291666666</v>
+        <v>45496.57291666666</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>217.2</v>
+        <v>251.5</v>
       </c>
       <c r="B103" s="2">
-        <v>45491.82638888889</v>
+        <v>45496.57638888889</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>217.2</v>
+        <v>251.5</v>
       </c>
       <c r="B104" s="2">
-        <v>45491.82986111111</v>
+        <v>45496.57986111111</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>218.2</v>
+        <v>251.5</v>
       </c>
       <c r="B105" s="2">
-        <v>45491.83333333334</v>
+        <v>45496.58333333334</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>218.4</v>
+        <v>251.5</v>
       </c>
       <c r="B106" s="2">
-        <v>45491.83680555555</v>
+        <v>45496.58680555555</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>218.4</v>
+        <v>251.5</v>
       </c>
       <c r="B107" s="2">
-        <v>45491.84027777778</v>
+        <v>45496.59027777778</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>218.8</v>
+        <v>251.5</v>
       </c>
       <c r="B108" s="2">
-        <v>45491.84375</v>
+        <v>45496.59375</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>218.6</v>
+        <v>251.5</v>
       </c>
       <c r="B109" s="2">
-        <v>45491.84722222222</v>
+        <v>45496.59722222222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>217.9</v>
+        <v>251.5</v>
       </c>
       <c r="B110" s="2">
-        <v>45491.85069444445</v>
+        <v>45496.60069444445</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>216.6</v>
+        <v>251.5</v>
       </c>
       <c r="B111" s="2">
-        <v>45491.85416666666</v>
+        <v>45496.60416666666</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>216.8</v>
+        <v>251.5</v>
       </c>
       <c r="B112" s="2">
-        <v>45491.85763888889</v>
+        <v>45496.60763888889</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>216.4</v>
+        <v>251.5</v>
       </c>
       <c r="B113" s="2">
-        <v>45491.86111111111</v>
+        <v>45496.61111111111</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>216.3</v>
+        <v>251.5</v>
       </c>
       <c r="B114" s="2">
-        <v>45491.86458333334</v>
+        <v>45496.61458333334</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>216</v>
+        <v>251.5</v>
       </c>
       <c r="B115" s="2">
-        <v>45491.86805555555</v>
+        <v>45496.61805555555</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>216.2</v>
+        <v>251.5</v>
       </c>
       <c r="B116" s="2">
-        <v>45491.87152777778</v>
+        <v>45496.62152777778</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>216.2</v>
+        <v>251.5</v>
       </c>
       <c r="B117" s="2">
-        <v>45491.87847222222</v>
+        <v>45496.625</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>216.5</v>
+        <v>251.5</v>
       </c>
       <c r="B118" s="2">
-        <v>45492.53819444445</v>
+        <v>45496.62847222222</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>210.1</v>
+        <v>251.5</v>
       </c>
       <c r="B119" s="2">
-        <v>45492.54166666666</v>
+        <v>45496.63194444445</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>211.7</v>
+        <v>251.5</v>
       </c>
       <c r="B120" s="2">
-        <v>45492.54513888889</v>
+        <v>45496.63541666666</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>211.8</v>
+        <v>251.5</v>
       </c>
       <c r="B121" s="2">
-        <v>45492.54861111111</v>
+        <v>45496.63888888889</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>211.7</v>
+        <v>251.5</v>
       </c>
       <c r="B122" s="2">
-        <v>45492.55208333334</v>
+        <v>45496.64236111111</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>211.7</v>
+        <v>251.5</v>
       </c>
       <c r="B123" s="2">
-        <v>45492.55555555555</v>
+        <v>45496.64583333334</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>211.9</v>
+        <v>251.5</v>
       </c>
       <c r="B124" s="2">
-        <v>45492.55902777778</v>
+        <v>45496.64930555555</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>211.9</v>
+        <v>251.5</v>
       </c>
       <c r="B125" s="2">
-        <v>45492.5625</v>
+        <v>45496.65277777778</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>211.7</v>
+        <v>251.5</v>
       </c>
       <c r="B126" s="2">
-        <v>45492.56597222222</v>
+        <v>45496.65625</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>211.8</v>
+        <v>251.5</v>
       </c>
       <c r="B127" s="2">
-        <v>45492.56944444445</v>
+        <v>45496.65972222222</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>211.8</v>
+        <v>251.5</v>
       </c>
       <c r="B128" s="2">
-        <v>45492.57291666666</v>
+        <v>45496.66319444445</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>212.2</v>
+        <v>251.5</v>
       </c>
       <c r="B129" s="2">
-        <v>45492.57638888889</v>
+        <v>45496.66666666666</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>211.5</v>
+        <v>251.5</v>
       </c>
       <c r="B130" s="2">
-        <v>45492.57986111111</v>
+        <v>45496.67013888889</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>211.2</v>
+        <v>251.5</v>
       </c>
       <c r="B131" s="2">
-        <v>45492.58333333334</v>
+        <v>45496.67361111111</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>210.8</v>
+        <v>251.5</v>
       </c>
       <c r="B132" s="2">
-        <v>45492.58680555555</v>
+        <v>45496.67708333334</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>210.6</v>
+        <v>251.5</v>
       </c>
       <c r="B133" s="2">
-        <v>45492.59027777778</v>
+        <v>45496.68055555555</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>210.3</v>
+        <v>251.5</v>
       </c>
       <c r="B134" s="2">
-        <v>45492.59375</v>
+        <v>45496.68402777778</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>210.3</v>
+        <v>251.5</v>
       </c>
       <c r="B135" s="2">
-        <v>45492.59722222222</v>
+        <v>45496.6875</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>210.3</v>
+        <v>251.5</v>
       </c>
       <c r="B136" s="2">
-        <v>45492.60069444445</v>
+        <v>45496.69097222222</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>210.8</v>
+        <v>251.5</v>
       </c>
       <c r="B137" s="2">
-        <v>45492.60416666666</v>
+        <v>45496.69444444445</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>210.9</v>
+        <v>251.5</v>
       </c>
       <c r="B138" s="2">
-        <v>45492.60763888889</v>
+        <v>45496.69791666666</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>210.8</v>
+        <v>251.5</v>
       </c>
       <c r="B139" s="2">
-        <v>45492.61111111111</v>
+        <v>45496.70138888889</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>210.9</v>
+        <v>251.5</v>
       </c>
       <c r="B140" s="2">
-        <v>45492.61458333334</v>
+        <v>45496.70486111111</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>211</v>
+        <v>251.5</v>
       </c>
       <c r="B141" s="2">
-        <v>45492.61805555555</v>
+        <v>45496.70833333334</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>210.9</v>
+        <v>251.5</v>
       </c>
       <c r="B142" s="2">
-        <v>45492.62152777778</v>
+        <v>45496.71180555555</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>210.8</v>
+        <v>251.5</v>
       </c>
       <c r="B143" s="2">
-        <v>45492.625</v>
+        <v>45496.71527777778</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>210.5</v>
+        <v>251.5</v>
       </c>
       <c r="B144" s="2">
-        <v>45492.62847222222</v>
+        <v>45496.71875</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>210.2</v>
+        <v>251.5</v>
       </c>
       <c r="B145" s="2">
-        <v>45492.63194444445</v>
+        <v>45496.72222222222</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>210.4</v>
+        <v>251.5</v>
       </c>
       <c r="B146" s="2">
-        <v>45492.63541666666</v>
+        <v>45496.72569444445</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>209.2</v>
+        <v>251.5</v>
       </c>
       <c r="B147" s="2">
-        <v>45492.63888888889</v>
+        <v>45496.72916666666</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>209</v>
+        <v>251.5</v>
       </c>
       <c r="B148" s="2">
-        <v>45492.64236111111</v>
+        <v>45496.73263888889</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>209.2</v>
+        <v>251.5</v>
       </c>
       <c r="B149" s="2">
-        <v>45492.64583333334</v>
+        <v>45496.73611111111</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>209.1</v>
+        <v>251.5</v>
       </c>
       <c r="B150" s="2">
-        <v>45492.64930555555</v>
+        <v>45496.73958333334</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>209.2</v>
+        <v>251.5</v>
       </c>
       <c r="B151" s="2">
-        <v>45492.65277777778</v>
+        <v>45496.74305555555</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>209.5</v>
+        <v>251.5</v>
       </c>
       <c r="B152" s="2">
-        <v>45492.65625</v>
+        <v>45496.74652777778</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>208.7</v>
+        <v>251.5</v>
       </c>
       <c r="B153" s="2">
-        <v>45492.65972222222</v>
+        <v>45496.75347222222</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>209.3</v>
+        <v>260</v>
       </c>
       <c r="B154" s="2">
-        <v>45492.66319444445</v>
+        <v>45497.41319444445</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>208.5</v>
+        <v>272</v>
       </c>
       <c r="B155" s="2">
-        <v>45492.66666666666</v>
+        <v>45497.41666666666</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>208.8</v>
+        <v>271</v>
       </c>
       <c r="B156" s="2">
-        <v>45492.67013888889</v>
+        <v>45497.42013888889</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>208.8</v>
+        <v>269</v>
       </c>
       <c r="B157" s="2">
-        <v>45492.67361111111</v>
+        <v>45497.42361111111</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>208.9</v>
+        <v>267</v>
       </c>
       <c r="B158" s="2">
-        <v>45492.67708333334</v>
+        <v>45497.42708333334</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>208.8</v>
+        <v>267</v>
       </c>
       <c r="B159" s="2">
-        <v>45492.68055555555</v>
+        <v>45497.43055555555</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>208.5</v>
+        <v>268.75</v>
       </c>
       <c r="B160" s="2">
-        <v>45492.68402777778</v>
+        <v>45497.43402777778</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>208.3</v>
+        <v>266</v>
       </c>
       <c r="B161" s="2">
-        <v>45492.6875</v>
+        <v>45497.4375</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>208.4</v>
+        <v>266</v>
       </c>
       <c r="B162" s="2">
-        <v>45492.69097222222</v>
+        <v>45497.44097222222</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>208.9</v>
+        <v>266</v>
       </c>
       <c r="B163" s="2">
-        <v>45492.69444444445</v>
+        <v>45497.44444444445</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>209.1</v>
+        <v>260.25</v>
       </c>
       <c r="B164" s="2">
-        <v>45492.69791666666</v>
+        <v>45497.44791666666</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>209.1</v>
+        <v>264.75</v>
       </c>
       <c r="B165" s="2">
-        <v>45492.70138888889</v>
+        <v>45497.45138888889</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="B166" s="2">
-        <v>45492.70486111111</v>
+        <v>45497.45486111111</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>209</v>
+        <v>263.5</v>
       </c>
       <c r="B167" s="2">
-        <v>45492.70833333334</v>
+        <v>45497.45833333334</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>208.7</v>
+        <v>263.5</v>
       </c>
       <c r="B168" s="2">
-        <v>45492.71180555555</v>
+        <v>45497.46180555555</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>209.1</v>
+        <v>262</v>
       </c>
       <c r="B169" s="2">
-        <v>45492.71527777778</v>
+        <v>45497.46527777778</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>209.1</v>
+        <v>260.5</v>
       </c>
       <c r="B170" s="2">
-        <v>45492.71875</v>
+        <v>45497.46875</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>209</v>
+        <v>260.75</v>
       </c>
       <c r="B171" s="2">
-        <v>45492.72222222222</v>
+        <v>45497.47222222222</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>208.8</v>
+        <v>257.5</v>
       </c>
       <c r="B172" s="2">
-        <v>45492.72569444445</v>
+        <v>45497.47569444445</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>208.8</v>
+        <v>258.25</v>
       </c>
       <c r="B173" s="2">
-        <v>45492.72916666666</v>
+        <v>45497.47916666666</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>208.9</v>
+        <v>255.5</v>
       </c>
       <c r="B174" s="2">
-        <v>45492.73263888889</v>
+        <v>45497.48263888889</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>209.8</v>
+        <v>257.5</v>
       </c>
       <c r="B175" s="2">
-        <v>45492.73611111111</v>
+        <v>45497.48611111111</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>209.7</v>
+        <v>256</v>
       </c>
       <c r="B176" s="2">
-        <v>45492.73958333334</v>
+        <v>45497.48958333334</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>208.7</v>
+        <v>254</v>
       </c>
       <c r="B177" s="2">
-        <v>45492.74305555555</v>
+        <v>45497.49305555555</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>208.8</v>
+        <v>255</v>
       </c>
       <c r="B178" s="2">
-        <v>45492.74652777778</v>
+        <v>45497.49652777778</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>208.8</v>
+        <v>256.25</v>
       </c>
       <c r="B179" s="2">
-        <v>45492.75</v>
+        <v>45497.5</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>208.9</v>
+        <v>257.25</v>
       </c>
       <c r="B180" s="2">
-        <v>45492.75347222222</v>
+        <v>45497.50347222222</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>208.7</v>
+        <v>255.5</v>
       </c>
       <c r="B181" s="2">
-        <v>45492.75694444445</v>
+        <v>45497.50694444445</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>208.9</v>
+        <v>255.75</v>
       </c>
       <c r="B182" s="2">
-        <v>45492.76041666666</v>
+        <v>45497.51041666666</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>209.2</v>
+        <v>256.25</v>
       </c>
       <c r="B183" s="2">
-        <v>45492.76388888889</v>
+        <v>45497.51388888889</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>209.4</v>
+        <v>257.5</v>
       </c>
       <c r="B184" s="2">
-        <v>45492.76736111111</v>
+        <v>45497.51736111111</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>209.5</v>
+        <v>260</v>
       </c>
       <c r="B185" s="2">
-        <v>45492.77083333334</v>
+        <v>45497.52083333334</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>209.3</v>
+        <v>262.25</v>
       </c>
       <c r="B186" s="2">
-        <v>45492.77430555555</v>
+        <v>45497.52430555555</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>209.3</v>
+        <v>260.5</v>
       </c>
       <c r="B187" s="2">
-        <v>45492.77777777778</v>
+        <v>45497.52777777778</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>208.9</v>
+        <v>259.25</v>
       </c>
       <c r="B188" s="2">
-        <v>45492.78125</v>
+        <v>45497.53125</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>209</v>
+        <v>258.75</v>
       </c>
       <c r="B189" s="2">
-        <v>45492.78472222222</v>
+        <v>45497.53472222222</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>209.2</v>
+        <v>258.5</v>
       </c>
       <c r="B190" s="2">
-        <v>45492.78819444445</v>
+        <v>45497.53819444445</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>209</v>
+        <v>258.75</v>
       </c>
       <c r="B191" s="2">
-        <v>45492.79166666666</v>
+        <v>45497.54166666666</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>208.9</v>
+        <v>258</v>
       </c>
       <c r="B192" s="2">
-        <v>45492.79513888889</v>
+        <v>45497.54513888889</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>209</v>
+        <v>256.5</v>
       </c>
       <c r="B193" s="2">
-        <v>45492.79861111111</v>
+        <v>45497.54861111111</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>208.9</v>
+        <v>257.25</v>
       </c>
       <c r="B194" s="2">
-        <v>45492.80208333334</v>
+        <v>45497.55208333334</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>209.1</v>
+        <v>258.25</v>
       </c>
       <c r="B195" s="2">
-        <v>45492.80555555555</v>
+        <v>45497.55555555555</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>209.2</v>
+        <v>257.5</v>
       </c>
       <c r="B196" s="2">
-        <v>45492.80902777778</v>
+        <v>45497.55902777778</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>209.1</v>
+        <v>258.25</v>
       </c>
       <c r="B197" s="2">
-        <v>45492.8125</v>
+        <v>45497.5625</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>208.8</v>
+        <v>258.25</v>
       </c>
       <c r="B198" s="2">
-        <v>45492.81597222222</v>
+        <v>45497.56597222222</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>208.6</v>
+        <v>257.25</v>
       </c>
       <c r="B199" s="2">
-        <v>45492.81944444445</v>
+        <v>45497.56944444445</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>209.3</v>
+        <v>256.25</v>
       </c>
       <c r="B200" s="2">
-        <v>45492.82291666666</v>
+        <v>45497.57291666666</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>209.4</v>
+        <v>257.25</v>
       </c>
       <c r="B201" s="2">
-        <v>45492.82638888889</v>
+        <v>45497.57638888889</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>209.1</v>
+        <v>256.5</v>
       </c>
       <c r="B202" s="2">
-        <v>45492.82986111111</v>
+        <v>45497.57986111111</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>208.9</v>
+        <v>258</v>
       </c>
       <c r="B203" s="2">
-        <v>45492.83333333334</v>
+        <v>45497.58333333334</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>208.9</v>
+        <v>258.75</v>
       </c>
       <c r="B204" s="2">
-        <v>45492.83680555555</v>
+        <v>45497.58680555555</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>209</v>
+        <v>258.25</v>
       </c>
       <c r="B205" s="2">
-        <v>45492.84027777778</v>
+        <v>45497.59027777778</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>208.9</v>
+        <v>258.75</v>
       </c>
       <c r="B206" s="2">
-        <v>45492.84375</v>
+        <v>45497.59375</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>209</v>
+        <v>258.75</v>
       </c>
       <c r="B207" s="2">
-        <v>45492.84722222222</v>
+        <v>45497.59722222222</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>209</v>
+        <v>258.25</v>
       </c>
       <c r="B208" s="2">
-        <v>45492.85069444445</v>
+        <v>45497.60069444445</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>208.7</v>
+        <v>258.25</v>
       </c>
       <c r="B209" s="2">
-        <v>45492.85416666666</v>
+        <v>45497.60416666666</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>209</v>
+        <v>258.25</v>
       </c>
       <c r="B210" s="2">
-        <v>45492.85763888889</v>
+        <v>45497.60763888889</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>208.9</v>
+        <v>257.75</v>
       </c>
       <c r="B211" s="2">
-        <v>45492.86111111111</v>
+        <v>45497.61111111111</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>208.7</v>
+        <v>257</v>
       </c>
       <c r="B212" s="2">
-        <v>45492.86458333334</v>
+        <v>45497.61458333334</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>208.5</v>
+        <v>257.25</v>
       </c>
       <c r="B213" s="2">
-        <v>45492.86805555555</v>
+        <v>45497.61805555555</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>208.3</v>
+        <v>256.75</v>
       </c>
       <c r="B214" s="2">
-        <v>45492.87152777778</v>
+        <v>45497.62152777778</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>208</v>
+        <v>256.5</v>
       </c>
       <c r="B215" s="2">
-        <v>45492.87847222222</v>
+        <v>45497.625</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>219</v>
+        <v>256.25</v>
       </c>
       <c r="B216" s="2">
-        <v>45495.53819444445</v>
+        <v>45497.62847222222</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>224.6</v>
+        <v>257</v>
       </c>
       <c r="B217" s="2">
-        <v>45495.54166666666</v>
+        <v>45497.63194444445</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>223.6</v>
+        <v>257</v>
       </c>
       <c r="B218" s="2">
-        <v>45495.54513888889</v>
+        <v>45497.63541666666</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>221.4</v>
+        <v>257.75</v>
       </c>
       <c r="B219" s="2">
-        <v>45495.54861111111</v>
+        <v>45497.63888888889</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>222</v>
+        <v>257.5</v>
       </c>
       <c r="B220" s="2">
-        <v>45495.55208333334</v>
+        <v>45497.64236111111</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>222</v>
+        <v>256.5</v>
       </c>
       <c r="B221" s="2">
-        <v>45495.55555555555</v>
+        <v>45497.64583333334</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>221.8</v>
+        <v>256.75</v>
       </c>
       <c r="B222" s="2">
-        <v>45495.55902777778</v>
+        <v>45497.64930555555</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>222.5</v>
+        <v>255.5</v>
       </c>
       <c r="B223" s="2">
-        <v>45495.5625</v>
+        <v>45497.65277777778</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>222.3</v>
+        <v>255.25</v>
       </c>
       <c r="B224" s="2">
-        <v>45495.56597222222</v>
+        <v>45497.65625</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>222.4</v>
+        <v>255.75</v>
       </c>
       <c r="B225" s="2">
-        <v>45495.56944444445</v>
+        <v>45497.65972222222</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>223.3</v>
+        <v>255.75</v>
       </c>
       <c r="B226" s="2">
-        <v>45495.57291666666</v>
+        <v>45497.66319444445</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>223.1</v>
+        <v>254.25</v>
       </c>
       <c r="B227" s="2">
-        <v>45495.57638888889</v>
+        <v>45497.66666666666</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>222.8</v>
+        <v>252.75</v>
       </c>
       <c r="B228" s="2">
-        <v>45495.57986111111</v>
+        <v>45497.67013888889</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>221.7</v>
+        <v>253.5</v>
       </c>
       <c r="B229" s="2">
-        <v>45495.58333333334</v>
+        <v>45497.67361111111</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>221.3</v>
+        <v>255.25</v>
       </c>
       <c r="B230" s="2">
-        <v>45495.58680555555</v>
+        <v>45497.67708333334</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>221.9</v>
+        <v>253.5</v>
       </c>
       <c r="B231" s="2">
-        <v>45495.59027777778</v>
+        <v>45497.68055555555</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>221.4</v>
+        <v>254</v>
       </c>
       <c r="B232" s="2">
-        <v>45495.59375</v>
+        <v>45497.68402777778</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>221.2</v>
+        <v>254</v>
       </c>
       <c r="B233" s="2">
-        <v>45495.59722222222</v>
+        <v>45497.6875</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B234" s="2">
-        <v>45495.60069444445</v>
+        <v>45497.69097222222</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>221.2</v>
+        <v>253.25</v>
       </c>
       <c r="B235" s="2">
-        <v>45495.60416666666</v>
+        <v>45497.69444444445</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>221.6</v>
+        <v>253.5</v>
       </c>
       <c r="B236" s="2">
-        <v>45495.60763888889</v>
+        <v>45497.69791666666</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>221.7</v>
+        <v>251.5</v>
       </c>
       <c r="B237" s="2">
-        <v>45495.61111111111</v>
+        <v>45497.70138888889</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>221.6</v>
+        <v>247</v>
       </c>
       <c r="B238" s="2">
-        <v>45495.61458333334</v>
+        <v>45497.70486111111</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>222.2</v>
+        <v>247.3</v>
       </c>
       <c r="B239" s="2">
-        <v>45495.61805555555</v>
+        <v>45497.71527777778</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>222.5</v>
+        <v>244.8</v>
       </c>
       <c r="B240" s="2">
-        <v>45495.62152777778</v>
+        <v>45497.71875</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>222.4</v>
+        <v>244</v>
       </c>
       <c r="B241" s="2">
-        <v>45495.625</v>
+        <v>45497.72222222222</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>221.7</v>
+        <v>242.5</v>
       </c>
       <c r="B242" s="2">
-        <v>45495.62847222222</v>
+        <v>45497.72569444445</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>221</v>
+        <v>239.7</v>
       </c>
       <c r="B243" s="2">
-        <v>45495.63194444445</v>
+        <v>45497.72916666666</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>221.1</v>
+        <v>241.8</v>
       </c>
       <c r="B244" s="2">
-        <v>45495.63541666666</v>
+        <v>45497.73263888889</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>221.5</v>
+        <v>243.2</v>
       </c>
       <c r="B245" s="2">
-        <v>45495.63888888889</v>
+        <v>45497.73611111111</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>221.6</v>
+        <v>239.7</v>
       </c>
       <c r="B246" s="2">
-        <v>45495.64236111111</v>
+        <v>45497.73958333334</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>221.5</v>
+        <v>240.7</v>
       </c>
       <c r="B247" s="2">
-        <v>45495.64583333334</v>
+        <v>45497.74305555555</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>221.3</v>
+        <v>241.3</v>
       </c>
       <c r="B248" s="2">
-        <v>45495.64930555555</v>
+        <v>45497.74652777778</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>221.6</v>
+        <v>240</v>
       </c>
       <c r="B249" s="2">
-        <v>45495.65277777778</v>
+        <v>45497.75347222222</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>221.6</v>
+        <v>240</v>
       </c>
       <c r="B250" s="2">
-        <v>45495.65625</v>
+        <v>45498.41319444445</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>221.8</v>
+        <v>237.1</v>
       </c>
       <c r="B251" s="2">
-        <v>45495.65972222222</v>
+        <v>45498.41666666666</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>222.3</v>
+        <v>249.5</v>
       </c>
       <c r="B252" s="2">
-        <v>45495.66319444445</v>
+        <v>45498.42013888889</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>222.7</v>
+        <v>247.8</v>
       </c>
       <c r="B253" s="2">
-        <v>45495.66666666666</v>
+        <v>45498.42361111111</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>223.6</v>
+        <v>248.2</v>
       </c>
       <c r="B254" s="2">
-        <v>45495.67013888889</v>
+        <v>45498.42708333334</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>225.3</v>
+        <v>248.4</v>
       </c>
       <c r="B255" s="2">
-        <v>45495.67361111111</v>
+        <v>45498.43055555555</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>225.2</v>
+        <v>249</v>
       </c>
       <c r="B256" s="2">
-        <v>45495.67708333334</v>
+        <v>45498.43402777778</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>224.9</v>
+        <v>253</v>
       </c>
       <c r="B257" s="2">
-        <v>45495.68055555555</v>
+        <v>45498.4375</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>225.3</v>
+        <v>255.25</v>
       </c>
       <c r="B258" s="2">
-        <v>45495.68402777778</v>
+        <v>45498.44097222222</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>224.6</v>
+        <v>254.5</v>
       </c>
       <c r="B259" s="2">
-        <v>45495.6875</v>
+        <v>45498.44444444445</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>224.5</v>
+        <v>255.25</v>
       </c>
       <c r="B260" s="2">
-        <v>45495.69097222222</v>
+        <v>45498.44791666666</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>224.3</v>
+        <v>254</v>
       </c>
       <c r="B261" s="2">
-        <v>45495.69444444445</v>
+        <v>45498.45138888889</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>225</v>
+        <v>251.25</v>
       </c>
       <c r="B262" s="2">
-        <v>45495.69791666666</v>
+        <v>45498.45486111111</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>224.5</v>
+        <v>253.25</v>
       </c>
       <c r="B263" s="2">
-        <v>45495.70138888889</v>
+        <v>45498.45833333334</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>224.6</v>
+        <v>253.5</v>
       </c>
       <c r="B264" s="2">
-        <v>45495.70486111111</v>
+        <v>45498.46180555555</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>224.6</v>
+        <v>251.25</v>
       </c>
       <c r="B265" s="2">
-        <v>45495.70833333334</v>
+        <v>45498.46527777778</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B266" s="2">
-        <v>45495.71180555555</v>
+        <v>45498.46875</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>225.1</v>
+        <v>251.25</v>
       </c>
       <c r="B267" s="2">
-        <v>45495.71527777778</v>
+        <v>45498.47222222222</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>224.8</v>
+        <v>250.25</v>
       </c>
       <c r="B268" s="2">
-        <v>45495.71875</v>
+        <v>45498.47569444445</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>224.4</v>
+        <v>250.5</v>
       </c>
       <c r="B269" s="2">
-        <v>45495.72222222222</v>
+        <v>45498.47916666666</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>224.5</v>
+        <v>251</v>
       </c>
       <c r="B270" s="2">
-        <v>45495.72569444445</v>
+        <v>45498.48263888889</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>224.5</v>
+        <v>250.25</v>
       </c>
       <c r="B271" s="2">
-        <v>45495.72916666666</v>
+        <v>45498.48611111111</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>224.8</v>
+        <v>250.75</v>
       </c>
       <c r="B272" s="2">
-        <v>45495.73263888889</v>
+        <v>45498.48958333334</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>225.9</v>
+        <v>249.4</v>
       </c>
       <c r="B273" s="2">
-        <v>45495.73611111111</v>
+        <v>45498.49305555555</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>227</v>
+        <v>249.6</v>
       </c>
       <c r="B274" s="2">
-        <v>45495.73958333334</v>
+        <v>45498.49652777778</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>225.9</v>
+        <v>249.1</v>
       </c>
       <c r="B275" s="2">
-        <v>45495.74305555555</v>
+        <v>45498.5</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>226.5</v>
+        <v>248.6</v>
       </c>
       <c r="B276" s="2">
-        <v>45495.74652777778</v>
+        <v>45498.50347222222</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>226.1</v>
+        <v>249.2</v>
       </c>
       <c r="B277" s="2">
-        <v>45495.75</v>
+        <v>45498.50694444445</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>226.1</v>
+        <v>251.5</v>
       </c>
       <c r="B278" s="2">
-        <v>45495.75347222222</v>
+        <v>45498.51041666666</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>227.2</v>
+        <v>251</v>
       </c>
       <c r="B279" s="2">
-        <v>45495.75694444445</v>
+        <v>45498.51388888889</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>228.8</v>
+        <v>251.25</v>
       </c>
       <c r="B280" s="2">
-        <v>45495.76041666666</v>
+        <v>45498.51736111111</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>228.8</v>
+        <v>251</v>
       </c>
       <c r="B281" s="2">
-        <v>45495.76388888889</v>
+        <v>45498.52083333334</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>228.8</v>
+        <v>250.75</v>
       </c>
       <c r="B282" s="2">
-        <v>45495.76736111111</v>
+        <v>45498.52430555555</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>228.8</v>
+        <v>250</v>
       </c>
       <c r="B283" s="2">
-        <v>45495.77083333334</v>
+        <v>45498.52777777778</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>228.8</v>
+        <v>249.8</v>
       </c>
       <c r="B284" s="2">
-        <v>45495.77430555555</v>
+        <v>45498.53125</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>228.8</v>
+        <v>249.3</v>
       </c>
       <c r="B285" s="2">
-        <v>45495.77777777778</v>
+        <v>45498.53472222222</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>228.8</v>
+        <v>249.3</v>
       </c>
       <c r="B286" s="2">
-        <v>45495.78125</v>
+        <v>45498.53819444445</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>228.8</v>
+        <v>248.6</v>
       </c>
       <c r="B287" s="2">
-        <v>45495.78472222222</v>
+        <v>45498.54166666666</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>228.8</v>
+        <v>248.5</v>
       </c>
       <c r="B288" s="2">
-        <v>45495.78819444445</v>
+        <v>45498.54513888889</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>228.8</v>
+        <v>247.9</v>
       </c>
       <c r="B289" s="2">
-        <v>45495.79166666666</v>
+        <v>45498.54861111111</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>228.8</v>
+        <v>247.8</v>
       </c>
       <c r="B290" s="2">
-        <v>45495.79513888889</v>
+        <v>45498.55208333334</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>228.8</v>
+        <v>247.1</v>
       </c>
       <c r="B291" s="2">
-        <v>45495.79861111111</v>
+        <v>45498.55555555555</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>228.8</v>
+        <v>247.3</v>
       </c>
       <c r="B292" s="2">
-        <v>45495.80208333334</v>
+        <v>45498.55902777778</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>228.8</v>
+        <v>246.4</v>
       </c>
       <c r="B293" s="2">
-        <v>45495.80555555555</v>
+        <v>45498.5625</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>228.8</v>
+        <v>246.3</v>
       </c>
       <c r="B294" s="2">
-        <v>45495.80902777778</v>
+        <v>45498.56597222222</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>228.8</v>
+        <v>247.3</v>
       </c>
       <c r="B295" s="2">
-        <v>45495.8125</v>
+        <v>45498.56944444445</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>228.8</v>
+        <v>245.7</v>
       </c>
       <c r="B296" s="2">
-        <v>45495.81597222222</v>
+        <v>45498.57291666666</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>228.8</v>
+        <v>246.4</v>
       </c>
       <c r="B297" s="2">
-        <v>45495.81944444445</v>
+        <v>45498.57638888889</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>228.8</v>
+        <v>246.2</v>
       </c>
       <c r="B298" s="2">
-        <v>45495.82291666666</v>
+        <v>45498.57986111111</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>228.8</v>
+        <v>246.2</v>
       </c>
       <c r="B299" s="2">
-        <v>45495.82638888889</v>
+        <v>45498.58333333334</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>228.8</v>
+        <v>245.6</v>
       </c>
       <c r="B300" s="2">
-        <v>45495.82986111111</v>
+        <v>45498.58680555555</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>228.8</v>
+        <v>244.8</v>
       </c>
       <c r="B301" s="2">
-        <v>45495.83333333334</v>
+        <v>45498.59027777778</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>228.8</v>
+        <v>244.4</v>
       </c>
       <c r="B302" s="2">
-        <v>45495.83680555555</v>
+        <v>45498.59375</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>228.8</v>
+        <v>245.1</v>
       </c>
       <c r="B303" s="2">
-        <v>45495.84027777778</v>
+        <v>45498.59722222222</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>228.8</v>
+        <v>245.2</v>
       </c>
       <c r="B304" s="2">
-        <v>45495.84375</v>
+        <v>45498.60069444445</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>228.8</v>
+        <v>245.5</v>
       </c>
       <c r="B305" s="2">
-        <v>45495.84722222222</v>
+        <v>45498.60416666666</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>228.8</v>
+        <v>245.3</v>
       </c>
       <c r="B306" s="2">
-        <v>45495.85069444445</v>
+        <v>45498.60763888889</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>228.8</v>
+        <v>246</v>
       </c>
       <c r="B307" s="2">
-        <v>45495.85416666666</v>
+        <v>45498.61111111111</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>228.8</v>
+        <v>247.8</v>
       </c>
       <c r="B308" s="2">
-        <v>45495.85763888889</v>
+        <v>45498.61458333334</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>228.8</v>
+        <v>247.6</v>
       </c>
       <c r="B309" s="2">
-        <v>45495.86111111111</v>
+        <v>45498.61805555555</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>228.8</v>
+        <v>245.6</v>
       </c>
       <c r="B310" s="2">
-        <v>45495.86458333334</v>
+        <v>45498.62152777778</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>228.8</v>
+        <v>245.5</v>
       </c>
       <c r="B311" s="2">
-        <v>45495.86805555555</v>
+        <v>45498.625</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>228.8</v>
+        <v>244.4</v>
       </c>
       <c r="B312" s="2">
-        <v>45495.87152777778</v>
+        <v>45498.62847222222</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>228.8</v>
+        <v>245.9</v>
       </c>
       <c r="B313" s="2">
-        <v>45495.87847222222</v>
+        <v>45498.63194444445</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>239</v>
+        <v>245.7</v>
       </c>
       <c r="B314" s="2">
-        <v>45496.53819444445</v>
+        <v>45498.63541666666</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>242</v>
+        <v>244.6</v>
       </c>
       <c r="B315" s="2">
-        <v>45496.54166666666</v>
+        <v>45498.63888888889</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>247.2</v>
+        <v>244.4</v>
       </c>
       <c r="B316" s="2">
-        <v>45496.54513888889</v>
+        <v>45498.64236111111</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>251.5</v>
+        <v>244.7</v>
       </c>
       <c r="B317" s="2">
-        <v>45496.54861111111</v>
+        <v>45498.64583333334</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>251.5</v>
+        <v>244.4</v>
       </c>
       <c r="B318" s="2">
-        <v>45496.55208333334</v>
+        <v>45498.64930555555</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>251.5</v>
+        <v>245.3</v>
       </c>
       <c r="B319" s="2">
-        <v>45496.55555555555</v>
+        <v>45498.65277777778</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>251.5</v>
+        <v>245.6</v>
       </c>
       <c r="B320" s="2">
-        <v>45496.55902777778</v>
+        <v>45498.65625</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>251.5</v>
+        <v>243.7</v>
       </c>
       <c r="B321" s="2">
-        <v>45496.5625</v>
+        <v>45498.65972222222</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>251.5</v>
+        <v>243.1</v>
       </c>
       <c r="B322" s="2">
-        <v>45496.56597222222</v>
+        <v>45498.66319444445</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>251.5</v>
+        <v>242.8</v>
       </c>
       <c r="B323" s="2">
-        <v>45496.56944444445</v>
+        <v>45498.66666666666</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>251.5</v>
+        <v>244</v>
       </c>
       <c r="B324" s="2">
-        <v>45496.57291666666</v>
+        <v>45498.67013888889</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>251.5</v>
+        <v>244.5</v>
       </c>
       <c r="B325" s="2">
-        <v>45496.57638888889</v>
+        <v>45498.67361111111</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>251.5</v>
+        <v>245</v>
       </c>
       <c r="B326" s="2">
-        <v>45496.57986111111</v>
+        <v>45498.67708333334</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>251.5</v>
+        <v>243</v>
       </c>
       <c r="B327" s="2">
-        <v>45496.58333333334</v>
+        <v>45498.68055555555</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>251.5</v>
+        <v>242.4</v>
       </c>
       <c r="B328" s="2">
-        <v>45496.58680555555</v>
+        <v>45498.68402777778</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>251.5</v>
+        <v>241.5</v>
       </c>
       <c r="B329" s="2">
-        <v>45496.59027777778</v>
+        <v>45498.6875</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>251.5</v>
+        <v>241.3</v>
       </c>
       <c r="B330" s="2">
-        <v>45496.59375</v>
+        <v>45498.69097222222</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>251.5</v>
+        <v>241.4</v>
       </c>
       <c r="B331" s="2">
-        <v>45496.59722222222</v>
+        <v>45498.69444444445</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>251.5</v>
+        <v>241.3</v>
       </c>
       <c r="B332" s="2">
-        <v>45496.60069444445</v>
+        <v>45498.69791666666</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>251.5</v>
+        <v>241</v>
       </c>
       <c r="B333" s="2">
-        <v>45496.60416666666</v>
+        <v>45498.70138888889</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>251.5</v>
+        <v>241.8</v>
       </c>
       <c r="B334" s="2">
-        <v>45496.60763888889</v>
+        <v>45498.70486111111</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>251.5</v>
+        <v>241.6</v>
       </c>
       <c r="B335" s="2">
-        <v>45496.61111111111</v>
+        <v>45498.70833333334</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>251.5</v>
+        <v>242.5</v>
       </c>
       <c r="B336" s="2">
-        <v>45496.61458333334</v>
+        <v>45498.71180555555</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>251.5</v>
+        <v>242.2</v>
       </c>
       <c r="B337" s="2">
-        <v>45496.61805555555</v>
+        <v>45498.71527777778</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>251.5</v>
+        <v>243.4</v>
       </c>
       <c r="B338" s="2">
-        <v>45496.62152777778</v>
+        <v>45498.71875</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>251.5</v>
+        <v>241.3</v>
       </c>
       <c r="B339" s="2">
-        <v>45496.625</v>
+        <v>45498.72222222222</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>251.5</v>
+        <v>239.3</v>
       </c>
       <c r="B340" s="2">
-        <v>45496.62847222222</v>
+        <v>45498.72569444445</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>251.5</v>
+        <v>241.3</v>
       </c>
       <c r="B341" s="2">
-        <v>45496.63194444445</v>
+        <v>45498.72916666666</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>251.5</v>
+        <v>239.7</v>
       </c>
       <c r="B342" s="2">
-        <v>45496.63541666666</v>
+        <v>45498.73263888889</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>251.5</v>
+        <v>240.2</v>
       </c>
       <c r="B343" s="2">
-        <v>45496.63888888889</v>
+        <v>45498.73611111111</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>251.5</v>
+        <v>239.9</v>
       </c>
       <c r="B344" s="2">
-        <v>45496.64236111111</v>
+        <v>45498.73958333334</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>251.5</v>
+        <v>242.8</v>
       </c>
       <c r="B345" s="2">
-        <v>45496.64583333334</v>
+        <v>45498.74305555555</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>251.5</v>
+        <v>241.7</v>
       </c>
       <c r="B346" s="2">
-        <v>45496.64930555555</v>
+        <v>45498.74652777778</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>251.5</v>
+        <v>241.8</v>
       </c>
       <c r="B347" s="2">
-        <v>45496.65277777778</v>
+        <v>45498.75347222222</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>251.5</v>
+        <v>245.9</v>
       </c>
       <c r="B348" s="2">
-        <v>45496.65625</v>
+        <v>45499.41319444445</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>251.5</v>
+        <v>250.75</v>
       </c>
       <c r="B349" s="2">
-        <v>45496.65972222222</v>
+        <v>45499.41666666666</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>251.5</v>
+        <v>248.6</v>
       </c>
       <c r="B350" s="2">
-        <v>45496.66319444445</v>
+        <v>45499.42013888889</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>251.5</v>
+        <v>249.4</v>
       </c>
       <c r="B351" s="2">
-        <v>45496.66666666666</v>
+        <v>45499.42361111111</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>251.5</v>
+        <v>248.7</v>
       </c>
       <c r="B352" s="2">
-        <v>45496.67013888889</v>
+        <v>45499.42708333334</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>251.5</v>
+        <v>247.6</v>
       </c>
       <c r="B353" s="2">
-        <v>45496.67361111111</v>
+        <v>45499.43055555555</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>251.5</v>
+        <v>246.4</v>
       </c>
       <c r="B354" s="2">
-        <v>45496.67708333334</v>
+        <v>45499.43402777778</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>251.5</v>
+        <v>245</v>
       </c>
       <c r="B355" s="2">
-        <v>45496.68055555555</v>
+        <v>45499.4375</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>251.5</v>
+        <v>245</v>
       </c>
       <c r="B356" s="2">
-        <v>45496.68402777778</v>
+        <v>45499.44097222222</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>251.5</v>
+        <v>244.6</v>
       </c>
       <c r="B357" s="2">
-        <v>45496.6875</v>
+        <v>45499.44444444445</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>251.5</v>
+        <v>243.5</v>
       </c>
       <c r="B358" s="2">
-        <v>45496.69097222222</v>
+        <v>45499.44791666666</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>251.5</v>
+        <v>243.7</v>
       </c>
       <c r="B359" s="2">
-        <v>45496.69444444445</v>
+        <v>45499.45138888889</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>251.5</v>
+        <v>244.8</v>
       </c>
       <c r="B360" s="2">
-        <v>45496.69791666666</v>
+        <v>45499.45486111111</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>251.5</v>
+        <v>244.9</v>
       </c>
       <c r="B361" s="2">
-        <v>45496.70138888889</v>
+        <v>45499.45833333334</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>251.5</v>
+        <v>244.1</v>
       </c>
       <c r="B362" s="2">
-        <v>45496.70486111111</v>
+        <v>45499.46180555555</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>251.5</v>
+        <v>244.1</v>
       </c>
       <c r="B363" s="2">
-        <v>45496.70833333334</v>
+        <v>45499.46527777778</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>251.5</v>
+        <v>244</v>
       </c>
       <c r="B364" s="2">
-        <v>45496.71180555555</v>
+        <v>45499.46875</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>251.5</v>
+        <v>244.1</v>
       </c>
       <c r="B365" s="2">
-        <v>45496.71527777778</v>
+        <v>45499.47222222222</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>251.5</v>
+        <v>243.8</v>
       </c>
       <c r="B366" s="2">
-        <v>45496.71875</v>
+        <v>45499.47569444445</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>251.5</v>
+        <v>243.9</v>
       </c>
       <c r="B367" s="2">
-        <v>45496.72222222222</v>
+        <v>45499.47916666666</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>251.5</v>
+        <v>244.7</v>
       </c>
       <c r="B368" s="2">
-        <v>45496.72569444445</v>
+        <v>45499.48263888889</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>251.5</v>
+        <v>243.8</v>
       </c>
       <c r="B369" s="2">
-        <v>45496.72916666666</v>
+        <v>45499.48611111111</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>251.5</v>
+        <v>243.8</v>
       </c>
       <c r="B370" s="2">
-        <v>45496.73263888889</v>
+        <v>45499.48958333334</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>251.5</v>
+        <v>243.9</v>
       </c>
       <c r="B371" s="2">
-        <v>45496.73611111111</v>
+        <v>45499.49305555555</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B372" s="2">
-        <v>45496.73958333334</v>
+        <v>45499.49652777778</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>251.5</v>
+        <v>243.7</v>
       </c>
       <c r="B373" s="2">
-        <v>45496.74305555555</v>
+        <v>45499.5</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>251.5</v>
+        <v>243.7</v>
       </c>
       <c r="B374" s="2">
-        <v>45496.74652777778</v>
+        <v>45499.50347222222</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B375" s="2">
-        <v>45496.75</v>
+        <v>45499.50694444445</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B376" s="2">
-        <v>45496.75347222222</v>
+        <v>45499.51041666666</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>251.5</v>
+        <v>243.5</v>
       </c>
       <c r="B377" s="2">
-        <v>45496.75694444445</v>
+        <v>45499.51388888889</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B378" s="2">
-        <v>45496.76041666666</v>
+        <v>45499.51736111111</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>251.5</v>
+        <v>242.9</v>
       </c>
       <c r="B379" s="2">
-        <v>45496.76388888889</v>
+        <v>45499.52083333334</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>251.5</v>
+        <v>242.5</v>
       </c>
       <c r="B380" s="2">
-        <v>45496.76736111111</v>
+        <v>45499.52430555555</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>251.5</v>
+        <v>242.4</v>
       </c>
       <c r="B381" s="2">
-        <v>45496.77083333334</v>
+        <v>45499.52777777778</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>251.5</v>
+        <v>242.6</v>
       </c>
       <c r="B382" s="2">
-        <v>45496.77430555555</v>
+        <v>45499.53125</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>251.5</v>
+        <v>242.5</v>
       </c>
       <c r="B383" s="2">
-        <v>45496.77777777778</v>
+        <v>45499.53472222222</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>251.5</v>
+        <v>242.7</v>
       </c>
       <c r="B384" s="2">
-        <v>45496.78125</v>
+        <v>45499.53819444445</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B385" s="2">
-        <v>45496.78472222222</v>
+        <v>45499.54166666666</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>251.5</v>
+        <v>243.5</v>
       </c>
       <c r="B386" s="2">
-        <v>45496.78819444445</v>
+        <v>45499.54513888889</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>251.5</v>
+        <v>243.2</v>
       </c>
       <c r="B387" s="2">
-        <v>45496.79166666666</v>
+        <v>45499.54861111111</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>251.5</v>
+        <v>243.2</v>
       </c>
       <c r="B388" s="2">
-        <v>45496.79513888889</v>
+        <v>45499.55208333334</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>251.5</v>
+        <v>242.7</v>
       </c>
       <c r="B389" s="2">
-        <v>45496.79861111111</v>
+        <v>45499.55555555555</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>251.5</v>
+        <v>242.9</v>
       </c>
       <c r="B390" s="2">
-        <v>45496.80208333334</v>
+        <v>45499.55902777778</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B391" s="2">
-        <v>45496.80555555555</v>
+        <v>45499.5625</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>251.5</v>
+        <v>244.4</v>
       </c>
       <c r="B392" s="2">
-        <v>45496.80902777778</v>
+        <v>45499.56597222222</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>251.5</v>
+        <v>243.9</v>
       </c>
       <c r="B393" s="2">
-        <v>45496.8125</v>
+        <v>45499.56944444445</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>251.5</v>
+        <v>244.3</v>
       </c>
       <c r="B394" s="2">
-        <v>45496.81597222222</v>
+        <v>45499.57291666666</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>251.5</v>
+        <v>244.6</v>
       </c>
       <c r="B395" s="2">
-        <v>45496.81944444445</v>
+        <v>45499.57638888889</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>251.5</v>
+        <v>243.9</v>
       </c>
       <c r="B396" s="2">
-        <v>45496.82291666666</v>
+        <v>45499.57986111111</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>251.5</v>
+        <v>244.2</v>
       </c>
       <c r="B397" s="2">
-        <v>45496.82638888889</v>
+        <v>45499.58333333334</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>251.5</v>
+        <v>244.1</v>
       </c>
       <c r="B398" s="2">
-        <v>45496.82986111111</v>
+        <v>45499.58680555555</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>251.5</v>
+        <v>243.6</v>
       </c>
       <c r="B399" s="2">
-        <v>45496.83333333334</v>
+        <v>45499.59027777778</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>251.5</v>
+        <v>243.7</v>
       </c>
       <c r="B400" s="2">
-        <v>45496.83680555555</v>
+        <v>45499.59375</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>251.5</v>
+        <v>243.2</v>
       </c>
       <c r="B401" s="2">
-        <v>45496.84027777778</v>
+        <v>45499.59722222222</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>251.5</v>
+        <v>243.4</v>
       </c>
       <c r="B402" s="2">
-        <v>45496.84375</v>
+        <v>45499.60069444445</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>251.5</v>
+        <v>243.3</v>
       </c>
       <c r="B403" s="2">
-        <v>45496.84722222222</v>
+        <v>45499.60416666666</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>251.5</v>
+        <v>243.1</v>
       </c>
       <c r="B404" s="2">
-        <v>45496.85069444445</v>
+        <v>45499.60763888889</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>251.5</v>
+        <v>243.1</v>
       </c>
       <c r="B405" s="2">
-        <v>45496.85416666666</v>
+        <v>45499.61111111111</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>251.5</v>
+        <v>242.8</v>
       </c>
       <c r="B406" s="2">
-        <v>45496.85763888889</v>
+        <v>45499.61458333334</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>251.5</v>
+        <v>243.4</v>
       </c>
       <c r="B407" s="2">
-        <v>45496.86111111111</v>
+        <v>45499.61805555555</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>251.5</v>
+        <v>243</v>
       </c>
       <c r="B408" s="2">
-        <v>45496.86458333334</v>
+        <v>45499.62152777778</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>251.5</v>
+        <v>242.7</v>
       </c>
       <c r="B409" s="2">
-        <v>45496.86805555555</v>
+        <v>45499.625</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>251.5</v>
+        <v>243.8</v>
       </c>
       <c r="B410" s="2">
-        <v>45496.87152777778</v>
+        <v>45499.62847222222</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>251.5</v>
+        <v>243.1</v>
       </c>
       <c r="B411" s="2">
-        <v>45496.87847222222</v>
+        <v>45499.63194444445</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>260</v>
+        <v>243.4</v>
       </c>
       <c r="B412" s="2">
-        <v>45497.53819444445</v>
+        <v>45499.63541666666</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>272</v>
+        <v>244.2</v>
       </c>
       <c r="B413" s="2">
-        <v>45497.54166666666</v>
+        <v>45499.63888888889</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>271</v>
+        <v>243.5</v>
       </c>
       <c r="B414" s="2">
-        <v>45497.54513888889</v>
+        <v>45499.64236111111</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>269</v>
+        <v>244.1</v>
       </c>
       <c r="B415" s="2">
-        <v>45497.54861111111</v>
+        <v>45499.64583333334</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B416" s="2">
-        <v>45497.55208333334</v>
+        <v>45499.64930555555</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>267</v>
+        <v>243.8</v>
       </c>
       <c r="B417" s="2">
-        <v>45497.55555555555</v>
+        <v>45499.65277777778</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>268.75</v>
+        <v>243.2</v>
       </c>
       <c r="B418" s="2">
-        <v>45497.55902777778</v>
+        <v>45499.65625</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>266</v>
+        <v>243.6</v>
       </c>
       <c r="B419" s="2">
-        <v>45497.5625</v>
+        <v>45499.65972222222</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B420" s="2">
-        <v>45497.56597222222</v>
+        <v>45499.66319444445</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>266</v>
+        <v>243.7</v>
       </c>
       <c r="B421" s="2">
-        <v>45497.56944444445</v>
+        <v>45499.66666666666</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>260.25</v>
+        <v>243.9</v>
       </c>
       <c r="B422" s="2">
-        <v>45497.57291666666</v>
+        <v>45499.67013888889</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>264.75</v>
+        <v>245.4</v>
       </c>
       <c r="B423" s="2">
-        <v>45497.57638888889</v>
+        <v>45499.67361111111</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>262</v>
+        <v>244.1</v>
       </c>
       <c r="B424" s="2">
-        <v>45497.57986111111</v>
+        <v>45499.67708333334</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>263.5</v>
+        <v>245.6</v>
       </c>
       <c r="B425" s="2">
-        <v>45497.58333333334</v>
+        <v>45499.68055555555</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>263.5</v>
+        <v>249.3</v>
       </c>
       <c r="B426" s="2">
-        <v>45497.58680555555</v>
+        <v>45499.68402777778</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B427" s="2">
-        <v>45497.59027777778</v>
+        <v>45499.6875</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>260.5</v>
+        <v>248</v>
       </c>
       <c r="B428" s="2">
-        <v>45497.59375</v>
+        <v>45499.69097222222</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>260.75</v>
+        <v>246.4</v>
       </c>
       <c r="B429" s="2">
-        <v>45497.59722222222</v>
+        <v>45499.69444444445</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>257.5</v>
+        <v>246.5</v>
       </c>
       <c r="B430" s="2">
-        <v>45497.60069444445</v>
+        <v>45499.69791666666</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>258.25</v>
+        <v>245</v>
       </c>
       <c r="B431" s="2">
-        <v>45497.60416666666</v>
+        <v>45499.70138888889</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>255.5</v>
+        <v>246.4</v>
       </c>
       <c r="B432" s="2">
-        <v>45497.60763888889</v>
+        <v>45499.70486111111</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>257.5</v>
+        <v>244.7</v>
       </c>
       <c r="B433" s="2">
-        <v>45497.61111111111</v>
+        <v>45499.70833333334</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>256</v>
+        <v>244.5</v>
       </c>
       <c r="B434" s="2">
-        <v>45497.61458333334</v>
+        <v>45499.71180555555</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>254</v>
+        <v>244.6</v>
       </c>
       <c r="B435" s="2">
-        <v>45497.61805555555</v>
+        <v>45499.71527777778</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>255</v>
+        <v>244.1</v>
       </c>
       <c r="B436" s="2">
-        <v>45497.62152777778</v>
+        <v>45499.71875</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>256.25</v>
+        <v>243</v>
       </c>
       <c r="B437" s="2">
-        <v>45497.625</v>
+        <v>45499.72222222222</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>257.25</v>
+        <v>243</v>
       </c>
       <c r="B438" s="2">
-        <v>45497.62847222222</v>
+        <v>45499.72569444445</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>255.5</v>
+        <v>243.1</v>
       </c>
       <c r="B439" s="2">
-        <v>45497.63194444445</v>
+        <v>45499.72916666666</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>255.75</v>
+        <v>242.9</v>
       </c>
       <c r="B440" s="2">
-        <v>45497.63541666666</v>
+        <v>45499.73263888889</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>256.25</v>
+        <v>243</v>
       </c>
       <c r="B441" s="2">
-        <v>45497.63888888889</v>
+        <v>45499.73611111111</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>257.5</v>
+        <v>243.2</v>
       </c>
       <c r="B442" s="2">
-        <v>45497.64236111111</v>
+        <v>45499.73958333334</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>260</v>
+        <v>242.8</v>
       </c>
       <c r="B443" s="2">
-        <v>45497.64583333334</v>
+        <v>45499.74305555555</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>262.25</v>
+        <v>243</v>
       </c>
       <c r="B444" s="2">
-        <v>45497.64930555555</v>
+        <v>45499.74652777778</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>260.5</v>
+        <v>243.4</v>
       </c>
       <c r="B445" s="2">
-        <v>45497.65277777778</v>
+        <v>45499.75347222222</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>259.25</v>
+        <v>241.4</v>
       </c>
       <c r="B446" s="2">
-        <v>45497.65625</v>
+        <v>45502.41319444445</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>258.75</v>
+        <v>237.5</v>
       </c>
       <c r="B447" s="2">
-        <v>45497.65972222222</v>
+        <v>45502.41666666666</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>258.5</v>
+        <v>237.9</v>
       </c>
       <c r="B448" s="2">
-        <v>45497.66319444445</v>
+        <v>45502.42013888889</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>258.75</v>
+        <v>238.9</v>
       </c>
       <c r="B449" s="2">
-        <v>45497.66666666666</v>
+        <v>45502.42361111111</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>258</v>
+        <v>237.7</v>
       </c>
       <c r="B450" s="2">
-        <v>45497.67013888889</v>
+        <v>45502.42708333334</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>256.5</v>
+        <v>238.2</v>
       </c>
       <c r="B451" s="2">
-        <v>45497.67361111111</v>
+        <v>45502.43055555555</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>257.25</v>
+        <v>238.2</v>
       </c>
       <c r="B452" s="2">
-        <v>45497.67708333334</v>
+        <v>45502.43402777778</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>258.25</v>
+        <v>238.4</v>
       </c>
       <c r="B453" s="2">
-        <v>45497.68055555555</v>
+        <v>45502.4375</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>257.5</v>
+        <v>238.5</v>
       </c>
       <c r="B454" s="2">
-        <v>45497.68402777778</v>
+        <v>45502.44097222222</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>258.25</v>
+        <v>239.4</v>
       </c>
       <c r="B455" s="2">
-        <v>45497.6875</v>
+        <v>45502.44444444445</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>258.25</v>
+        <v>242.6</v>
       </c>
       <c r="B456" s="2">
-        <v>45497.69097222222</v>
+        <v>45502.44791666666</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>257.25</v>
+        <v>244.2</v>
       </c>
       <c r="B457" s="2">
-        <v>45497.69444444445</v>
+        <v>45502.45138888889</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>256.25</v>
+        <v>248.1</v>
       </c>
       <c r="B458" s="2">
-        <v>45497.69791666666</v>
+        <v>45502.45486111111</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>257.25</v>
+        <v>246.7</v>
       </c>
       <c r="B459" s="2">
-        <v>45497.70138888889</v>
+        <v>45502.45833333334</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>256.5</v>
+        <v>247.1</v>
       </c>
       <c r="B460" s="2">
-        <v>45497.70486111111</v>
+        <v>45502.46180555555</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>258</v>
+        <v>245.6</v>
       </c>
       <c r="B461" s="2">
-        <v>45497.70833333334</v>
+        <v>45502.46527777778</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>258.75</v>
+        <v>245.9</v>
       </c>
       <c r="B462" s="2">
-        <v>45497.71180555555</v>
+        <v>45502.46875</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>258.25</v>
+        <v>244.5</v>
       </c>
       <c r="B463" s="2">
-        <v>45497.71527777778</v>
+        <v>45502.47222222222</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>258.75</v>
+        <v>245.1</v>
       </c>
       <c r="B464" s="2">
-        <v>45497.71875</v>
+        <v>45502.47569444445</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>258.75</v>
+        <v>244.6</v>
       </c>
       <c r="B465" s="2">
-        <v>45497.72222222222</v>
+        <v>45502.47916666666</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466">
-        <v>258.25</v>
+        <v>243</v>
       </c>
       <c r="B466" s="2">
-        <v>45497.72569444445</v>
+        <v>45502.48263888889</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>258.25</v>
+        <v>242</v>
       </c>
       <c r="B467" s="2">
-        <v>45497.72916666666</v>
+        <v>45502.48611111111</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>258.25</v>
+        <v>242.4</v>
       </c>
       <c r="B468" s="2">
-        <v>45497.73263888889</v>
+        <v>45502.48958333334</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469">
-        <v>257.75</v>
+        <v>242.8</v>
       </c>
       <c r="B469" s="2">
-        <v>45497.73611111111</v>
+        <v>45502.49305555555</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470">
-        <v>257</v>
+        <v>242.1</v>
       </c>
       <c r="B470" s="2">
-        <v>45497.73958333334</v>
+        <v>45502.49652777778</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>257.25</v>
+        <v>242.3</v>
       </c>
       <c r="B471" s="2">
-        <v>45497.74305555555</v>
+        <v>45502.5</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>256.75</v>
+        <v>242.1</v>
       </c>
       <c r="B472" s="2">
-        <v>45497.74652777778</v>
+        <v>45502.50347222222</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>256.5</v>
+        <v>242</v>
       </c>
       <c r="B473" s="2">
-        <v>45497.75</v>
+        <v>45502.50694444445</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>256.25</v>
+        <v>241.1</v>
       </c>
       <c r="B474" s="2">
-        <v>45497.75347222222</v>
+        <v>45502.51041666666</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>257</v>
+        <v>241.8</v>
       </c>
       <c r="B475" s="2">
-        <v>45497.75694444445</v>
+        <v>45502.51388888889</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>257</v>
+        <v>241.3</v>
       </c>
       <c r="B476" s="2">
-        <v>45497.76041666666</v>
+        <v>45502.51736111111</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477">
-        <v>257.75</v>
+        <v>241.1</v>
       </c>
       <c r="B477" s="2">
-        <v>45497.76388888889</v>
+        <v>45502.52083333334</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>257.5</v>
+        <v>241</v>
       </c>
       <c r="B478" s="2">
-        <v>45497.76736111111</v>
+        <v>45502.52430555555</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>256.5</v>
+        <v>241.6</v>
       </c>
       <c r="B479" s="2">
-        <v>45497.77083333334</v>
+        <v>45502.52777777778</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>256.75</v>
+        <v>241.7</v>
       </c>
       <c r="B480" s="2">
-        <v>45497.77430555555</v>
+        <v>45502.53125</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>255.5</v>
+        <v>242</v>
       </c>
       <c r="B481" s="2">
-        <v>45497.77777777778</v>
+        <v>45502.53472222222</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>255.25</v>
+        <v>241.3</v>
       </c>
       <c r="B482" s="2">
-        <v>45497.78125</v>
+        <v>45502.53819444445</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>255.75</v>
+        <v>240.8</v>
       </c>
       <c r="B483" s="2">
-        <v>45497.78472222222</v>
+        <v>45502.54166666666</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>255.75</v>
+        <v>240.7</v>
       </c>
       <c r="B484" s="2">
-        <v>45497.78819444445</v>
+        <v>45502.54513888889</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485">
-        <v>254.25</v>
+        <v>240.7</v>
       </c>
       <c r="B485" s="2">
-        <v>45497.79166666666</v>
+        <v>45502.54861111111</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>252.75</v>
+        <v>240.5</v>
       </c>
       <c r="B486" s="2">
-        <v>45497.79513888889</v>
+        <v>45502.55208333334</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487">
-        <v>253.5</v>
+        <v>240.9</v>
       </c>
       <c r="B487" s="2">
-        <v>45497.79861111111</v>
+        <v>45502.55555555555</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>255.25</v>
+        <v>241.3</v>
       </c>
       <c r="B488" s="2">
-        <v>45497.80208333334</v>
+        <v>45502.55902777778</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489">
-        <v>253.5</v>
+        <v>241.1</v>
       </c>
       <c r="B489" s="2">
-        <v>45497.80555555555</v>
+        <v>45502.5625</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>254</v>
+        <v>240.9</v>
       </c>
       <c r="B490" s="2">
-        <v>45497.80902777778</v>
+        <v>45502.56597222222</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>254</v>
+        <v>241.2</v>
       </c>
       <c r="B491" s="2">
-        <v>45497.8125</v>
+        <v>45502.56944444445</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B492" s="2">
-        <v>45497.81597222222</v>
+        <v>45502.57291666666</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>253.25</v>
+        <v>241.5</v>
       </c>
       <c r="B493" s="2">
-        <v>45497.81944444445</v>
+        <v>45502.57638888889</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>253.5</v>
+        <v>241.3</v>
       </c>
       <c r="B494" s="2">
-        <v>45497.82291666666</v>
+        <v>45502.57986111111</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>251.5</v>
+        <v>241.7</v>
       </c>
       <c r="B495" s="2">
-        <v>45497.82638888889</v>
+        <v>45502.58333333334</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>247</v>
+        <v>241.6</v>
       </c>
       <c r="B496" s="2">
-        <v>45497.82986111111</v>
+        <v>45502.58680555555</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497">
-        <v>247.3</v>
+        <v>241</v>
       </c>
       <c r="B497" s="2">
-        <v>45497.84027777778</v>
+        <v>45502.59027777778</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>244.8</v>
+        <v>240.6</v>
       </c>
       <c r="B498" s="2">
-        <v>45497.84375</v>
+        <v>45502.59375</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>244</v>
+        <v>240.6</v>
       </c>
       <c r="B499" s="2">
-        <v>45497.84722222222</v>
+        <v>45502.59722222222</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500">
-        <v>242.5</v>
+        <v>240.6</v>
       </c>
       <c r="B500" s="2">
-        <v>45497.85069444445</v>
+        <v>45502.60069444445</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501">
-        <v>239.7</v>
+        <v>240.6</v>
       </c>
       <c r="B501" s="2">
-        <v>45497.85416666666</v>
+        <v>45502.60416666666</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>241.8</v>
+        <v>240.1</v>
       </c>
       <c r="B502" s="2">
-        <v>45497.85763888889</v>
+        <v>45502.60763888889</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>243.2</v>
+        <v>239.9</v>
       </c>
       <c r="B503" s="2">
-        <v>45497.86111111111</v>
+        <v>45502.61111111111</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>239.7</v>
+        <v>239.8</v>
       </c>
       <c r="B504" s="2">
-        <v>45497.86458333334</v>
+        <v>45502.61458333334</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505">
-        <v>240.7</v>
+        <v>239.7</v>
       </c>
       <c r="B505" s="2">
-        <v>45497.86805555555</v>
+        <v>45502.61805555555</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506">
-        <v>241.3</v>
+        <v>239.9</v>
       </c>
       <c r="B506" s="2">
-        <v>45497.87152777778</v>
+        <v>45502.62152777778</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507">
-        <v>240</v>
+        <v>239.7</v>
       </c>
       <c r="B507" s="2">
-        <v>45497.87847222222</v>
+        <v>45502.625</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508">
-        <v>240</v>
+        <v>239.7</v>
       </c>
       <c r="B508" s="2">
-        <v>45498.53819444445</v>
+        <v>45502.62847222222</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509">
-        <v>237.1</v>
+        <v>239.7</v>
       </c>
       <c r="B509" s="2">
-        <v>45498.54166666666</v>
+        <v>45502.63194444445</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>249.5</v>
+        <v>239.5</v>
       </c>
       <c r="B510" s="2">
-        <v>45498.54513888889</v>
+        <v>45502.63541666666</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511">
-        <v>247.8</v>
+        <v>239.6</v>
       </c>
       <c r="B511" s="2">
-        <v>45498.54861111111</v>
+        <v>45502.63888888889</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512">
-        <v>248.2</v>
+        <v>239.9</v>
       </c>
       <c r="B512" s="2">
-        <v>45498.55208333334</v>
+        <v>45502.64236111111</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513">
-        <v>248.4</v>
+        <v>240</v>
       </c>
       <c r="B513" s="2">
-        <v>45498.55555555555</v>
+        <v>45502.64583333334</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514">
-        <v>249</v>
+        <v>239.8</v>
       </c>
       <c r="B514" s="2">
-        <v>45498.55902777778</v>
+        <v>45502.64930555555</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B515" s="2">
-        <v>45498.5625</v>
+        <v>45502.65277777778</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516">
-        <v>255.25</v>
+        <v>239.5</v>
       </c>
       <c r="B516" s="2">
-        <v>45498.56597222222</v>
+        <v>45502.65625</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517">
-        <v>254.5</v>
+        <v>239.4</v>
       </c>
       <c r="B517" s="2">
-        <v>45498.56944444445</v>
+        <v>45502.65972222222</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518">
-        <v>255.25</v>
+        <v>239</v>
       </c>
       <c r="B518" s="2">
-        <v>45498.57291666666</v>
+        <v>45502.66319444445</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519">
-        <v>254</v>
+        <v>239.6</v>
       </c>
       <c r="B519" s="2">
-        <v>45498.57638888889</v>
+        <v>45502.66666666666</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520">
-        <v>251.25</v>
+        <v>239.1</v>
       </c>
       <c r="B520" s="2">
-        <v>45498.57986111111</v>
+        <v>45502.67013888889</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>253.25</v>
+        <v>239.4</v>
       </c>
       <c r="B521" s="2">
-        <v>45498.58333333334</v>
+        <v>45502.67361111111</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>253.5</v>
+        <v>238.9</v>
       </c>
       <c r="B522" s="2">
-        <v>45498.58680555555</v>
+        <v>45502.67708333334</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>251.25</v>
+        <v>238</v>
       </c>
       <c r="B523" s="2">
-        <v>45498.59027777778</v>
+        <v>45502.68055555555</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>252</v>
+        <v>238.4</v>
       </c>
       <c r="B524" s="2">
-        <v>45498.59375</v>
+        <v>45502.68402777778</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>251.25</v>
+        <v>238.3</v>
       </c>
       <c r="B525" s="2">
-        <v>45498.59722222222</v>
+        <v>45502.6875</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526">
-        <v>250.25</v>
+        <v>238.2</v>
       </c>
       <c r="B526" s="2">
-        <v>45498.60069444445</v>
+        <v>45502.69097222222</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527">
-        <v>250.5</v>
+        <v>238</v>
       </c>
       <c r="B527" s="2">
-        <v>45498.60416666666</v>
+        <v>45502.69444444445</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528">
-        <v>251</v>
+        <v>238.2</v>
       </c>
       <c r="B528" s="2">
-        <v>45498.60763888889</v>
+        <v>45502.69791666666</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529">
-        <v>250.25</v>
+        <v>237.7</v>
       </c>
       <c r="B529" s="2">
-        <v>45498.61111111111</v>
+        <v>45502.70138888889</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530">
-        <v>250.75</v>
+        <v>238</v>
       </c>
       <c r="B530" s="2">
-        <v>45498.61458333334</v>
+        <v>45502.70486111111</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531">
-        <v>249.4</v>
+        <v>237.9</v>
       </c>
       <c r="B531" s="2">
-        <v>45498.61805555555</v>
+        <v>45502.70833333334</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532">
-        <v>249.6</v>
+        <v>237.6</v>
       </c>
       <c r="B532" s="2">
-        <v>45498.62152777778</v>
+        <v>45502.71180555555</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533">
-        <v>249.1</v>
+        <v>237.3</v>
       </c>
       <c r="B533" s="2">
-        <v>45498.625</v>
+        <v>45502.71527777778</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>248.6</v>
+        <v>237.3</v>
       </c>
       <c r="B534" s="2">
-        <v>45498.62847222222</v>
+        <v>45502.71875</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535">
-        <v>249.2</v>
+        <v>237.5</v>
       </c>
       <c r="B535" s="2">
-        <v>45498.63194444445</v>
+        <v>45502.72222222222</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536">
-        <v>251.5</v>
+        <v>237.9</v>
       </c>
       <c r="B536" s="2">
-        <v>45498.63541666666</v>
+        <v>45502.72569444445</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537">
-        <v>251</v>
+        <v>238.5</v>
       </c>
       <c r="B537" s="2">
-        <v>45498.63888888889</v>
+        <v>45502.72916666666</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538">
-        <v>251.25</v>
+        <v>238.3</v>
       </c>
       <c r="B538" s="2">
-        <v>45498.64236111111</v>
+        <v>45502.73263888889</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>251</v>
+        <v>237.3</v>
       </c>
       <c r="B539" s="2">
-        <v>45498.64583333334</v>
+        <v>45502.73611111111</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540">
-        <v>250.75</v>
+        <v>237</v>
       </c>
       <c r="B540" s="2">
-        <v>45498.64930555555</v>
+        <v>45502.73958333334</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>250</v>
+        <v>237.4</v>
       </c>
       <c r="B541" s="2">
-        <v>45498.65277777778</v>
+        <v>45502.74305555555</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542">
-        <v>249.8</v>
+        <v>236</v>
       </c>
       <c r="B542" s="2">
-        <v>45498.65625</v>
+        <v>45502.74652777778</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543">
-        <v>249.3</v>
+        <v>236</v>
       </c>
       <c r="B543" s="2">
-        <v>45498.65972222222</v>
+        <v>45502.75</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544">
-        <v>249.3</v>
+        <v>236.1</v>
       </c>
       <c r="B544" s="2">
-        <v>45498.66319444445</v>
+        <v>45502.75347222222</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545">
-        <v>248.6</v>
+        <v>236.5</v>
       </c>
       <c r="B545" s="2">
-        <v>45498.66666666666</v>
+        <v>45503.41319444445</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546">
-        <v>248.5</v>
+        <v>237.7</v>
       </c>
       <c r="B546" s="2">
-        <v>45498.67013888889</v>
+        <v>45503.41666666666</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547">
-        <v>247.9</v>
+        <v>237.3</v>
       </c>
       <c r="B547" s="2">
-        <v>45498.67361111111</v>
+        <v>45503.42013888889</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548">
-        <v>247.8</v>
+        <v>235.9</v>
       </c>
       <c r="B548" s="2">
-        <v>45498.67708333334</v>
+        <v>45503.42361111111</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549">
-        <v>247.1</v>
+        <v>236.4</v>
       </c>
       <c r="B549" s="2">
-        <v>45498.68055555555</v>
+        <v>45503.42708333334</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550">
-        <v>247.3</v>
+        <v>236.5</v>
       </c>
       <c r="B550" s="2">
-        <v>45498.68402777778</v>
+        <v>45503.43055555555</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551">
-        <v>246.4</v>
+        <v>237.2</v>
       </c>
       <c r="B551" s="2">
-        <v>45498.6875</v>
+        <v>45503.43402777778</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552">
-        <v>246.3</v>
+        <v>236.5</v>
       </c>
       <c r="B552" s="2">
-        <v>45498.69097222222</v>
+        <v>45503.4375</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>247.3</v>
+        <v>237</v>
       </c>
       <c r="B553" s="2">
-        <v>45498.69444444445</v>
+        <v>45503.44097222222</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554">
-        <v>245.7</v>
+        <v>236.8</v>
       </c>
       <c r="B554" s="2">
-        <v>45498.69791666666</v>
+        <v>45503.44444444445</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555">
-        <v>246.4</v>
+        <v>237.4</v>
       </c>
       <c r="B555" s="2">
-        <v>45498.70138888889</v>
+        <v>45503.44791666666</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556">
-        <v>246.2</v>
+        <v>236</v>
       </c>
       <c r="B556" s="2">
-        <v>45498.70486111111</v>
+        <v>45503.45138888889</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>246.2</v>
+        <v>236.5</v>
       </c>
       <c r="B557" s="2">
-        <v>45498.70833333334</v>
+        <v>45503.45486111111</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>245.6</v>
+        <v>236.7</v>
       </c>
       <c r="B558" s="2">
-        <v>45498.71180555555</v>
+        <v>45503.45833333334</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>244.8</v>
+        <v>236.2</v>
       </c>
       <c r="B559" s="2">
-        <v>45498.71527777778</v>
+        <v>45503.46180555555</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>244.4</v>
+        <v>236.1</v>
       </c>
       <c r="B560" s="2">
-        <v>45498.71875</v>
+        <v>45503.46527777778</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>245.1</v>
+        <v>236</v>
       </c>
       <c r="B561" s="2">
-        <v>45498.72222222222</v>
+        <v>45503.46875</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562">
-        <v>245.2</v>
+        <v>237.1</v>
       </c>
       <c r="B562" s="2">
-        <v>45498.72569444445</v>
+        <v>45503.47222222222</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>245.5</v>
+        <v>236.2</v>
       </c>
       <c r="B563" s="2">
-        <v>45498.72916666666</v>
+        <v>45503.47569444445</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>245.3</v>
+        <v>238.6</v>
       </c>
       <c r="B564" s="2">
-        <v>45498.73263888889</v>
+        <v>45503.47916666666</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>246</v>
+        <v>236.6</v>
       </c>
       <c r="B565" s="2">
-        <v>45498.73611111111</v>
+        <v>45503.48263888889</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>247.8</v>
+        <v>236.6</v>
       </c>
       <c r="B566" s="2">
-        <v>45498.73958333334</v>
+        <v>45503.48611111111</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>247.6</v>
+        <v>237.2</v>
       </c>
       <c r="B567" s="2">
-        <v>45498.74305555555</v>
+        <v>45503.48958333334</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>245.6</v>
+        <v>236.8</v>
       </c>
       <c r="B568" s="2">
-        <v>45498.74652777778</v>
+        <v>45503.49305555555</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>245.5</v>
+        <v>235.9</v>
       </c>
       <c r="B569" s="2">
-        <v>45498.75</v>
+        <v>45503.49652777778</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>244.4</v>
+        <v>236.1</v>
       </c>
       <c r="B570" s="2">
-        <v>45498.75347222222</v>
+        <v>45503.5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>245.9</v>
+        <v>236.1</v>
       </c>
       <c r="B571" s="2">
-        <v>45498.75694444445</v>
+        <v>45503.50347222222</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>245.7</v>
+        <v>236.2</v>
       </c>
       <c r="B572" s="2">
-        <v>45498.76041666666</v>
+        <v>45503.50694444445</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>244.6</v>
+        <v>236.4</v>
       </c>
       <c r="B573" s="2">
-        <v>45498.76388888889</v>
+        <v>45503.51041666666</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>244.4</v>
+        <v>236.4</v>
       </c>
       <c r="B574" s="2">
-        <v>45498.76736111111</v>
+        <v>45503.51388888889</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575">
-        <v>244.7</v>
+        <v>236.7</v>
       </c>
       <c r="B575" s="2">
-        <v>45498.77083333334</v>
+        <v>45503.51736111111</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>244.4</v>
+        <v>236.4</v>
       </c>
       <c r="B576" s="2">
-        <v>45498.77430555555</v>
+        <v>45503.52083333334</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>245.3</v>
+        <v>246.6</v>
       </c>
       <c r="B577" s="2">
-        <v>45498.77777777778</v>
+        <v>45503.52430555555</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578">
-        <v>245.6</v>
+        <v>249.2</v>
       </c>
       <c r="B578" s="2">
-        <v>45498.78125</v>
+        <v>45503.52777777778</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>243.7</v>
+        <v>252</v>
       </c>
       <c r="B579" s="2">
-        <v>45498.78472222222</v>
+        <v>45503.53125</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>243.1</v>
+        <v>250.5</v>
       </c>
       <c r="B580" s="2">
-        <v>45498.78819444445</v>
+        <v>45503.53472222222</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581">
-        <v>242.8</v>
+        <v>249.2</v>
       </c>
       <c r="B581" s="2">
-        <v>45498.79166666666</v>
+        <v>45503.53819444445</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
-        <v>244</v>
+        <v>250.5</v>
       </c>
       <c r="B582" s="2">
-        <v>45498.79513888889</v>
+        <v>45503.54166666666</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583">
-        <v>244.5</v>
+        <v>251</v>
       </c>
       <c r="B583" s="2">
-        <v>45498.79861111111</v>
+        <v>45503.54513888889</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584">
-        <v>245</v>
+        <v>249.9</v>
       </c>
       <c r="B584" s="2">
-        <v>45498.80208333334</v>
+        <v>45503.54861111111</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585">
-        <v>243</v>
+        <v>248.8</v>
       </c>
       <c r="B585" s="2">
-        <v>45498.80555555555</v>
+        <v>45503.55208333334</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>242.4</v>
+        <v>249.9</v>
       </c>
       <c r="B586" s="2">
-        <v>45498.80902777778</v>
+        <v>45503.55555555555</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587">
-        <v>241.5</v>
+        <v>250</v>
       </c>
       <c r="B587" s="2">
-        <v>45498.8125</v>
+        <v>45503.55902777778</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588">
-        <v>241.3</v>
+        <v>247.1</v>
       </c>
       <c r="B588" s="2">
-        <v>45498.81597222222</v>
+        <v>45503.5625</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>241.4</v>
+        <v>246.8</v>
       </c>
       <c r="B589" s="2">
-        <v>45498.81944444445</v>
+        <v>45503.56597222222</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590">
-        <v>241.3</v>
+        <v>247</v>
       </c>
       <c r="B590" s="2">
-        <v>45498.82291666666</v>
+        <v>45503.56944444445</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>241</v>
+        <v>247.7</v>
       </c>
       <c r="B591" s="2">
-        <v>45498.82638888889</v>
+        <v>45503.57291666666</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592">
-        <v>241.8</v>
+        <v>247.7</v>
       </c>
       <c r="B592" s="2">
-        <v>45498.82986111111</v>
+        <v>45503.57638888889</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593">
-        <v>241.6</v>
+        <v>247.3</v>
       </c>
       <c r="B593" s="2">
-        <v>45498.83333333334</v>
+        <v>45503.57986111111</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594">
-        <v>242.5</v>
+        <v>247.4</v>
       </c>
       <c r="B594" s="2">
-        <v>45498.83680555555</v>
+        <v>45503.58333333334</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595">
-        <v>242.2</v>
+        <v>246.4</v>
       </c>
       <c r="B595" s="2">
-        <v>45498.84027777778</v>
+        <v>45503.58680555555</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596">
-        <v>243.4</v>
+        <v>246.2</v>
       </c>
       <c r="B596" s="2">
-        <v>45498.84375</v>
+        <v>45503.59027777778</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597">
-        <v>241.3</v>
+        <v>246.9</v>
       </c>
       <c r="B597" s="2">
-        <v>45498.84722222222</v>
+        <v>45503.59375</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598">
-        <v>239.3</v>
+        <v>246.8</v>
       </c>
       <c r="B598" s="2">
-        <v>45498.85069444445</v>
+        <v>45503.59722222222</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599">
-        <v>241.3</v>
+        <v>246.9</v>
       </c>
       <c r="B599" s="2">
-        <v>45498.85416666666</v>
+        <v>45503.60069444445</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600">
-        <v>239.7</v>
+        <v>246.7</v>
       </c>
       <c r="B600" s="2">
-        <v>45498.85763888889</v>
+        <v>45503.60416666666</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601">
-        <v>240.2</v>
+        <v>245.5</v>
       </c>
       <c r="B601" s="2">
-        <v>45498.86111111111</v>
+        <v>45503.60763888889</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602">
-        <v>239.9</v>
+        <v>246.3</v>
       </c>
       <c r="B602" s="2">
-        <v>45498.86458333334</v>
+        <v>45503.61111111111</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>242.8</v>
+        <v>247</v>
       </c>
       <c r="B603" s="2">
-        <v>45498.86805555555</v>
+        <v>45503.61458333334</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604">
-        <v>241.7</v>
+        <v>246.9</v>
       </c>
       <c r="B604" s="2">
-        <v>45498.87152777778</v>
+        <v>45503.61805555555</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605">
-        <v>241.8</v>
+        <v>246.8</v>
       </c>
       <c r="B605" s="2">
-        <v>45498.87847222222</v>
+        <v>45503.62152777778</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -397,4834 +397,4834 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>224.5</v>
+        <v>538</v>
       </c>
       <c r="B2" s="2">
-        <v>45495.56597222222</v>
+        <v>45498.69569444445</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>224.3</v>
+        <v>537</v>
       </c>
       <c r="B3" s="2">
-        <v>45495.56944444445</v>
+        <v>45498.69916666667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>225</v>
+        <v>538.5</v>
       </c>
       <c r="B4" s="2">
-        <v>45495.57291666666</v>
+        <v>45498.70263888889</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>224.5</v>
+        <v>538</v>
       </c>
       <c r="B5" s="2">
-        <v>45495.57638888889</v>
+        <v>45498.70611111111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>224.6</v>
+        <v>537</v>
       </c>
       <c r="B6" s="2">
-        <v>45495.57986111111</v>
+        <v>45498.70958333334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>224.6</v>
+        <v>540</v>
       </c>
       <c r="B7" s="2">
-        <v>45495.58333333334</v>
+        <v>45498.71305555556</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>225</v>
+        <v>538</v>
       </c>
       <c r="B8" s="2">
-        <v>45495.58680555555</v>
+        <v>45498.71652777777</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>225.1</v>
+        <v>537</v>
       </c>
       <c r="B9" s="2">
-        <v>45495.59027777778</v>
+        <v>45498.72</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>224.8</v>
+        <v>540</v>
       </c>
       <c r="B10" s="2">
-        <v>45495.59375</v>
+        <v>45498.72347222222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>224.4</v>
+        <v>539</v>
       </c>
       <c r="B11" s="2">
-        <v>45495.59722222222</v>
+        <v>45498.72694444445</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>224.5</v>
+        <v>538</v>
       </c>
       <c r="B12" s="2">
-        <v>45495.60069444445</v>
+        <v>45498.73041666667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>224.5</v>
+        <v>537.5</v>
       </c>
       <c r="B13" s="2">
-        <v>45495.60416666666</v>
+        <v>45498.73388888889</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>224.8</v>
+        <v>538</v>
       </c>
       <c r="B14" s="2">
-        <v>45495.60763888889</v>
+        <v>45498.73736111111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>225.9</v>
+        <v>537.5</v>
       </c>
       <c r="B15" s="2">
-        <v>45495.61111111111</v>
+        <v>45498.74083333334</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="B16" s="2">
-        <v>45495.61458333334</v>
+        <v>45498.74430555556</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>225.9</v>
+        <v>540</v>
       </c>
       <c r="B17" s="2">
-        <v>45495.61805555555</v>
+        <v>45498.74777777777</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>226.5</v>
+        <v>540.5</v>
       </c>
       <c r="B18" s="2">
-        <v>45495.62152777778</v>
+        <v>45498.75472222222</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>226.1</v>
+        <v>540.5</v>
       </c>
       <c r="B19" s="2">
-        <v>45495.625</v>
+        <v>45499.41444444445</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>226.1</v>
+        <v>537</v>
       </c>
       <c r="B20" s="2">
-        <v>45495.62847222222</v>
+        <v>45499.41791666667</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>227.2</v>
+        <v>540</v>
       </c>
       <c r="B21" s="2">
-        <v>45495.63194444445</v>
+        <v>45499.42138888889</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>228.8</v>
+        <v>542</v>
       </c>
       <c r="B22" s="2">
-        <v>45495.63541666666</v>
+        <v>45499.42486111111</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>228.8</v>
+        <v>542</v>
       </c>
       <c r="B23" s="2">
-        <v>45495.63888888889</v>
+        <v>45499.42833333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>228.8</v>
+        <v>539</v>
       </c>
       <c r="B24" s="2">
-        <v>45495.64236111111</v>
+        <v>45499.43180555556</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>228.8</v>
+        <v>542</v>
       </c>
       <c r="B25" s="2">
-        <v>45495.64583333334</v>
+        <v>45499.43527777777</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>228.8</v>
+        <v>541</v>
       </c>
       <c r="B26" s="2">
-        <v>45495.64930555555</v>
+        <v>45499.43875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>228.8</v>
+        <v>541.5</v>
       </c>
       <c r="B27" s="2">
-        <v>45495.65277777778</v>
+        <v>45499.44222222222</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>228.8</v>
+        <v>540</v>
       </c>
       <c r="B28" s="2">
-        <v>45495.65625</v>
+        <v>45499.44569444445</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>228.8</v>
+        <v>539</v>
       </c>
       <c r="B29" s="2">
-        <v>45495.65972222222</v>
+        <v>45499.44916666667</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>228.8</v>
+        <v>540</v>
       </c>
       <c r="B30" s="2">
-        <v>45495.66319444445</v>
+        <v>45499.45263888889</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>228.8</v>
+        <v>540</v>
       </c>
       <c r="B31" s="2">
-        <v>45495.66666666666</v>
+        <v>45499.45611111111</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>228.8</v>
+        <v>536.5</v>
       </c>
       <c r="B32" s="2">
-        <v>45495.67013888889</v>
+        <v>45499.45958333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>228.8</v>
+        <v>537.5</v>
       </c>
       <c r="B33" s="2">
-        <v>45495.67361111111</v>
+        <v>45499.46305555556</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>228.8</v>
+        <v>537</v>
       </c>
       <c r="B34" s="2">
-        <v>45495.67708333334</v>
+        <v>45499.46652777777</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>228.8</v>
+        <v>537.5</v>
       </c>
       <c r="B35" s="2">
-        <v>45495.68055555555</v>
+        <v>45499.47</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>228.8</v>
+        <v>538.5</v>
       </c>
       <c r="B36" s="2">
-        <v>45495.68402777778</v>
+        <v>45499.47347222222</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>228.8</v>
+        <v>541.5</v>
       </c>
       <c r="B37" s="2">
-        <v>45495.6875</v>
+        <v>45499.47694444445</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>228.8</v>
+        <v>542</v>
       </c>
       <c r="B38" s="2">
-        <v>45495.69097222222</v>
+        <v>45499.48041666667</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>228.8</v>
+        <v>544.5</v>
       </c>
       <c r="B39" s="2">
-        <v>45495.69444444445</v>
+        <v>45499.48388888889</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>228.8</v>
+        <v>544</v>
       </c>
       <c r="B40" s="2">
-        <v>45495.69791666666</v>
+        <v>45499.48736111111</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>228.8</v>
+        <v>543</v>
       </c>
       <c r="B41" s="2">
-        <v>45495.70138888889</v>
+        <v>45499.49083333334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>228.8</v>
+        <v>542</v>
       </c>
       <c r="B42" s="2">
-        <v>45495.70486111111</v>
+        <v>45499.49430555556</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>228.8</v>
+        <v>540.5</v>
       </c>
       <c r="B43" s="2">
-        <v>45495.70833333334</v>
+        <v>45499.49777777777</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>228.8</v>
+        <v>541</v>
       </c>
       <c r="B44" s="2">
-        <v>45495.71180555555</v>
+        <v>45499.50125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>228.8</v>
+        <v>539.5</v>
       </c>
       <c r="B45" s="2">
-        <v>45495.71527777778</v>
+        <v>45499.50472222222</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>228.8</v>
+        <v>540</v>
       </c>
       <c r="B46" s="2">
-        <v>45495.71875</v>
+        <v>45499.50819444445</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>228.8</v>
+        <v>538.5</v>
       </c>
       <c r="B47" s="2">
-        <v>45495.72222222222</v>
+        <v>45499.51166666667</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>228.8</v>
+        <v>539.5</v>
       </c>
       <c r="B48" s="2">
-        <v>45495.72569444445</v>
+        <v>45499.51513888889</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>228.8</v>
+        <v>538.5</v>
       </c>
       <c r="B49" s="2">
-        <v>45495.72916666666</v>
+        <v>45499.51861111111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>228.8</v>
+        <v>537.5</v>
       </c>
       <c r="B50" s="2">
-        <v>45495.73263888889</v>
+        <v>45499.52208333334</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>228.8</v>
+        <v>537</v>
       </c>
       <c r="B51" s="2">
-        <v>45495.73611111111</v>
+        <v>45499.52555555556</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>228.8</v>
+        <v>537</v>
       </c>
       <c r="B52" s="2">
-        <v>45495.73958333334</v>
+        <v>45499.52902777777</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>228.8</v>
+        <v>538.5</v>
       </c>
       <c r="B53" s="2">
-        <v>45495.74305555555</v>
+        <v>45499.5325</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>228.8</v>
+        <v>539</v>
       </c>
       <c r="B54" s="2">
-        <v>45495.74652777778</v>
+        <v>45499.53597222222</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>228.8</v>
+        <v>538</v>
       </c>
       <c r="B55" s="2">
-        <v>45495.75347222222</v>
+        <v>45499.53944444445</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>239</v>
+        <v>538</v>
       </c>
       <c r="B56" s="2">
-        <v>45496.41319444445</v>
+        <v>45499.54291666667</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>242</v>
+        <v>537</v>
       </c>
       <c r="B57" s="2">
-        <v>45496.41666666666</v>
+        <v>45499.54638888889</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>247.2</v>
+        <v>537</v>
       </c>
       <c r="B58" s="2">
-        <v>45496.42013888889</v>
+        <v>45499.54986111111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B59" s="2">
-        <v>45496.42361111111</v>
+        <v>45499.55333333334</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B60" s="2">
-        <v>45496.42708333334</v>
+        <v>45499.55680555556</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B61" s="2">
-        <v>45496.43055555555</v>
+        <v>45499.56027777777</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>251.5</v>
+        <v>537</v>
       </c>
       <c r="B62" s="2">
-        <v>45496.43402777778</v>
+        <v>45499.56375</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>251.5</v>
+        <v>536.5</v>
       </c>
       <c r="B63" s="2">
-        <v>45496.4375</v>
+        <v>45499.56722222222</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>251.5</v>
+        <v>536.5</v>
       </c>
       <c r="B64" s="2">
-        <v>45496.44097222222</v>
+        <v>45499.57069444445</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>251.5</v>
+        <v>537</v>
       </c>
       <c r="B65" s="2">
-        <v>45496.44444444445</v>
+        <v>45499.57416666667</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B66" s="2">
-        <v>45496.44791666666</v>
+        <v>45499.57763888889</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B67" s="2">
-        <v>45496.45138888889</v>
+        <v>45499.58111111111</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>251.5</v>
+        <v>538.5</v>
       </c>
       <c r="B68" s="2">
-        <v>45496.45486111111</v>
+        <v>45499.58458333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B69" s="2">
-        <v>45496.45833333334</v>
+        <v>45499.58805555556</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B70" s="2">
-        <v>45496.46180555555</v>
+        <v>45499.59152777777</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B71" s="2">
-        <v>45496.46527777778</v>
+        <v>45499.595</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B72" s="2">
-        <v>45496.46875</v>
+        <v>45499.59847222222</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>251.5</v>
+        <v>534.5</v>
       </c>
       <c r="B73" s="2">
-        <v>45496.47222222222</v>
+        <v>45499.60194444445</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>251.5</v>
+        <v>534.5</v>
       </c>
       <c r="B74" s="2">
-        <v>45496.47569444445</v>
+        <v>45499.60541666667</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>251.5</v>
+        <v>534.5</v>
       </c>
       <c r="B75" s="2">
-        <v>45496.47916666666</v>
+        <v>45499.60888888889</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>251.5</v>
+        <v>534.5</v>
       </c>
       <c r="B76" s="2">
-        <v>45496.48263888889</v>
+        <v>45499.61236111111</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B77" s="2">
-        <v>45496.48611111111</v>
+        <v>45499.61583333334</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B78" s="2">
-        <v>45496.48958333334</v>
+        <v>45499.61930555556</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>251.5</v>
+        <v>532.5</v>
       </c>
       <c r="B79" s="2">
-        <v>45496.49305555555</v>
+        <v>45499.62277777777</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2">
-        <v>45496.49652777778</v>
+        <v>45499.62625</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>251.5</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2">
-        <v>45496.5</v>
+        <v>45499.62972222222</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B82" s="2">
-        <v>45496.50347222222</v>
+        <v>45499.63319444445</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B83" s="2">
-        <v>45496.50694444445</v>
+        <v>45499.63666666667</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>251.5</v>
+        <v>537</v>
       </c>
       <c r="B84" s="2">
-        <v>45496.51041666666</v>
+        <v>45499.64013888889</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B85" s="2">
-        <v>45496.51388888889</v>
+        <v>45499.64361111111</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>251.5</v>
+        <v>536.5</v>
       </c>
       <c r="B86" s="2">
-        <v>45496.51736111111</v>
+        <v>45499.64708333334</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B87" s="2">
-        <v>45496.52083333334</v>
+        <v>45499.65055555556</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>251.5</v>
+        <v>536.5</v>
       </c>
       <c r="B88" s="2">
-        <v>45496.52430555555</v>
+        <v>45499.65402777777</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B89" s="2">
-        <v>45496.52777777778</v>
+        <v>45499.6575</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B90" s="2">
-        <v>45496.53125</v>
+        <v>45499.66097222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>251.5</v>
+        <v>536.5</v>
       </c>
       <c r="B91" s="2">
-        <v>45496.53472222222</v>
+        <v>45499.66444444445</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B92" s="2">
-        <v>45496.53819444445</v>
+        <v>45499.66791666667</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>251.5</v>
+        <v>537.5</v>
       </c>
       <c r="B93" s="2">
-        <v>45496.54166666666</v>
+        <v>45499.67138888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B94" s="2">
-        <v>45496.54513888889</v>
+        <v>45499.67486111111</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B95" s="2">
-        <v>45496.54861111111</v>
+        <v>45499.67833333334</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>251.5</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2">
-        <v>45496.55208333334</v>
+        <v>45499.68180555556</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>251.5</v>
+        <v>534</v>
       </c>
       <c r="B97" s="2">
-        <v>45496.55555555555</v>
+        <v>45499.68527777777</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B98" s="2">
-        <v>45496.55902777778</v>
+        <v>45499.68875</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>251.5</v>
+        <v>540</v>
       </c>
       <c r="B99" s="2">
-        <v>45496.5625</v>
+        <v>45499.69222222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B100" s="2">
-        <v>45496.56597222222</v>
+        <v>45499.69569444445</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B101" s="2">
-        <v>45496.56944444445</v>
+        <v>45499.69916666667</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B102" s="2">
-        <v>45496.57291666666</v>
+        <v>45499.70263888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>251.5</v>
+        <v>536.5</v>
       </c>
       <c r="B103" s="2">
-        <v>45496.57638888889</v>
+        <v>45499.70611111111</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B104" s="2">
-        <v>45496.57986111111</v>
+        <v>45499.70958333334</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B105" s="2">
-        <v>45496.58333333334</v>
+        <v>45499.71305555556</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>251.5</v>
+        <v>537</v>
       </c>
       <c r="B106" s="2">
-        <v>45496.58680555555</v>
+        <v>45499.71652777777</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B107" s="2">
-        <v>45496.59027777778</v>
+        <v>45499.72</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>251.5</v>
+        <v>534.5</v>
       </c>
       <c r="B108" s="2">
-        <v>45496.59375</v>
+        <v>45499.72347222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>251.5</v>
+        <v>534</v>
       </c>
       <c r="B109" s="2">
-        <v>45496.59722222222</v>
+        <v>45499.72694444445</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>251.5</v>
+        <v>531.5</v>
       </c>
       <c r="B110" s="2">
-        <v>45496.60069444445</v>
+        <v>45499.73041666667</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>251.5</v>
+        <v>534</v>
       </c>
       <c r="B111" s="2">
-        <v>45496.60416666666</v>
+        <v>45499.73388888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>251.5</v>
+        <v>535</v>
       </c>
       <c r="B112" s="2">
-        <v>45496.60763888889</v>
+        <v>45499.73736111111</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B113" s="2">
-        <v>45496.61111111111</v>
+        <v>45499.74083333334</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B114" s="2">
-        <v>45496.61458333334</v>
+        <v>45499.74430555556</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B115" s="2">
-        <v>45496.61805555555</v>
+        <v>45499.74777777777</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>251.5</v>
+        <v>536</v>
       </c>
       <c r="B116" s="2">
-        <v>45496.62152777778</v>
+        <v>45499.75472222222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>251.5</v>
+        <v>535.5</v>
       </c>
       <c r="B117" s="2">
-        <v>45496.625</v>
+        <v>45502.41444444445</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>251.5</v>
+        <v>522.5</v>
       </c>
       <c r="B118" s="2">
-        <v>45496.62847222222</v>
+        <v>45502.41791666667</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>251.5</v>
+        <v>521.5</v>
       </c>
       <c r="B119" s="2">
-        <v>45496.63194444445</v>
+        <v>45502.42138888889</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>251.5</v>
+        <v>523.5</v>
       </c>
       <c r="B120" s="2">
-        <v>45496.63541666666</v>
+        <v>45502.42486111111</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>251.5</v>
+        <v>524</v>
       </c>
       <c r="B121" s="2">
-        <v>45496.63888888889</v>
+        <v>45502.42833333334</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>251.5</v>
+        <v>522.5</v>
       </c>
       <c r="B122" s="2">
-        <v>45496.64236111111</v>
+        <v>45502.43180555556</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>251.5</v>
+        <v>525</v>
       </c>
       <c r="B123" s="2">
-        <v>45496.64583333334</v>
+        <v>45502.43527777777</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>251.5</v>
+        <v>525</v>
       </c>
       <c r="B124" s="2">
-        <v>45496.64930555555</v>
+        <v>45502.43875</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>251.5</v>
+        <v>527</v>
       </c>
       <c r="B125" s="2">
-        <v>45496.65277777778</v>
+        <v>45502.44222222222</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>251.5</v>
+        <v>528.5</v>
       </c>
       <c r="B126" s="2">
-        <v>45496.65625</v>
+        <v>45502.44569444445</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>251.5</v>
+        <v>528</v>
       </c>
       <c r="B127" s="2">
-        <v>45496.65972222222</v>
+        <v>45502.44916666667</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B128" s="2">
-        <v>45496.66319444445</v>
+        <v>45502.45263888889</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B129" s="2">
-        <v>45496.66666666666</v>
+        <v>45502.45611111111</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>251.5</v>
+        <v>530</v>
       </c>
       <c r="B130" s="2">
-        <v>45496.67013888889</v>
+        <v>45502.45958333334</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>251.5</v>
+        <v>531</v>
       </c>
       <c r="B131" s="2">
-        <v>45496.67361111111</v>
+        <v>45502.46305555556</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>251.5</v>
+        <v>528</v>
       </c>
       <c r="B132" s="2">
-        <v>45496.67708333334</v>
+        <v>45502.46652777777</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>251.5</v>
+        <v>529.5</v>
       </c>
       <c r="B133" s="2">
-        <v>45496.68055555555</v>
+        <v>45502.47</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>251.5</v>
+        <v>530.5</v>
       </c>
       <c r="B134" s="2">
-        <v>45496.68402777778</v>
+        <v>45502.47347222222</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B135" s="2">
-        <v>45496.6875</v>
+        <v>45502.47694444445</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B136" s="2">
-        <v>45496.69097222222</v>
+        <v>45502.48041666667</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>251.5</v>
+        <v>525.5</v>
       </c>
       <c r="B137" s="2">
-        <v>45496.69444444445</v>
+        <v>45502.48388888889</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>251.5</v>
+        <v>526</v>
       </c>
       <c r="B138" s="2">
-        <v>45496.69791666666</v>
+        <v>45502.48736111111</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>251.5</v>
+        <v>526.5</v>
       </c>
       <c r="B139" s="2">
-        <v>45496.70138888889</v>
+        <v>45502.49083333334</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>251.5</v>
+        <v>528</v>
       </c>
       <c r="B140" s="2">
-        <v>45496.70486111111</v>
+        <v>45502.49430555556</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B141" s="2">
-        <v>45496.70833333334</v>
+        <v>45502.49777777777</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>251.5</v>
+        <v>528</v>
       </c>
       <c r="B142" s="2">
-        <v>45496.71180555555</v>
+        <v>45502.50125</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>251.5</v>
+        <v>526.5</v>
       </c>
       <c r="B143" s="2">
-        <v>45496.71527777778</v>
+        <v>45502.50472222222</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B144" s="2">
-        <v>45496.71875</v>
+        <v>45502.50819444445</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B145" s="2">
-        <v>45496.72222222222</v>
+        <v>45502.51166666667</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>251.5</v>
+        <v>526.5</v>
       </c>
       <c r="B146" s="2">
-        <v>45496.72569444445</v>
+        <v>45502.51513888889</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>251.5</v>
+        <v>530.5</v>
       </c>
       <c r="B147" s="2">
-        <v>45496.72916666666</v>
+        <v>45502.51861111111</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B148" s="2">
-        <v>45496.73263888889</v>
+        <v>45502.52208333334</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>251.5</v>
+        <v>530</v>
       </c>
       <c r="B149" s="2">
-        <v>45496.73611111111</v>
+        <v>45502.52555555556</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>251.5</v>
+        <v>529</v>
       </c>
       <c r="B150" s="2">
-        <v>45496.73958333334</v>
+        <v>45502.52902777777</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>251.5</v>
+        <v>530</v>
       </c>
       <c r="B151" s="2">
-        <v>45496.74305555555</v>
+        <v>45502.5325</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>251.5</v>
+        <v>528</v>
       </c>
       <c r="B152" s="2">
-        <v>45496.74652777778</v>
+        <v>45502.53597222222</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>251.5</v>
+        <v>528</v>
       </c>
       <c r="B153" s="2">
-        <v>45496.75347222222</v>
+        <v>45502.53944444445</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>260</v>
+        <v>528</v>
       </c>
       <c r="B154" s="2">
-        <v>45497.41319444445</v>
+        <v>45502.54291666667</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>272</v>
+        <v>528.5</v>
       </c>
       <c r="B155" s="2">
-        <v>45497.41666666666</v>
+        <v>45502.54638888889</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>271</v>
+        <v>527</v>
       </c>
       <c r="B156" s="2">
-        <v>45497.42013888889</v>
+        <v>45502.54986111111</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>269</v>
+        <v>527</v>
       </c>
       <c r="B157" s="2">
-        <v>45497.42361111111</v>
+        <v>45502.55333333334</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="B158" s="2">
-        <v>45497.42708333334</v>
+        <v>45502.55680555556</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>267</v>
+        <v>527.5</v>
       </c>
       <c r="B159" s="2">
-        <v>45497.43055555555</v>
+        <v>45502.56027777777</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>268.75</v>
+        <v>527.5</v>
       </c>
       <c r="B160" s="2">
-        <v>45497.43402777778</v>
+        <v>45502.56375</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>266</v>
+        <v>528.5</v>
       </c>
       <c r="B161" s="2">
-        <v>45497.4375</v>
+        <v>45502.56722222222</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>266</v>
+        <v>526.5</v>
       </c>
       <c r="B162" s="2">
-        <v>45497.44097222222</v>
+        <v>45502.57069444445</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>266</v>
+        <v>527.5</v>
       </c>
       <c r="B163" s="2">
-        <v>45497.44444444445</v>
+        <v>45502.57416666667</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>260.25</v>
+        <v>528</v>
       </c>
       <c r="B164" s="2">
-        <v>45497.44791666666</v>
+        <v>45502.57763888889</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>264.75</v>
+        <v>527.5</v>
       </c>
       <c r="B165" s="2">
-        <v>45497.45138888889</v>
+        <v>45502.58111111111</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>262</v>
+        <v>528</v>
       </c>
       <c r="B166" s="2">
-        <v>45497.45486111111</v>
+        <v>45502.58458333334</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>263.5</v>
+        <v>527.5</v>
       </c>
       <c r="B167" s="2">
-        <v>45497.45833333334</v>
+        <v>45502.58805555556</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>263.5</v>
+        <v>527</v>
       </c>
       <c r="B168" s="2">
-        <v>45497.46180555555</v>
+        <v>45502.59152777777</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>262</v>
+        <v>528.5</v>
       </c>
       <c r="B169" s="2">
-        <v>45497.46527777778</v>
+        <v>45502.595</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>260.5</v>
+        <v>527</v>
       </c>
       <c r="B170" s="2">
-        <v>45497.46875</v>
+        <v>45502.59847222222</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>260.75</v>
+        <v>526</v>
       </c>
       <c r="B171" s="2">
-        <v>45497.47222222222</v>
+        <v>45502.60194444445</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>257.5</v>
+        <v>527.5</v>
       </c>
       <c r="B172" s="2">
-        <v>45497.47569444445</v>
+        <v>45502.60541666667</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>258.25</v>
+        <v>526.5</v>
       </c>
       <c r="B173" s="2">
-        <v>45497.47916666666</v>
+        <v>45502.60888888889</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>255.5</v>
+        <v>526.5</v>
       </c>
       <c r="B174" s="2">
-        <v>45497.48263888889</v>
+        <v>45502.61236111111</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>257.5</v>
+        <v>527</v>
       </c>
       <c r="B175" s="2">
-        <v>45497.48611111111</v>
+        <v>45502.61583333334</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>256</v>
+        <v>526.5</v>
       </c>
       <c r="B176" s="2">
-        <v>45497.48958333334</v>
+        <v>45502.61930555556</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>254</v>
+        <v>527</v>
       </c>
       <c r="B177" s="2">
-        <v>45497.49305555555</v>
+        <v>45502.62277777777</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>255</v>
+        <v>527.5</v>
       </c>
       <c r="B178" s="2">
-        <v>45497.49652777778</v>
+        <v>45502.62625</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>256.25</v>
+        <v>527.5</v>
       </c>
       <c r="B179" s="2">
-        <v>45497.5</v>
+        <v>45502.62972222222</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>257.25</v>
+        <v>528</v>
       </c>
       <c r="B180" s="2">
-        <v>45497.50347222222</v>
+        <v>45502.63319444445</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>255.5</v>
+        <v>538.5</v>
       </c>
       <c r="B181" s="2">
-        <v>45497.50694444445</v>
+        <v>45502.63666666667</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>255.75</v>
+        <v>528.5</v>
       </c>
       <c r="B182" s="2">
-        <v>45497.51041666666</v>
+        <v>45502.64013888889</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>256.25</v>
+        <v>529</v>
       </c>
       <c r="B183" s="2">
-        <v>45497.51388888889</v>
+        <v>45502.64361111111</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>257.5</v>
+        <v>531</v>
       </c>
       <c r="B184" s="2">
-        <v>45497.51736111111</v>
+        <v>45502.64708333334</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>260</v>
+        <v>531.5</v>
       </c>
       <c r="B185" s="2">
-        <v>45497.52083333334</v>
+        <v>45502.65055555556</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>262.25</v>
+        <v>530.5</v>
       </c>
       <c r="B186" s="2">
-        <v>45497.52430555555</v>
+        <v>45502.65402777777</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>260.5</v>
+        <v>530.5</v>
       </c>
       <c r="B187" s="2">
-        <v>45497.52777777778</v>
+        <v>45502.6575</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>259.25</v>
+        <v>529.5</v>
       </c>
       <c r="B188" s="2">
-        <v>45497.53125</v>
+        <v>45502.66097222222</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>258.75</v>
+        <v>529.5</v>
       </c>
       <c r="B189" s="2">
-        <v>45497.53472222222</v>
+        <v>45502.66444444445</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>258.5</v>
+        <v>529.5</v>
       </c>
       <c r="B190" s="2">
-        <v>45497.53819444445</v>
+        <v>45502.66791666667</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>258.75</v>
+        <v>529</v>
       </c>
       <c r="B191" s="2">
-        <v>45497.54166666666</v>
+        <v>45502.67138888889</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>258</v>
+        <v>530.5</v>
       </c>
       <c r="B192" s="2">
-        <v>45497.54513888889</v>
+        <v>45502.67486111111</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>256.5</v>
+        <v>528.5</v>
       </c>
       <c r="B193" s="2">
-        <v>45497.54861111111</v>
+        <v>45502.67833333334</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>257.25</v>
+        <v>530</v>
       </c>
       <c r="B194" s="2">
-        <v>45497.55208333334</v>
+        <v>45502.68180555556</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>258.25</v>
+        <v>529</v>
       </c>
       <c r="B195" s="2">
-        <v>45497.55555555555</v>
+        <v>45502.68527777777</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>257.5</v>
+        <v>529.5</v>
       </c>
       <c r="B196" s="2">
-        <v>45497.55902777778</v>
+        <v>45502.68875</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>258.25</v>
+        <v>528.5</v>
       </c>
       <c r="B197" s="2">
-        <v>45497.5625</v>
+        <v>45502.69222222222</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>258.25</v>
+        <v>528</v>
       </c>
       <c r="B198" s="2">
-        <v>45497.56597222222</v>
+        <v>45502.69569444445</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>257.25</v>
+        <v>527</v>
       </c>
       <c r="B199" s="2">
-        <v>45497.56944444445</v>
+        <v>45502.69916666667</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>256.25</v>
+        <v>527</v>
       </c>
       <c r="B200" s="2">
-        <v>45497.57291666666</v>
+        <v>45502.70263888889</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>257.25</v>
+        <v>528</v>
       </c>
       <c r="B201" s="2">
-        <v>45497.57638888889</v>
+        <v>45502.70611111111</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>256.5</v>
+        <v>528</v>
       </c>
       <c r="B202" s="2">
-        <v>45497.57986111111</v>
+        <v>45502.70958333334</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>258</v>
+        <v>527.5</v>
       </c>
       <c r="B203" s="2">
-        <v>45497.58333333334</v>
+        <v>45502.71305555556</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>258.75</v>
+        <v>528</v>
       </c>
       <c r="B204" s="2">
-        <v>45497.58680555555</v>
+        <v>45502.71652777777</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>258.25</v>
+        <v>527</v>
       </c>
       <c r="B205" s="2">
-        <v>45497.59027777778</v>
+        <v>45502.72</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>258.75</v>
+        <v>528.5</v>
       </c>
       <c r="B206" s="2">
-        <v>45497.59375</v>
+        <v>45502.72347222222</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>258.75</v>
+        <v>527.5</v>
       </c>
       <c r="B207" s="2">
-        <v>45497.59722222222</v>
+        <v>45502.72694444445</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>258.25</v>
+        <v>527.5</v>
       </c>
       <c r="B208" s="2">
-        <v>45497.60069444445</v>
+        <v>45502.73041666667</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>258.25</v>
+        <v>525</v>
       </c>
       <c r="B209" s="2">
-        <v>45497.60416666666</v>
+        <v>45502.73388888889</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>258.25</v>
+        <v>524</v>
       </c>
       <c r="B210" s="2">
-        <v>45497.60763888889</v>
+        <v>45502.73736111111</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>257.75</v>
+        <v>525</v>
       </c>
       <c r="B211" s="2">
-        <v>45497.61111111111</v>
+        <v>45502.74083333334</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>257</v>
+        <v>524.5</v>
       </c>
       <c r="B212" s="2">
-        <v>45497.61458333334</v>
+        <v>45502.74430555556</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>257.25</v>
+        <v>524</v>
       </c>
       <c r="B213" s="2">
-        <v>45497.61805555555</v>
+        <v>45502.74777777777</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>256.75</v>
+        <v>525.5</v>
       </c>
       <c r="B214" s="2">
-        <v>45497.62152777778</v>
+        <v>45502.75472222222</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>256.5</v>
+        <v>525.5</v>
       </c>
       <c r="B215" s="2">
-        <v>45497.625</v>
+        <v>45503.41444444445</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>256.25</v>
+        <v>527.5</v>
       </c>
       <c r="B216" s="2">
-        <v>45497.62847222222</v>
+        <v>45503.41791666667</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>257</v>
+        <v>524</v>
       </c>
       <c r="B217" s="2">
-        <v>45497.63194444445</v>
+        <v>45503.42138888889</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>257</v>
+        <v>523</v>
       </c>
       <c r="B218" s="2">
-        <v>45497.63541666666</v>
+        <v>45503.42486111111</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>257.75</v>
+        <v>524.5</v>
       </c>
       <c r="B219" s="2">
-        <v>45497.63888888889</v>
+        <v>45503.42833333334</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>257.5</v>
+        <v>524.5</v>
       </c>
       <c r="B220" s="2">
-        <v>45497.64236111111</v>
+        <v>45503.43180555556</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>256.5</v>
+        <v>527</v>
       </c>
       <c r="B221" s="2">
-        <v>45497.64583333334</v>
+        <v>45503.43527777777</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>256.75</v>
+        <v>527</v>
       </c>
       <c r="B222" s="2">
-        <v>45497.64930555555</v>
+        <v>45503.43875</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>255.5</v>
+        <v>529</v>
       </c>
       <c r="B223" s="2">
-        <v>45497.65277777778</v>
+        <v>45503.44222222222</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>255.25</v>
+        <v>528.5</v>
       </c>
       <c r="B224" s="2">
-        <v>45497.65625</v>
+        <v>45503.44569444445</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>255.75</v>
+        <v>530.5</v>
       </c>
       <c r="B225" s="2">
-        <v>45497.65972222222</v>
+        <v>45503.44916666667</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>255.75</v>
+        <v>532</v>
       </c>
       <c r="B226" s="2">
-        <v>45497.66319444445</v>
+        <v>45503.45263888889</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>254.25</v>
+        <v>531</v>
       </c>
       <c r="B227" s="2">
-        <v>45497.66666666666</v>
+        <v>45503.45611111111</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>252.75</v>
+        <v>531</v>
       </c>
       <c r="B228" s="2">
-        <v>45497.67013888889</v>
+        <v>45503.45958333334</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>253.5</v>
+        <v>530</v>
       </c>
       <c r="B229" s="2">
-        <v>45497.67361111111</v>
+        <v>45503.46305555556</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>255.25</v>
+        <v>531.5</v>
       </c>
       <c r="B230" s="2">
-        <v>45497.67708333334</v>
+        <v>45503.46652777777</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>253.5</v>
+        <v>534.5</v>
       </c>
       <c r="B231" s="2">
-        <v>45497.68055555555</v>
+        <v>45503.47</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>254</v>
+        <v>533.5</v>
       </c>
       <c r="B232" s="2">
-        <v>45497.68402777778</v>
+        <v>45503.47347222222</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>254</v>
+        <v>532</v>
       </c>
       <c r="B233" s="2">
-        <v>45497.6875</v>
+        <v>45503.47694444445</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>253</v>
+        <v>533</v>
       </c>
       <c r="B234" s="2">
-        <v>45497.69097222222</v>
+        <v>45503.48041666667</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>253.25</v>
+        <v>532.5</v>
       </c>
       <c r="B235" s="2">
-        <v>45497.69444444445</v>
+        <v>45503.48388888889</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>253.5</v>
+        <v>533</v>
       </c>
       <c r="B236" s="2">
-        <v>45497.69791666666</v>
+        <v>45503.48736111111</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>251.5</v>
+        <v>532</v>
       </c>
       <c r="B237" s="2">
-        <v>45497.70138888889</v>
+        <v>45503.49083333334</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>247</v>
+        <v>535</v>
       </c>
       <c r="B238" s="2">
-        <v>45497.70486111111</v>
+        <v>45503.49430555556</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>247.3</v>
+        <v>534</v>
       </c>
       <c r="B239" s="2">
-        <v>45497.71527777778</v>
+        <v>45503.49777777777</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>244.8</v>
+        <v>533</v>
       </c>
       <c r="B240" s="2">
-        <v>45497.71875</v>
+        <v>45503.50125</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>244</v>
+        <v>533</v>
       </c>
       <c r="B241" s="2">
-        <v>45497.72222222222</v>
+        <v>45503.50472222222</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>242.5</v>
+        <v>534</v>
       </c>
       <c r="B242" s="2">
-        <v>45497.72569444445</v>
+        <v>45503.50819444445</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>239.7</v>
+        <v>536</v>
       </c>
       <c r="B243" s="2">
-        <v>45497.72916666666</v>
+        <v>45503.51166666667</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>241.8</v>
+        <v>540</v>
       </c>
       <c r="B244" s="2">
-        <v>45497.73263888889</v>
+        <v>45503.51513888889</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>243.2</v>
+        <v>540.5</v>
       </c>
       <c r="B245" s="2">
-        <v>45497.73611111111</v>
+        <v>45503.51861111111</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>239.7</v>
+        <v>540</v>
       </c>
       <c r="B246" s="2">
-        <v>45497.73958333334</v>
+        <v>45503.52208333334</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>240.7</v>
+        <v>542</v>
       </c>
       <c r="B247" s="2">
-        <v>45497.74305555555</v>
+        <v>45503.52555555556</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>241.3</v>
+        <v>539</v>
       </c>
       <c r="B248" s="2">
-        <v>45497.74652777778</v>
+        <v>45503.52902777777</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>240</v>
+        <v>538</v>
       </c>
       <c r="B249" s="2">
-        <v>45497.75347222222</v>
+        <v>45503.5325</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>240</v>
+        <v>538</v>
       </c>
       <c r="B250" s="2">
-        <v>45498.41319444445</v>
+        <v>45503.53597222222</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>237.1</v>
+        <v>536.5</v>
       </c>
       <c r="B251" s="2">
-        <v>45498.41666666666</v>
+        <v>45503.53944444445</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>249.5</v>
+        <v>536</v>
       </c>
       <c r="B252" s="2">
-        <v>45498.42013888889</v>
+        <v>45503.54291666667</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>247.8</v>
+        <v>536.5</v>
       </c>
       <c r="B253" s="2">
-        <v>45498.42361111111</v>
+        <v>45503.54638888889</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>248.2</v>
+        <v>535.5</v>
       </c>
       <c r="B254" s="2">
-        <v>45498.42708333334</v>
+        <v>45503.54986111111</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>248.4</v>
+        <v>535</v>
       </c>
       <c r="B255" s="2">
-        <v>45498.43055555555</v>
+        <v>45503.55333333334</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>249</v>
+        <v>534.5</v>
       </c>
       <c r="B256" s="2">
-        <v>45498.43402777778</v>
+        <v>45503.55680555556</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>253</v>
+        <v>534.5</v>
       </c>
       <c r="B257" s="2">
-        <v>45498.4375</v>
+        <v>45503.56027777777</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>255.25</v>
+        <v>535.5</v>
       </c>
       <c r="B258" s="2">
-        <v>45498.44097222222</v>
+        <v>45503.56375</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>254.5</v>
+        <v>535.5</v>
       </c>
       <c r="B259" s="2">
-        <v>45498.44444444445</v>
+        <v>45503.56722222222</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>255.25</v>
+        <v>533.5</v>
       </c>
       <c r="B260" s="2">
-        <v>45498.44791666666</v>
+        <v>45503.57069444445</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>254</v>
+        <v>534</v>
       </c>
       <c r="B261" s="2">
-        <v>45498.45138888889</v>
+        <v>45503.57416666667</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>251.25</v>
+        <v>535.5</v>
       </c>
       <c r="B262" s="2">
-        <v>45498.45486111111</v>
+        <v>45503.57763888889</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>253.25</v>
+        <v>538</v>
       </c>
       <c r="B263" s="2">
-        <v>45498.45833333334</v>
+        <v>45503.58111111111</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>253.5</v>
+        <v>536</v>
       </c>
       <c r="B264" s="2">
-        <v>45498.46180555555</v>
+        <v>45503.58458333334</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>251.25</v>
+        <v>536.5</v>
       </c>
       <c r="B265" s="2">
-        <v>45498.46527777778</v>
+        <v>45503.58805555556</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>252</v>
+        <v>535.5</v>
       </c>
       <c r="B266" s="2">
-        <v>45498.46875</v>
+        <v>45503.59152777777</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>251.25</v>
+        <v>537</v>
       </c>
       <c r="B267" s="2">
-        <v>45498.47222222222</v>
+        <v>45503.595</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>250.25</v>
+        <v>536.5</v>
       </c>
       <c r="B268" s="2">
-        <v>45498.47569444445</v>
+        <v>45503.59847222222</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>250.5</v>
+        <v>535.5</v>
       </c>
       <c r="B269" s="2">
-        <v>45498.47916666666</v>
+        <v>45503.60194444445</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>251</v>
+        <v>536</v>
       </c>
       <c r="B270" s="2">
-        <v>45498.48263888889</v>
+        <v>45503.60541666667</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>250.25</v>
+        <v>536</v>
       </c>
       <c r="B271" s="2">
-        <v>45498.48611111111</v>
+        <v>45503.60888888889</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>250.75</v>
+        <v>535.5</v>
       </c>
       <c r="B272" s="2">
-        <v>45498.48958333334</v>
+        <v>45503.61236111111</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>249.4</v>
+        <v>536</v>
       </c>
       <c r="B273" s="2">
-        <v>45498.49305555555</v>
+        <v>45503.61583333334</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>249.6</v>
+        <v>536</v>
       </c>
       <c r="B274" s="2">
-        <v>45498.49652777778</v>
+        <v>45503.61930555556</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>249.1</v>
+        <v>534.5</v>
       </c>
       <c r="B275" s="2">
-        <v>45498.5</v>
+        <v>45503.62277777777</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>248.6</v>
+        <v>535.5</v>
       </c>
       <c r="B276" s="2">
-        <v>45498.50347222222</v>
+        <v>45503.62625</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>249.2</v>
+        <v>534</v>
       </c>
       <c r="B277" s="2">
-        <v>45498.50694444445</v>
+        <v>45503.62972222222</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>251.5</v>
+        <v>534.5</v>
       </c>
       <c r="B278" s="2">
-        <v>45498.51041666666</v>
+        <v>45503.63319444445</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>251</v>
+        <v>535.5</v>
       </c>
       <c r="B279" s="2">
-        <v>45498.51388888889</v>
+        <v>45503.63666666667</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>251.25</v>
+        <v>534</v>
       </c>
       <c r="B280" s="2">
-        <v>45498.51736111111</v>
+        <v>45503.64013888889</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>251</v>
+        <v>533</v>
       </c>
       <c r="B281" s="2">
-        <v>45498.52083333334</v>
+        <v>45503.64361111111</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>250.75</v>
+        <v>531.5</v>
       </c>
       <c r="B282" s="2">
-        <v>45498.52430555555</v>
+        <v>45503.64708333334</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>250</v>
+        <v>533.5</v>
       </c>
       <c r="B283" s="2">
-        <v>45498.52777777778</v>
+        <v>45503.65055555556</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>249.8</v>
+        <v>534</v>
       </c>
       <c r="B284" s="2">
-        <v>45498.53125</v>
+        <v>45503.65402777777</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>249.3</v>
+        <v>534.5</v>
       </c>
       <c r="B285" s="2">
-        <v>45498.53472222222</v>
+        <v>45503.6575</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>249.3</v>
+        <v>535</v>
       </c>
       <c r="B286" s="2">
-        <v>45498.53819444445</v>
+        <v>45503.66097222222</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>248.6</v>
+        <v>534</v>
       </c>
       <c r="B287" s="2">
-        <v>45498.54166666666</v>
+        <v>45503.66444444445</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>248.5</v>
+        <v>535.5</v>
       </c>
       <c r="B288" s="2">
-        <v>45498.54513888889</v>
+        <v>45503.66791666667</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>247.9</v>
+        <v>537.5</v>
       </c>
       <c r="B289" s="2">
-        <v>45498.54861111111</v>
+        <v>45503.67138888889</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>247.8</v>
+        <v>536.5</v>
       </c>
       <c r="B290" s="2">
-        <v>45498.55208333334</v>
+        <v>45503.67486111111</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>247.1</v>
+        <v>535.5</v>
       </c>
       <c r="B291" s="2">
-        <v>45498.55555555555</v>
+        <v>45503.67833333334</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>247.3</v>
+        <v>537</v>
       </c>
       <c r="B292" s="2">
-        <v>45498.55902777778</v>
+        <v>45503.68180555556</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>246.4</v>
+        <v>537</v>
       </c>
       <c r="B293" s="2">
-        <v>45498.5625</v>
+        <v>45503.68527777777</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>246.3</v>
+        <v>537</v>
       </c>
       <c r="B294" s="2">
-        <v>45498.56597222222</v>
+        <v>45503.68875</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>247.3</v>
+        <v>536</v>
       </c>
       <c r="B295" s="2">
-        <v>45498.56944444445</v>
+        <v>45503.69222222222</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>245.7</v>
+        <v>538</v>
       </c>
       <c r="B296" s="2">
-        <v>45498.57291666666</v>
+        <v>45503.69569444445</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>246.4</v>
+        <v>536.5</v>
       </c>
       <c r="B297" s="2">
-        <v>45498.57638888889</v>
+        <v>45503.69916666667</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>246.2</v>
+        <v>538</v>
       </c>
       <c r="B298" s="2">
-        <v>45498.57986111111</v>
+        <v>45503.70263888889</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>246.2</v>
+        <v>536.5</v>
       </c>
       <c r="B299" s="2">
-        <v>45498.58333333334</v>
+        <v>45503.70611111111</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>245.6</v>
+        <v>536</v>
       </c>
       <c r="B300" s="2">
-        <v>45498.58680555555</v>
+        <v>45503.70958333334</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>244.8</v>
+        <v>537.5</v>
       </c>
       <c r="B301" s="2">
-        <v>45498.59027777778</v>
+        <v>45503.71305555556</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>244.4</v>
+        <v>535.5</v>
       </c>
       <c r="B302" s="2">
-        <v>45498.59375</v>
+        <v>45503.71652777777</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>245.1</v>
+        <v>535</v>
       </c>
       <c r="B303" s="2">
-        <v>45498.59722222222</v>
+        <v>45503.72</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>245.2</v>
+        <v>537.5</v>
       </c>
       <c r="B304" s="2">
-        <v>45498.60069444445</v>
+        <v>45503.72347222222</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>245.5</v>
+        <v>535.5</v>
       </c>
       <c r="B305" s="2">
-        <v>45498.60416666666</v>
+        <v>45503.72694444445</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>245.3</v>
+        <v>535.5</v>
       </c>
       <c r="B306" s="2">
-        <v>45498.60763888889</v>
+        <v>45503.73041666667</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>246</v>
+        <v>536.5</v>
       </c>
       <c r="B307" s="2">
-        <v>45498.61111111111</v>
+        <v>45503.73388888889</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>247.8</v>
+        <v>535</v>
       </c>
       <c r="B308" s="2">
-        <v>45498.61458333334</v>
+        <v>45503.73736111111</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>247.6</v>
+        <v>536</v>
       </c>
       <c r="B309" s="2">
-        <v>45498.61805555555</v>
+        <v>45503.74083333334</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>245.6</v>
+        <v>534</v>
       </c>
       <c r="B310" s="2">
-        <v>45498.62152777778</v>
+        <v>45503.74430555556</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>245.5</v>
+        <v>534</v>
       </c>
       <c r="B311" s="2">
-        <v>45498.625</v>
+        <v>45503.74777777777</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>244.4</v>
+        <v>533</v>
       </c>
       <c r="B312" s="2">
-        <v>45498.62847222222</v>
+        <v>45503.75472222222</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>245.9</v>
+        <v>530</v>
       </c>
       <c r="B313" s="2">
-        <v>45498.63194444445</v>
+        <v>45504.41444444445</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>245.7</v>
+        <v>528</v>
       </c>
       <c r="B314" s="2">
-        <v>45498.63541666666</v>
+        <v>45504.41791666667</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>244.6</v>
+        <v>527</v>
       </c>
       <c r="B315" s="2">
-        <v>45498.63888888889</v>
+        <v>45504.42138888889</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>244.4</v>
+        <v>526.5</v>
       </c>
       <c r="B316" s="2">
-        <v>45498.64236111111</v>
+        <v>45504.42486111111</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>244.7</v>
+        <v>528</v>
       </c>
       <c r="B317" s="2">
-        <v>45498.64583333334</v>
+        <v>45504.42833333334</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>244.4</v>
+        <v>529</v>
       </c>
       <c r="B318" s="2">
-        <v>45498.64930555555</v>
+        <v>45504.43180555556</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>245.3</v>
+        <v>528.5</v>
       </c>
       <c r="B319" s="2">
-        <v>45498.65277777778</v>
+        <v>45504.43527777777</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>245.6</v>
+        <v>528</v>
       </c>
       <c r="B320" s="2">
-        <v>45498.65625</v>
+        <v>45504.43875</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>243.7</v>
+        <v>527</v>
       </c>
       <c r="B321" s="2">
-        <v>45498.65972222222</v>
+        <v>45504.44222222222</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>243.1</v>
+        <v>527.5</v>
       </c>
       <c r="B322" s="2">
-        <v>45498.66319444445</v>
+        <v>45504.44569444445</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>242.8</v>
+        <v>531</v>
       </c>
       <c r="B323" s="2">
-        <v>45498.66666666666</v>
+        <v>45504.44916666667</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>244</v>
+        <v>529.5</v>
       </c>
       <c r="B324" s="2">
-        <v>45498.67013888889</v>
+        <v>45504.45263888889</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>244.5</v>
+        <v>529.5</v>
       </c>
       <c r="B325" s="2">
-        <v>45498.67361111111</v>
+        <v>45504.45611111111</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>245</v>
+        <v>529.5</v>
       </c>
       <c r="B326" s="2">
-        <v>45498.67708333334</v>
+        <v>45504.45958333334</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>243</v>
+        <v>527.5</v>
       </c>
       <c r="B327" s="2">
-        <v>45498.68055555555</v>
+        <v>45504.46305555556</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>242.4</v>
+        <v>527</v>
       </c>
       <c r="B328" s="2">
-        <v>45498.68402777778</v>
+        <v>45504.46652777777</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>241.5</v>
+        <v>527.5</v>
       </c>
       <c r="B329" s="2">
-        <v>45498.6875</v>
+        <v>45504.47</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>241.3</v>
+        <v>527.5</v>
       </c>
       <c r="B330" s="2">
-        <v>45498.69097222222</v>
+        <v>45504.47347222222</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>241.4</v>
+        <v>527.5</v>
       </c>
       <c r="B331" s="2">
-        <v>45498.69444444445</v>
+        <v>45504.47694444445</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>241.3</v>
+        <v>527</v>
       </c>
       <c r="B332" s="2">
-        <v>45498.69791666666</v>
+        <v>45504.48041666667</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>241</v>
+        <v>526.5</v>
       </c>
       <c r="B333" s="2">
-        <v>45498.70138888889</v>
+        <v>45504.48388888889</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>241.8</v>
+        <v>526</v>
       </c>
       <c r="B334" s="2">
-        <v>45498.70486111111</v>
+        <v>45504.48736111111</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>241.6</v>
+        <v>526.5</v>
       </c>
       <c r="B335" s="2">
-        <v>45498.70833333334</v>
+        <v>45504.49083333334</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>242.5</v>
+        <v>526.5</v>
       </c>
       <c r="B336" s="2">
-        <v>45498.71180555555</v>
+        <v>45504.49430555556</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>242.2</v>
+        <v>526.5</v>
       </c>
       <c r="B337" s="2">
-        <v>45498.71527777778</v>
+        <v>45504.49777777777</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>243.4</v>
+        <v>526</v>
       </c>
       <c r="B338" s="2">
-        <v>45498.71875</v>
+        <v>45504.50125</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>241.3</v>
+        <v>526</v>
       </c>
       <c r="B339" s="2">
-        <v>45498.72222222222</v>
+        <v>45504.50472222222</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>239.3</v>
+        <v>526</v>
       </c>
       <c r="B340" s="2">
-        <v>45498.72569444445</v>
+        <v>45504.50819444445</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>241.3</v>
+        <v>525.5</v>
       </c>
       <c r="B341" s="2">
-        <v>45498.72916666666</v>
+        <v>45504.51166666667</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>239.7</v>
+        <v>526</v>
       </c>
       <c r="B342" s="2">
-        <v>45498.73263888889</v>
+        <v>45504.51513888889</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>240.2</v>
+        <v>526</v>
       </c>
       <c r="B343" s="2">
-        <v>45498.73611111111</v>
+        <v>45504.51861111111</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>239.9</v>
+        <v>526</v>
       </c>
       <c r="B344" s="2">
-        <v>45498.73958333334</v>
+        <v>45504.52208333334</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>242.8</v>
+        <v>525.5</v>
       </c>
       <c r="B345" s="2">
-        <v>45498.74305555555</v>
+        <v>45504.52555555556</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>241.7</v>
+        <v>526.5</v>
       </c>
       <c r="B346" s="2">
-        <v>45498.74652777778</v>
+        <v>45504.52902777777</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>241.8</v>
+        <v>525.5</v>
       </c>
       <c r="B347" s="2">
-        <v>45498.75347222222</v>
+        <v>45504.5325</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>245.9</v>
+        <v>526</v>
       </c>
       <c r="B348" s="2">
-        <v>45499.41319444445</v>
+        <v>45504.53597222222</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>250.75</v>
+        <v>525.5</v>
       </c>
       <c r="B349" s="2">
-        <v>45499.41666666666</v>
+        <v>45504.53944444445</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>248.6</v>
+        <v>525.5</v>
       </c>
       <c r="B350" s="2">
-        <v>45499.42013888889</v>
+        <v>45504.54291666667</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>249.4</v>
+        <v>525</v>
       </c>
       <c r="B351" s="2">
-        <v>45499.42361111111</v>
+        <v>45504.54638888889</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>248.7</v>
+        <v>525</v>
       </c>
       <c r="B352" s="2">
-        <v>45499.42708333334</v>
+        <v>45504.54986111111</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>247.6</v>
+        <v>524</v>
       </c>
       <c r="B353" s="2">
-        <v>45499.43055555555</v>
+        <v>45504.55333333334</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>246.4</v>
+        <v>524.5</v>
       </c>
       <c r="B354" s="2">
-        <v>45499.43402777778</v>
+        <v>45504.55680555556</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>245</v>
+        <v>523</v>
       </c>
       <c r="B355" s="2">
-        <v>45499.4375</v>
+        <v>45504.56027777777</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>245</v>
+        <v>524</v>
       </c>
       <c r="B356" s="2">
-        <v>45499.44097222222</v>
+        <v>45504.56375</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>244.6</v>
+        <v>522.5</v>
       </c>
       <c r="B357" s="2">
-        <v>45499.44444444445</v>
+        <v>45504.56722222222</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>243.5</v>
+        <v>522.5</v>
       </c>
       <c r="B358" s="2">
-        <v>45499.44791666666</v>
+        <v>45504.57069444445</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>243.7</v>
+        <v>526</v>
       </c>
       <c r="B359" s="2">
-        <v>45499.45138888889</v>
+        <v>45504.57416666667</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>244.8</v>
+        <v>524</v>
       </c>
       <c r="B360" s="2">
-        <v>45499.45486111111</v>
+        <v>45504.57763888889</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>244.9</v>
+        <v>525</v>
       </c>
       <c r="B361" s="2">
-        <v>45499.45833333334</v>
+        <v>45504.58111111111</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>244.1</v>
+        <v>524</v>
       </c>
       <c r="B362" s="2">
-        <v>45499.46180555555</v>
+        <v>45504.58458333334</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>244.1</v>
+        <v>525.5</v>
       </c>
       <c r="B363" s="2">
-        <v>45499.46527777778</v>
+        <v>45504.58805555556</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>244</v>
+        <v>526</v>
       </c>
       <c r="B364" s="2">
-        <v>45499.46875</v>
+        <v>45504.59152777777</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>244.1</v>
+        <v>525.5</v>
       </c>
       <c r="B365" s="2">
-        <v>45499.47222222222</v>
+        <v>45504.595</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>243.8</v>
+        <v>524.5</v>
       </c>
       <c r="B366" s="2">
-        <v>45499.47569444445</v>
+        <v>45504.59847222222</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>243.9</v>
+        <v>524.5</v>
       </c>
       <c r="B367" s="2">
-        <v>45499.47916666666</v>
+        <v>45504.60194444445</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>244.7</v>
+        <v>521</v>
       </c>
       <c r="B368" s="2">
-        <v>45499.48263888889</v>
+        <v>45504.60541666667</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>243.8</v>
+        <v>521.5</v>
       </c>
       <c r="B369" s="2">
-        <v>45499.48611111111</v>
+        <v>45504.60888888889</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>243.8</v>
+        <v>521</v>
       </c>
       <c r="B370" s="2">
-        <v>45499.48958333334</v>
+        <v>45504.61236111111</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>243.9</v>
+        <v>522</v>
       </c>
       <c r="B371" s="2">
-        <v>45499.49305555555</v>
+        <v>45504.61583333334</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>243.6</v>
+        <v>524</v>
       </c>
       <c r="B372" s="2">
-        <v>45499.49652777778</v>
+        <v>45504.61930555556</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>243.7</v>
+        <v>522.5</v>
       </c>
       <c r="B373" s="2">
-        <v>45499.5</v>
+        <v>45504.62277777777</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>243.7</v>
+        <v>525</v>
       </c>
       <c r="B374" s="2">
-        <v>45499.50347222222</v>
+        <v>45504.62625</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>243.6</v>
+        <v>525</v>
       </c>
       <c r="B375" s="2">
-        <v>45499.50694444445</v>
+        <v>45504.62972222222</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>243.6</v>
+        <v>524.5</v>
       </c>
       <c r="B376" s="2">
-        <v>45499.51041666666</v>
+        <v>45504.63319444445</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>243.5</v>
+        <v>524</v>
       </c>
       <c r="B377" s="2">
-        <v>45499.51388888889</v>
+        <v>45504.63666666667</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>243.6</v>
+        <v>523</v>
       </c>
       <c r="B378" s="2">
-        <v>45499.51736111111</v>
+        <v>45504.64013888889</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>242.9</v>
+        <v>523</v>
       </c>
       <c r="B379" s="2">
-        <v>45499.52083333334</v>
+        <v>45504.64361111111</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>242.5</v>
+        <v>524</v>
       </c>
       <c r="B380" s="2">
-        <v>45499.52430555555</v>
+        <v>45504.64708333334</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>242.4</v>
+        <v>523.5</v>
       </c>
       <c r="B381" s="2">
-        <v>45499.52777777778</v>
+        <v>45504.65055555556</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>242.6</v>
+        <v>523</v>
       </c>
       <c r="B382" s="2">
-        <v>45499.53125</v>
+        <v>45504.65402777777</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>242.5</v>
+        <v>523.5</v>
       </c>
       <c r="B383" s="2">
-        <v>45499.53472222222</v>
+        <v>45504.6575</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>242.7</v>
+        <v>525</v>
       </c>
       <c r="B384" s="2">
-        <v>45499.53819444445</v>
+        <v>45504.66097222222</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>243.6</v>
+        <v>525</v>
       </c>
       <c r="B385" s="2">
-        <v>45499.54166666666</v>
+        <v>45504.66444444445</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>243.5</v>
+        <v>525</v>
       </c>
       <c r="B386" s="2">
-        <v>45499.54513888889</v>
+        <v>45504.66791666667</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>243.2</v>
+        <v>524.5</v>
       </c>
       <c r="B387" s="2">
-        <v>45499.54861111111</v>
+        <v>45504.67138888889</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>243.2</v>
+        <v>524.5</v>
       </c>
       <c r="B388" s="2">
-        <v>45499.55208333334</v>
+        <v>45504.67486111111</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>242.7</v>
+        <v>524</v>
       </c>
       <c r="B389" s="2">
-        <v>45499.55555555555</v>
+        <v>45504.67833333334</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>242.9</v>
+        <v>526</v>
       </c>
       <c r="B390" s="2">
-        <v>45499.55902777778</v>
+        <v>45504.68180555556</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>243.6</v>
+        <v>525.5</v>
       </c>
       <c r="B391" s="2">
-        <v>45499.5625</v>
+        <v>45504.68527777777</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>244.4</v>
+        <v>524</v>
       </c>
       <c r="B392" s="2">
-        <v>45499.56597222222</v>
+        <v>45504.68875</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>243.9</v>
+        <v>524.5</v>
       </c>
       <c r="B393" s="2">
-        <v>45499.56944444445</v>
+        <v>45504.69222222222</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>244.3</v>
+        <v>524</v>
       </c>
       <c r="B394" s="2">
-        <v>45499.57291666666</v>
+        <v>45504.69569444445</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>244.6</v>
+        <v>524.5</v>
       </c>
       <c r="B395" s="2">
-        <v>45499.57638888889</v>
+        <v>45504.69916666667</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>243.9</v>
+        <v>523.5</v>
       </c>
       <c r="B396" s="2">
-        <v>45499.57986111111</v>
+        <v>45504.70263888889</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>244.2</v>
+        <v>524.5</v>
       </c>
       <c r="B397" s="2">
-        <v>45499.58333333334</v>
+        <v>45504.70611111111</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>244.1</v>
+        <v>524</v>
       </c>
       <c r="B398" s="2">
-        <v>45499.58680555555</v>
+        <v>45504.70958333334</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>243.6</v>
+        <v>524.5</v>
       </c>
       <c r="B399" s="2">
-        <v>45499.59027777778</v>
+        <v>45504.71305555556</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>243.7</v>
+        <v>525</v>
       </c>
       <c r="B400" s="2">
-        <v>45499.59375</v>
+        <v>45504.71652777777</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>243.2</v>
+        <v>525.5</v>
       </c>
       <c r="B401" s="2">
-        <v>45499.59722222222</v>
+        <v>45504.72</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>243.4</v>
+        <v>525</v>
       </c>
       <c r="B402" s="2">
-        <v>45499.60069444445</v>
+        <v>45504.72347222222</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>243.3</v>
+        <v>524.5</v>
       </c>
       <c r="B403" s="2">
-        <v>45499.60416666666</v>
+        <v>45504.72694444445</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>243.1</v>
+        <v>523.5</v>
       </c>
       <c r="B404" s="2">
-        <v>45499.60763888889</v>
+        <v>45504.73041666667</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>243.1</v>
+        <v>522</v>
       </c>
       <c r="B405" s="2">
-        <v>45499.61111111111</v>
+        <v>45504.73388888889</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>242.8</v>
+        <v>523</v>
       </c>
       <c r="B406" s="2">
-        <v>45499.61458333334</v>
+        <v>45504.73736111111</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>243.4</v>
+        <v>526</v>
       </c>
       <c r="B407" s="2">
-        <v>45499.61805555555</v>
+        <v>45504.74083333334</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>243</v>
+        <v>523</v>
       </c>
       <c r="B408" s="2">
-        <v>45499.62152777778</v>
+        <v>45504.74430555556</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>242.7</v>
+        <v>523</v>
       </c>
       <c r="B409" s="2">
-        <v>45499.625</v>
+        <v>45504.74777777777</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>243.8</v>
+        <v>522</v>
       </c>
       <c r="B410" s="2">
-        <v>45499.62847222222</v>
+        <v>45504.75472222222</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>243.1</v>
+        <v>523.5</v>
       </c>
       <c r="B411" s="2">
-        <v>45499.63194444445</v>
+        <v>45505.41444444445</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>243.4</v>
+        <v>528.5</v>
       </c>
       <c r="B412" s="2">
-        <v>45499.63541666666</v>
+        <v>45505.41791666667</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>244.2</v>
+        <v>527</v>
       </c>
       <c r="B413" s="2">
-        <v>45499.63888888889</v>
+        <v>45505.42138888889</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>243.5</v>
+        <v>526</v>
       </c>
       <c r="B414" s="2">
-        <v>45499.64236111111</v>
+        <v>45505.42486111111</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>244.1</v>
+        <v>527.5</v>
       </c>
       <c r="B415" s="2">
-        <v>45499.64583333334</v>
+        <v>45505.42833333334</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>244</v>
+        <v>527</v>
       </c>
       <c r="B416" s="2">
-        <v>45499.64930555555</v>
+        <v>45505.43180555556</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>243.8</v>
+        <v>527</v>
       </c>
       <c r="B417" s="2">
-        <v>45499.65277777778</v>
+        <v>45505.43527777777</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>243.2</v>
+        <v>527.5</v>
       </c>
       <c r="B418" s="2">
-        <v>45499.65625</v>
+        <v>45505.43875</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>243.6</v>
+        <v>527.5</v>
       </c>
       <c r="B419" s="2">
-        <v>45499.65972222222</v>
+        <v>45505.44222222222</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>243</v>
+        <v>527.5</v>
       </c>
       <c r="B420" s="2">
-        <v>45499.66319444445</v>
+        <v>45505.44569444445</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>243.7</v>
+        <v>526</v>
       </c>
       <c r="B421" s="2">
-        <v>45499.66666666666</v>
+        <v>45505.44916666667</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>243.9</v>
+        <v>526.5</v>
       </c>
       <c r="B422" s="2">
-        <v>45499.67013888889</v>
+        <v>45505.45263888889</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>245.4</v>
+        <v>529</v>
       </c>
       <c r="B423" s="2">
-        <v>45499.67361111111</v>
+        <v>45505.45611111111</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>244.1</v>
+        <v>527.5</v>
       </c>
       <c r="B424" s="2">
-        <v>45499.67708333334</v>
+        <v>45505.45958333334</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>245.6</v>
+        <v>527.5</v>
       </c>
       <c r="B425" s="2">
-        <v>45499.68055555555</v>
+        <v>45505.46305555556</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>249.3</v>
+        <v>528</v>
       </c>
       <c r="B426" s="2">
-        <v>45499.68402777778</v>
+        <v>45505.46652777777</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>248</v>
+        <v>528</v>
       </c>
       <c r="B427" s="2">
-        <v>45499.6875</v>
+        <v>45505.47</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>248</v>
+        <v>529</v>
       </c>
       <c r="B428" s="2">
-        <v>45499.69097222222</v>
+        <v>45505.47347222222</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>246.4</v>
+        <v>526</v>
       </c>
       <c r="B429" s="2">
-        <v>45499.69444444445</v>
+        <v>45505.47694444445</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>246.5</v>
+        <v>527</v>
       </c>
       <c r="B430" s="2">
-        <v>45499.69791666666</v>
+        <v>45505.48041666667</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>245</v>
+        <v>526.5</v>
       </c>
       <c r="B431" s="2">
-        <v>45499.70138888889</v>
+        <v>45505.48388888889</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>246.4</v>
+        <v>528.5</v>
       </c>
       <c r="B432" s="2">
-        <v>45499.70486111111</v>
+        <v>45505.48736111111</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>244.7</v>
+        <v>529</v>
       </c>
       <c r="B433" s="2">
-        <v>45499.70833333334</v>
+        <v>45505.49083333334</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>244.5</v>
+        <v>528</v>
       </c>
       <c r="B434" s="2">
-        <v>45499.71180555555</v>
+        <v>45505.49430555556</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>244.6</v>
+        <v>527</v>
       </c>
       <c r="B435" s="2">
-        <v>45499.71527777778</v>
+        <v>45505.49777777777</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>244.1</v>
+        <v>528</v>
       </c>
       <c r="B436" s="2">
-        <v>45499.71875</v>
+        <v>45505.50125</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="B437" s="2">
-        <v>45499.72222222222</v>
+        <v>45505.50472222222</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>243</v>
+        <v>526</v>
       </c>
       <c r="B438" s="2">
-        <v>45499.72569444445</v>
+        <v>45505.50819444445</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>243.1</v>
+        <v>528.5</v>
       </c>
       <c r="B439" s="2">
-        <v>45499.72916666666</v>
+        <v>45505.51166666667</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>242.9</v>
+        <v>528.5</v>
       </c>
       <c r="B440" s="2">
-        <v>45499.73263888889</v>
+        <v>45505.51513888889</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>243</v>
+        <v>530</v>
       </c>
       <c r="B441" s="2">
-        <v>45499.73611111111</v>
+        <v>45505.51861111111</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>243.2</v>
+        <v>537</v>
       </c>
       <c r="B442" s="2">
-        <v>45499.73958333334</v>
+        <v>45505.52208333334</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>242.8</v>
+        <v>533</v>
       </c>
       <c r="B443" s="2">
-        <v>45499.74305555555</v>
+        <v>45505.52555555556</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>243</v>
+        <v>535</v>
       </c>
       <c r="B444" s="2">
-        <v>45499.74652777778</v>
+        <v>45505.52902777777</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>243.4</v>
+        <v>533</v>
       </c>
       <c r="B445" s="2">
-        <v>45499.75347222222</v>
+        <v>45505.5325</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>241.4</v>
+        <v>533</v>
       </c>
       <c r="B446" s="2">
-        <v>45502.41319444445</v>
+        <v>45505.53597222222</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>237.5</v>
+        <v>532.5</v>
       </c>
       <c r="B447" s="2">
-        <v>45502.41666666666</v>
+        <v>45505.53944444445</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>237.9</v>
+        <v>532.5</v>
       </c>
       <c r="B448" s="2">
-        <v>45502.42013888889</v>
+        <v>45505.54291666667</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>238.9</v>
+        <v>532.5</v>
       </c>
       <c r="B449" s="2">
-        <v>45502.42361111111</v>
+        <v>45505.54638888889</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>237.7</v>
+        <v>532</v>
       </c>
       <c r="B450" s="2">
-        <v>45502.42708333334</v>
+        <v>45505.54986111111</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>238.2</v>
+        <v>532</v>
       </c>
       <c r="B451" s="2">
-        <v>45502.43055555555</v>
+        <v>45505.55333333334</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>238.2</v>
+        <v>532</v>
       </c>
       <c r="B452" s="2">
-        <v>45502.43402777778</v>
+        <v>45505.55680555556</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>238.4</v>
+        <v>531</v>
       </c>
       <c r="B453" s="2">
-        <v>45502.4375</v>
+        <v>45505.56027777777</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>238.5</v>
+        <v>531</v>
       </c>
       <c r="B454" s="2">
-        <v>45502.44097222222</v>
+        <v>45505.56375</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>239.4</v>
+        <v>531.5</v>
       </c>
       <c r="B455" s="2">
-        <v>45502.44444444445</v>
+        <v>45505.56722222222</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>242.6</v>
+        <v>530</v>
       </c>
       <c r="B456" s="2">
-        <v>45502.44791666666</v>
+        <v>45505.57069444445</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>244.2</v>
+        <v>531</v>
       </c>
       <c r="B457" s="2">
-        <v>45502.45138888889</v>
+        <v>45505.57416666667</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>248.1</v>
+        <v>531.5</v>
       </c>
       <c r="B458" s="2">
-        <v>45502.45486111111</v>
+        <v>45505.57763888889</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>246.7</v>
+        <v>532</v>
       </c>
       <c r="B459" s="2">
-        <v>45502.45833333334</v>
+        <v>45505.58111111111</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>247.1</v>
+        <v>532.5</v>
       </c>
       <c r="B460" s="2">
-        <v>45502.46180555555</v>
+        <v>45505.58458333334</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>245.6</v>
+        <v>532.5</v>
       </c>
       <c r="B461" s="2">
-        <v>45502.46527777778</v>
+        <v>45505.58805555556</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>245.9</v>
+        <v>532.5</v>
       </c>
       <c r="B462" s="2">
-        <v>45502.46875</v>
+        <v>45505.59152777777</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>244.5</v>
+        <v>531</v>
       </c>
       <c r="B463" s="2">
-        <v>45502.47222222222</v>
+        <v>45505.595</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>245.1</v>
+        <v>532</v>
       </c>
       <c r="B464" s="2">
-        <v>45502.47569444445</v>
+        <v>45505.59847222222</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>244.6</v>
+        <v>532.5</v>
       </c>
       <c r="B465" s="2">
-        <v>45502.47916666666</v>
+        <v>45505.60194444445</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466">
-        <v>243</v>
+        <v>531.5</v>
       </c>
       <c r="B466" s="2">
-        <v>45502.48263888889</v>
+        <v>45505.60541666667</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>242</v>
+        <v>531.5</v>
       </c>
       <c r="B467" s="2">
-        <v>45502.48611111111</v>
+        <v>45505.60888888889</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>242.4</v>
+        <v>533</v>
       </c>
       <c r="B468" s="2">
-        <v>45502.48958333334</v>
+        <v>45505.61236111111</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469">
-        <v>242.8</v>
+        <v>531.5</v>
       </c>
       <c r="B469" s="2">
-        <v>45502.49305555555</v>
+        <v>45505.61583333334</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470">
-        <v>242.1</v>
+        <v>531</v>
       </c>
       <c r="B470" s="2">
-        <v>45502.49652777778</v>
+        <v>45505.61930555556</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>242.3</v>
+        <v>531</v>
       </c>
       <c r="B471" s="2">
-        <v>45502.5</v>
+        <v>45505.62277777777</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>242.1</v>
+        <v>534</v>
       </c>
       <c r="B472" s="2">
-        <v>45502.50347222222</v>
+        <v>45505.62625</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>242</v>
+        <v>532</v>
       </c>
       <c r="B473" s="2">
-        <v>45502.50694444445</v>
+        <v>45505.62972222222</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>241.1</v>
+        <v>532</v>
       </c>
       <c r="B474" s="2">
-        <v>45502.51041666666</v>
+        <v>45505.63319444445</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>241.8</v>
+        <v>531</v>
       </c>
       <c r="B475" s="2">
-        <v>45502.51388888889</v>
+        <v>45505.63666666667</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>241.3</v>
+        <v>530</v>
       </c>
       <c r="B476" s="2">
-        <v>45502.51736111111</v>
+        <v>45505.64013888889</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477">
-        <v>241.1</v>
+        <v>531</v>
       </c>
       <c r="B477" s="2">
-        <v>45502.52083333334</v>
+        <v>45505.64361111111</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>241</v>
+        <v>532</v>
       </c>
       <c r="B478" s="2">
-        <v>45502.52430555555</v>
+        <v>45505.64708333334</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>241.6</v>
+        <v>531.5</v>
       </c>
       <c r="B479" s="2">
-        <v>45502.52777777778</v>
+        <v>45505.65055555556</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>241.7</v>
+        <v>531.5</v>
       </c>
       <c r="B480" s="2">
-        <v>45502.53125</v>
+        <v>45505.65402777777</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>242</v>
+        <v>531.5</v>
       </c>
       <c r="B481" s="2">
-        <v>45502.53472222222</v>
+        <v>45505.6575</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>241.3</v>
+        <v>530.5</v>
       </c>
       <c r="B482" s="2">
-        <v>45502.53819444445</v>
+        <v>45505.66097222222</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>240.8</v>
+        <v>532.5</v>
       </c>
       <c r="B483" s="2">
-        <v>45502.54166666666</v>
+        <v>45505.66444444445</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>240.7</v>
+        <v>532</v>
       </c>
       <c r="B484" s="2">
-        <v>45502.54513888889</v>
+        <v>45505.66791666667</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485">
-        <v>240.7</v>
+        <v>532</v>
       </c>
       <c r="B485" s="2">
-        <v>45502.54861111111</v>
+        <v>45505.67138888889</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>240.5</v>
+        <v>533</v>
       </c>
       <c r="B486" s="2">
-        <v>45502.55208333334</v>
+        <v>45505.67486111111</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487">
-        <v>240.9</v>
+        <v>533</v>
       </c>
       <c r="B487" s="2">
-        <v>45502.55555555555</v>
+        <v>45505.67833333334</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>241.3</v>
+        <v>537</v>
       </c>
       <c r="B488" s="2">
-        <v>45502.55902777778</v>
+        <v>45505.68180555556</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489">
-        <v>241.1</v>
+        <v>538</v>
       </c>
       <c r="B489" s="2">
-        <v>45502.5625</v>
+        <v>45505.68527777777</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>240.9</v>
+        <v>538.5</v>
       </c>
       <c r="B490" s="2">
-        <v>45502.56597222222</v>
+        <v>45505.68875</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>241.2</v>
+        <v>537.5</v>
       </c>
       <c r="B491" s="2">
-        <v>45502.56944444445</v>
+        <v>45505.69222222222</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="B492" s="2">
-        <v>45502.57291666666</v>
+        <v>45505.69569444445</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>241.5</v>
+        <v>535</v>
       </c>
       <c r="B493" s="2">
-        <v>45502.57638888889</v>
+        <v>45505.69916666667</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>241.3</v>
+        <v>536.5</v>
       </c>
       <c r="B494" s="2">
-        <v>45502.57986111111</v>
+        <v>45505.70263888889</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>241.7</v>
+        <v>539</v>
       </c>
       <c r="B495" s="2">
-        <v>45502.58333333334</v>
+        <v>45505.70611111111</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>241.6</v>
+        <v>539.5</v>
       </c>
       <c r="B496" s="2">
-        <v>45502.58680555555</v>
+        <v>45505.70958333334</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="B497" s="2">
-        <v>45502.59027777778</v>
+        <v>45505.71305555556</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>240.6</v>
+        <v>538</v>
       </c>
       <c r="B498" s="2">
-        <v>45502.59375</v>
+        <v>45505.71652777777</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>240.6</v>
+        <v>537</v>
       </c>
       <c r="B499" s="2">
-        <v>45502.59722222222</v>
+        <v>45505.72</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500">
-        <v>240.6</v>
+        <v>536</v>
       </c>
       <c r="B500" s="2">
-        <v>45502.60069444445</v>
+        <v>45505.72347222222</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501">
-        <v>240.6</v>
+        <v>537.5</v>
       </c>
       <c r="B501" s="2">
-        <v>45502.60416666666</v>
+        <v>45505.72694444445</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>240.1</v>
+        <v>534.5</v>
       </c>
       <c r="B502" s="2">
-        <v>45502.60763888889</v>
+        <v>45505.73041666667</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>239.9</v>
+        <v>533.5</v>
       </c>
       <c r="B503" s="2">
-        <v>45502.61111111111</v>
+        <v>45505.73388888889</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>239.8</v>
+        <v>535</v>
       </c>
       <c r="B504" s="2">
-        <v>45502.61458333334</v>
+        <v>45505.73736111111</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505">
-        <v>239.7</v>
+        <v>533</v>
       </c>
       <c r="B505" s="2">
-        <v>45502.61805555555</v>
+        <v>45505.74083333334</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506">
-        <v>239.9</v>
+        <v>530.5</v>
       </c>
       <c r="B506" s="2">
-        <v>45502.62152777778</v>
+        <v>45505.74430555556</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507">
-        <v>239.7</v>
+        <v>535</v>
       </c>
       <c r="B507" s="2">
-        <v>45502.625</v>
+        <v>45505.74777777777</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508">
-        <v>239.7</v>
+        <v>530.5</v>
       </c>
       <c r="B508" s="2">
-        <v>45502.62847222222</v>
+        <v>45505.75472222222</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509">
-        <v>239.7</v>
+        <v>528.5</v>
       </c>
       <c r="B509" s="2">
-        <v>45502.63194444445</v>
+        <v>45506.41444444445</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>239.5</v>
+        <v>525.5</v>
       </c>
       <c r="B510" s="2">
-        <v>45502.63541666666</v>
+        <v>45506.41791666667</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511">
-        <v>239.6</v>
+        <v>526.5</v>
       </c>
       <c r="B511" s="2">
-        <v>45502.63888888889</v>
+        <v>45506.42138888889</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512">
-        <v>239.9</v>
+        <v>533</v>
       </c>
       <c r="B512" s="2">
-        <v>45502.64236111111</v>
+        <v>45506.42486111111</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="B513" s="2">
-        <v>45502.64583333334</v>
+        <v>45506.42833333334</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514">
-        <v>239.8</v>
+        <v>532.5</v>
       </c>
       <c r="B514" s="2">
-        <v>45502.64930555555</v>
+        <v>45506.43180555556</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515">
-        <v>240</v>
+        <v>537.5</v>
       </c>
       <c r="B515" s="2">
-        <v>45502.65277777778</v>
+        <v>45506.43527777777</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516">
-        <v>239.5</v>
+        <v>537</v>
       </c>
       <c r="B516" s="2">
-        <v>45502.65625</v>
+        <v>45506.43875</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517">
-        <v>239.4</v>
+        <v>534</v>
       </c>
       <c r="B517" s="2">
-        <v>45502.65972222222</v>
+        <v>45506.44222222222</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518">
-        <v>239</v>
+        <v>536</v>
       </c>
       <c r="B518" s="2">
-        <v>45502.66319444445</v>
+        <v>45506.44569444445</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519">
-        <v>239.6</v>
+        <v>533</v>
       </c>
       <c r="B519" s="2">
-        <v>45502.66666666666</v>
+        <v>45506.44916666667</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520">
-        <v>239.1</v>
+        <v>535</v>
       </c>
       <c r="B520" s="2">
-        <v>45502.67013888889</v>
+        <v>45506.45263888889</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>239.4</v>
+        <v>533</v>
       </c>
       <c r="B521" s="2">
-        <v>45502.67361111111</v>
+        <v>45506.45611111111</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>238.9</v>
+        <v>531</v>
       </c>
       <c r="B522" s="2">
-        <v>45502.67708333334</v>
+        <v>45506.45958333334</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>238</v>
+        <v>530</v>
       </c>
       <c r="B523" s="2">
-        <v>45502.68055555555</v>
+        <v>45506.46305555556</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>238.4</v>
+        <v>527</v>
       </c>
       <c r="B524" s="2">
-        <v>45502.68402777778</v>
+        <v>45506.46652777777</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>238.3</v>
+        <v>528</v>
       </c>
       <c r="B525" s="2">
-        <v>45502.6875</v>
+        <v>45506.47</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526">
-        <v>238.2</v>
+        <v>528.5</v>
       </c>
       <c r="B526" s="2">
-        <v>45502.69097222222</v>
+        <v>45506.47347222222</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527">
-        <v>238</v>
+        <v>525.5</v>
       </c>
       <c r="B527" s="2">
-        <v>45502.69444444445</v>
+        <v>45506.47694444445</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528">
-        <v>238.2</v>
+        <v>525.5</v>
       </c>
       <c r="B528" s="2">
-        <v>45502.69791666666</v>
+        <v>45506.48041666667</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529">
-        <v>237.7</v>
+        <v>526</v>
       </c>
       <c r="B529" s="2">
-        <v>45502.70138888889</v>
+        <v>45506.48388888889</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530">
-        <v>238</v>
+        <v>527</v>
       </c>
       <c r="B530" s="2">
-        <v>45502.70486111111</v>
+        <v>45506.48736111111</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531">
-        <v>237.9</v>
+        <v>525.5</v>
       </c>
       <c r="B531" s="2">
-        <v>45502.70833333334</v>
+        <v>45506.49083333334</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532">
-        <v>237.6</v>
+        <v>525.5</v>
       </c>
       <c r="B532" s="2">
-        <v>45502.71180555555</v>
+        <v>45506.49430555556</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533">
-        <v>237.3</v>
+        <v>525</v>
       </c>
       <c r="B533" s="2">
-        <v>45502.71527777778</v>
+        <v>45506.49777777777</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>237.3</v>
+        <v>524</v>
       </c>
       <c r="B534" s="2">
-        <v>45502.71875</v>
+        <v>45506.50125</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535">
-        <v>237.5</v>
+        <v>525.5</v>
       </c>
       <c r="B535" s="2">
-        <v>45502.72222222222</v>
+        <v>45506.50472222222</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536">
-        <v>237.9</v>
+        <v>525</v>
       </c>
       <c r="B536" s="2">
-        <v>45502.72569444445</v>
+        <v>45506.50819444445</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537">
-        <v>238.5</v>
+        <v>526</v>
       </c>
       <c r="B537" s="2">
-        <v>45502.72916666666</v>
+        <v>45506.51166666667</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538">
-        <v>238.3</v>
+        <v>527</v>
       </c>
       <c r="B538" s="2">
-        <v>45502.73263888889</v>
+        <v>45506.51513888889</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>237.3</v>
+        <v>526</v>
       </c>
       <c r="B539" s="2">
-        <v>45502.73611111111</v>
+        <v>45506.51861111111</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540">
-        <v>237</v>
+        <v>527</v>
       </c>
       <c r="B540" s="2">
-        <v>45502.73958333334</v>
+        <v>45506.52208333334</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>237.4</v>
+        <v>527</v>
       </c>
       <c r="B541" s="2">
-        <v>45502.74305555555</v>
+        <v>45506.52555555556</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542">
-        <v>236</v>
+        <v>528</v>
       </c>
       <c r="B542" s="2">
-        <v>45502.74652777778</v>
+        <v>45506.52902777777</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543">
-        <v>236</v>
+        <v>526</v>
       </c>
       <c r="B543" s="2">
-        <v>45502.75</v>
+        <v>45506.5325</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544">
-        <v>236.1</v>
+        <v>527.5</v>
       </c>
       <c r="B544" s="2">
-        <v>45502.75347222222</v>
+        <v>45506.53597222222</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545">
-        <v>236.5</v>
+        <v>527.5</v>
       </c>
       <c r="B545" s="2">
-        <v>45503.41319444445</v>
+        <v>45506.53944444445</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546">
-        <v>237.7</v>
+        <v>527.5</v>
       </c>
       <c r="B546" s="2">
-        <v>45503.41666666666</v>
+        <v>45506.54291666667</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547">
-        <v>237.3</v>
+        <v>527.5</v>
       </c>
       <c r="B547" s="2">
-        <v>45503.42013888889</v>
+        <v>45506.54638888889</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548">
-        <v>235.9</v>
+        <v>525</v>
       </c>
       <c r="B548" s="2">
-        <v>45503.42361111111</v>
+        <v>45506.54986111111</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549">
-        <v>236.4</v>
+        <v>525.5</v>
       </c>
       <c r="B549" s="2">
-        <v>45503.42708333334</v>
+        <v>45506.55333333334</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550">
-        <v>236.5</v>
+        <v>525.5</v>
       </c>
       <c r="B550" s="2">
-        <v>45503.43055555555</v>
+        <v>45506.56027777777</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551">
-        <v>237.2</v>
+        <v>525.5</v>
       </c>
       <c r="B551" s="2">
-        <v>45503.43402777778</v>
+        <v>45506.56375</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552">
-        <v>236.5</v>
+        <v>526.5</v>
       </c>
       <c r="B552" s="2">
-        <v>45503.4375</v>
+        <v>45506.56722222222</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>237</v>
+        <v>525.5</v>
       </c>
       <c r="B553" s="2">
-        <v>45503.44097222222</v>
+        <v>45506.57069444445</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554">
-        <v>236.8</v>
+        <v>525.5</v>
       </c>
       <c r="B554" s="2">
-        <v>45503.44444444445</v>
+        <v>45506.57416666667</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555">
-        <v>237.4</v>
+        <v>525.5</v>
       </c>
       <c r="B555" s="2">
-        <v>45503.44791666666</v>
+        <v>45506.57763888889</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556">
-        <v>236</v>
+        <v>524</v>
       </c>
       <c r="B556" s="2">
-        <v>45503.45138888889</v>
+        <v>45506.58111111111</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>236.5</v>
+        <v>523.5</v>
       </c>
       <c r="B557" s="2">
-        <v>45503.45486111111</v>
+        <v>45506.58458333334</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>236.7</v>
+        <v>523.5</v>
       </c>
       <c r="B558" s="2">
-        <v>45503.45833333334</v>
+        <v>45506.58805555556</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>236.2</v>
+        <v>522</v>
       </c>
       <c r="B559" s="2">
-        <v>45503.46180555555</v>
+        <v>45506.59152777777</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>236.1</v>
+        <v>522</v>
       </c>
       <c r="B560" s="2">
-        <v>45503.46527777778</v>
+        <v>45506.595</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>236</v>
+        <v>522</v>
       </c>
       <c r="B561" s="2">
-        <v>45503.46875</v>
+        <v>45506.59847222222</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562">
-        <v>237.1</v>
+        <v>521</v>
       </c>
       <c r="B562" s="2">
-        <v>45503.47222222222</v>
+        <v>45506.60194444445</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>236.2</v>
+        <v>523</v>
       </c>
       <c r="B563" s="2">
-        <v>45503.47569444445</v>
+        <v>45506.60541666667</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>238.6</v>
+        <v>522.5</v>
       </c>
       <c r="B564" s="2">
-        <v>45503.47916666666</v>
+        <v>45506.60888888889</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>236.6</v>
+        <v>522</v>
       </c>
       <c r="B565" s="2">
-        <v>45503.48263888889</v>
+        <v>45506.61236111111</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>236.6</v>
+        <v>521.5</v>
       </c>
       <c r="B566" s="2">
-        <v>45503.48611111111</v>
+        <v>45506.61583333334</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>237.2</v>
+        <v>523</v>
       </c>
       <c r="B567" s="2">
-        <v>45503.48958333334</v>
+        <v>45506.61930555556</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>236.8</v>
+        <v>521.5</v>
       </c>
       <c r="B568" s="2">
-        <v>45503.49305555555</v>
+        <v>45506.62277777777</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>235.9</v>
+        <v>520.5</v>
       </c>
       <c r="B569" s="2">
-        <v>45503.49652777778</v>
+        <v>45506.62625</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>236.1</v>
+        <v>520</v>
       </c>
       <c r="B570" s="2">
-        <v>45503.5</v>
+        <v>45506.62972222222</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>236.1</v>
+        <v>519.5</v>
       </c>
       <c r="B571" s="2">
-        <v>45503.50347222222</v>
+        <v>45506.63319444445</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>236.2</v>
+        <v>520.5</v>
       </c>
       <c r="B572" s="2">
-        <v>45503.50694444445</v>
+        <v>45506.63666666667</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>236.4</v>
+        <v>520.5</v>
       </c>
       <c r="B573" s="2">
-        <v>45503.51041666666</v>
+        <v>45506.64013888889</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>236.4</v>
+        <v>521</v>
       </c>
       <c r="B574" s="2">
-        <v>45503.51388888889</v>
+        <v>45506.64361111111</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575">
-        <v>236.7</v>
+        <v>519</v>
       </c>
       <c r="B575" s="2">
-        <v>45503.51736111111</v>
+        <v>45506.64708333334</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>236.4</v>
+        <v>520.5</v>
       </c>
       <c r="B576" s="2">
-        <v>45503.52083333334</v>
+        <v>45506.65055555556</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>246.6</v>
+        <v>519</v>
       </c>
       <c r="B577" s="2">
-        <v>45503.52430555555</v>
+        <v>45506.65402777777</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578">
-        <v>249.2</v>
+        <v>518.5</v>
       </c>
       <c r="B578" s="2">
-        <v>45503.52777777778</v>
+        <v>45506.6575</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>252</v>
+        <v>518.5</v>
       </c>
       <c r="B579" s="2">
-        <v>45503.53125</v>
+        <v>45506.66097222222</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>250.5</v>
+        <v>518</v>
       </c>
       <c r="B580" s="2">
-        <v>45503.53472222222</v>
+        <v>45506.66444444445</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581">
-        <v>249.2</v>
+        <v>518.5</v>
       </c>
       <c r="B581" s="2">
-        <v>45503.53819444445</v>
+        <v>45506.66791666667</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
-        <v>250.5</v>
+        <v>520</v>
       </c>
       <c r="B582" s="2">
-        <v>45503.54166666666</v>
+        <v>45506.67138888889</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583">
-        <v>251</v>
+        <v>519</v>
       </c>
       <c r="B583" s="2">
-        <v>45503.54513888889</v>
+        <v>45506.67486111111</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584">
-        <v>249.9</v>
+        <v>519.5</v>
       </c>
       <c r="B584" s="2">
-        <v>45503.54861111111</v>
+        <v>45506.67833333334</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585">
-        <v>248.8</v>
+        <v>521</v>
       </c>
       <c r="B585" s="2">
-        <v>45503.55208333334</v>
+        <v>45506.68180555556</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>249.9</v>
+        <v>521</v>
       </c>
       <c r="B586" s="2">
-        <v>45503.55555555555</v>
+        <v>45506.68527777777</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587">
-        <v>250</v>
+        <v>518.5</v>
       </c>
       <c r="B587" s="2">
-        <v>45503.55902777778</v>
+        <v>45506.68875</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588">
-        <v>247.1</v>
+        <v>519</v>
       </c>
       <c r="B588" s="2">
-        <v>45503.5625</v>
+        <v>45506.69222222222</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>246.8</v>
+        <v>519</v>
       </c>
       <c r="B589" s="2">
-        <v>45503.56597222222</v>
+        <v>45506.69569444445</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590">
-        <v>247</v>
+        <v>518</v>
       </c>
       <c r="B590" s="2">
-        <v>45503.56944444445</v>
+        <v>45506.69916666667</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>247.7</v>
+        <v>515.5</v>
       </c>
       <c r="B591" s="2">
-        <v>45503.57291666666</v>
+        <v>45506.70263888889</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592">
-        <v>247.7</v>
+        <v>518</v>
       </c>
       <c r="B592" s="2">
-        <v>45503.57638888889</v>
+        <v>45506.70611111111</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593">
-        <v>247.3</v>
+        <v>517</v>
       </c>
       <c r="B593" s="2">
-        <v>45503.57986111111</v>
+        <v>45506.70958333334</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594">
-        <v>247.4</v>
+        <v>524.5</v>
       </c>
       <c r="B594" s="2">
-        <v>45503.58333333334</v>
+        <v>45506.71305555556</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595">
-        <v>246.4</v>
+        <v>516.5</v>
       </c>
       <c r="B595" s="2">
-        <v>45503.58680555555</v>
+        <v>45506.71652777777</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596">
-        <v>246.2</v>
+        <v>516</v>
       </c>
       <c r="B596" s="2">
-        <v>45503.59027777778</v>
+        <v>45506.72</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597">
-        <v>246.9</v>
+        <v>519</v>
       </c>
       <c r="B597" s="2">
-        <v>45503.59375</v>
+        <v>45506.72347222222</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598">
-        <v>246.8</v>
+        <v>520</v>
       </c>
       <c r="B598" s="2">
-        <v>45503.59722222222</v>
+        <v>45506.72694444445</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599">
-        <v>246.9</v>
+        <v>521.5</v>
       </c>
       <c r="B599" s="2">
-        <v>45503.60069444445</v>
+        <v>45506.73041666667</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600">
-        <v>246.7</v>
+        <v>517.5</v>
       </c>
       <c r="B600" s="2">
-        <v>45503.60416666666</v>
+        <v>45506.73388888889</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601">
-        <v>245.5</v>
+        <v>519.5</v>
       </c>
       <c r="B601" s="2">
-        <v>45503.60763888889</v>
+        <v>45506.73736111111</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602">
-        <v>246.3</v>
+        <v>521</v>
       </c>
       <c r="B602" s="2">
-        <v>45503.61111111111</v>
+        <v>45506.74083333334</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>247</v>
+        <v>521</v>
       </c>
       <c r="B603" s="2">
-        <v>45503.61458333334</v>
+        <v>45506.74430555556</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604">
-        <v>246.9</v>
+        <v>520</v>
       </c>
       <c r="B604" s="2">
-        <v>45503.61805555555</v>
+        <v>45506.74777777777</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605">
-        <v>246.8</v>
+        <v>520</v>
       </c>
       <c r="B605" s="2">
-        <v>45503.62152777778</v>
+        <v>45506.75472222222</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -397,66 +397,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>538</v>
+        <v>536.5</v>
       </c>
       <c r="B2" s="2">
-        <v>45498.69569444445</v>
+        <v>45499.66444444445</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B3" s="2">
-        <v>45498.69916666667</v>
+        <v>45499.66791666667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>538.5</v>
+        <v>537.5</v>
       </c>
       <c r="B4" s="2">
-        <v>45498.70263888889</v>
+        <v>45499.67138888889</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B5" s="2">
-        <v>45498.70611111111</v>
+        <v>45499.67486111111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B6" s="2">
-        <v>45498.70958333334</v>
+        <v>45499.67833333334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B7" s="2">
-        <v>45498.71305555556</v>
+        <v>45499.68180555556</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B8" s="2">
-        <v>45498.71652777777</v>
+        <v>45499.68527777777</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B9" s="2">
-        <v>45498.72</v>
+        <v>45499.68875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -464,887 +464,887 @@
         <v>540</v>
       </c>
       <c r="B10" s="2">
-        <v>45498.72347222222</v>
+        <v>45499.69222222222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B11" s="2">
-        <v>45498.72694444445</v>
+        <v>45499.69569444445</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B12" s="2">
-        <v>45498.73041666667</v>
+        <v>45499.69916666667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>537.5</v>
+        <v>536</v>
       </c>
       <c r="B13" s="2">
-        <v>45498.73388888889</v>
+        <v>45499.70263888889</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>538</v>
+        <v>536.5</v>
       </c>
       <c r="B14" s="2">
-        <v>45498.73736111111</v>
+        <v>45499.70611111111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>537.5</v>
+        <v>535.5</v>
       </c>
       <c r="B15" s="2">
-        <v>45498.74083333334</v>
+        <v>45499.70958333334</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>537</v>
+        <v>535.5</v>
       </c>
       <c r="B16" s="2">
-        <v>45498.74430555556</v>
+        <v>45499.71305555556</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B17" s="2">
-        <v>45498.74777777777</v>
+        <v>45499.71652777777</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>540.5</v>
+        <v>536</v>
       </c>
       <c r="B18" s="2">
-        <v>45498.75472222222</v>
+        <v>45499.72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>540.5</v>
+        <v>534.5</v>
       </c>
       <c r="B19" s="2">
-        <v>45499.41444444445</v>
+        <v>45499.72347222222</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B20" s="2">
-        <v>45499.41791666667</v>
+        <v>45499.72694444445</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>540</v>
+        <v>531.5</v>
       </c>
       <c r="B21" s="2">
-        <v>45499.42138888889</v>
+        <v>45499.73041666667</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B22" s="2">
-        <v>45499.42486111111</v>
+        <v>45499.73388888889</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B23" s="2">
-        <v>45499.42833333334</v>
+        <v>45499.73736111111</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B24" s="2">
-        <v>45499.43180555556</v>
+        <v>45499.74083333334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B25" s="2">
-        <v>45499.43527777777</v>
+        <v>45499.74430555556</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B26" s="2">
-        <v>45499.43875</v>
+        <v>45499.74777777777</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>541.5</v>
+        <v>536</v>
       </c>
       <c r="B27" s="2">
-        <v>45499.44222222222</v>
+        <v>45499.75472222222</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>540</v>
+        <v>535.5</v>
       </c>
       <c r="B28" s="2">
-        <v>45499.44569444445</v>
+        <v>45502.41444444445</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>539</v>
+        <v>522.5</v>
       </c>
       <c r="B29" s="2">
-        <v>45499.44916666667</v>
+        <v>45502.41791666667</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>540</v>
+        <v>521.5</v>
       </c>
       <c r="B30" s="2">
-        <v>45499.45263888889</v>
+        <v>45502.42138888889</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>540</v>
+        <v>523.5</v>
       </c>
       <c r="B31" s="2">
-        <v>45499.45611111111</v>
+        <v>45502.42486111111</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>536.5</v>
+        <v>524</v>
       </c>
       <c r="B32" s="2">
-        <v>45499.45958333334</v>
+        <v>45502.42833333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>537.5</v>
+        <v>522.5</v>
       </c>
       <c r="B33" s="2">
-        <v>45499.46305555556</v>
+        <v>45502.43180555556</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B34" s="2">
-        <v>45499.46652777777</v>
+        <v>45502.43527777777</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>537.5</v>
+        <v>525</v>
       </c>
       <c r="B35" s="2">
-        <v>45499.47</v>
+        <v>45502.43875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>538.5</v>
+        <v>527</v>
       </c>
       <c r="B36" s="2">
-        <v>45499.47347222222</v>
+        <v>45502.44222222222</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>541.5</v>
+        <v>528.5</v>
       </c>
       <c r="B37" s="2">
-        <v>45499.47694444445</v>
+        <v>45502.44569444445</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B38" s="2">
-        <v>45499.48041666667</v>
+        <v>45502.44916666667</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>544.5</v>
+        <v>529</v>
       </c>
       <c r="B39" s="2">
-        <v>45499.48388888889</v>
+        <v>45502.45263888889</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B40" s="2">
-        <v>45499.48736111111</v>
+        <v>45502.45611111111</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B41" s="2">
-        <v>45499.49083333334</v>
+        <v>45502.45958333334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B42" s="2">
-        <v>45499.49430555556</v>
+        <v>45502.46305555556</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>540.5</v>
+        <v>528</v>
       </c>
       <c r="B43" s="2">
-        <v>45499.49777777777</v>
+        <v>45502.46652777777</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>541</v>
+        <v>529.5</v>
       </c>
       <c r="B44" s="2">
-        <v>45499.50125</v>
+        <v>45502.47</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>539.5</v>
+        <v>530.5</v>
       </c>
       <c r="B45" s="2">
-        <v>45499.50472222222</v>
+        <v>45502.47347222222</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B46" s="2">
-        <v>45499.50819444445</v>
+        <v>45502.47694444445</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>538.5</v>
+        <v>529</v>
       </c>
       <c r="B47" s="2">
-        <v>45499.51166666667</v>
+        <v>45502.48041666667</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>539.5</v>
+        <v>525.5</v>
       </c>
       <c r="B48" s="2">
-        <v>45499.51513888889</v>
+        <v>45502.48388888889</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>538.5</v>
+        <v>526</v>
       </c>
       <c r="B49" s="2">
-        <v>45499.51861111111</v>
+        <v>45502.48736111111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>537.5</v>
+        <v>526.5</v>
       </c>
       <c r="B50" s="2">
-        <v>45499.52208333334</v>
+        <v>45502.49083333334</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B51" s="2">
-        <v>45499.52555555556</v>
+        <v>45502.49430555556</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B52" s="2">
-        <v>45499.52902777777</v>
+        <v>45502.49777777777</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>538.5</v>
+        <v>528</v>
       </c>
       <c r="B53" s="2">
-        <v>45499.5325</v>
+        <v>45502.50125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>539</v>
+        <v>526.5</v>
       </c>
       <c r="B54" s="2">
-        <v>45499.53597222222</v>
+        <v>45502.50472222222</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B55" s="2">
-        <v>45499.53944444445</v>
+        <v>45502.50819444445</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B56" s="2">
-        <v>45499.54291666667</v>
+        <v>45502.51166666667</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>537</v>
+        <v>526.5</v>
       </c>
       <c r="B57" s="2">
-        <v>45499.54638888889</v>
+        <v>45502.51513888889</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>537</v>
+        <v>530.5</v>
       </c>
       <c r="B58" s="2">
-        <v>45499.54986111111</v>
+        <v>45502.51861111111</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B59" s="2">
-        <v>45499.55333333334</v>
+        <v>45502.52208333334</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B60" s="2">
-        <v>45499.55680555556</v>
+        <v>45502.52555555556</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B61" s="2">
-        <v>45499.56027777777</v>
+        <v>45502.52902777777</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B62" s="2">
-        <v>45499.56375</v>
+        <v>45502.5325</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>536.5</v>
+        <v>528</v>
       </c>
       <c r="B63" s="2">
-        <v>45499.56722222222</v>
+        <v>45502.53597222222</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>536.5</v>
+        <v>528</v>
       </c>
       <c r="B64" s="2">
-        <v>45499.57069444445</v>
+        <v>45502.53944444445</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B65" s="2">
-        <v>45499.57416666667</v>
+        <v>45502.54291666667</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>536</v>
+        <v>528.5</v>
       </c>
       <c r="B66" s="2">
-        <v>45499.57763888889</v>
+        <v>45502.54638888889</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B67" s="2">
-        <v>45499.58111111111</v>
+        <v>45502.54986111111</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>538.5</v>
+        <v>527</v>
       </c>
       <c r="B68" s="2">
-        <v>45499.58458333334</v>
+        <v>45502.55333333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B69" s="2">
-        <v>45499.58805555556</v>
+        <v>45502.55680555556</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>536</v>
+        <v>527.5</v>
       </c>
       <c r="B70" s="2">
-        <v>45499.59152777777</v>
+        <v>45502.56027777777</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>536</v>
+        <v>527.5</v>
       </c>
       <c r="B71" s="2">
-        <v>45499.595</v>
+        <v>45502.56375</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>535.5</v>
+        <v>528.5</v>
       </c>
       <c r="B72" s="2">
-        <v>45499.59847222222</v>
+        <v>45502.56722222222</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>534.5</v>
+        <v>526.5</v>
       </c>
       <c r="B73" s="2">
-        <v>45499.60194444445</v>
+        <v>45502.57069444445</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>534.5</v>
+        <v>527.5</v>
       </c>
       <c r="B74" s="2">
-        <v>45499.60541666667</v>
+        <v>45502.57416666667</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>534.5</v>
+        <v>528</v>
       </c>
       <c r="B75" s="2">
-        <v>45499.60888888889</v>
+        <v>45502.57763888889</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>534.5</v>
+        <v>527.5</v>
       </c>
       <c r="B76" s="2">
-        <v>45499.61236111111</v>
+        <v>45502.58111111111</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B77" s="2">
-        <v>45499.61583333334</v>
+        <v>45502.58458333334</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>536</v>
+        <v>527.5</v>
       </c>
       <c r="B78" s="2">
-        <v>45499.61930555556</v>
+        <v>45502.58805555556</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>532.5</v>
+        <v>527</v>
       </c>
       <c r="B79" s="2">
-        <v>45499.62277777777</v>
+        <v>45502.59152777777</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>535</v>
+        <v>528.5</v>
       </c>
       <c r="B80" s="2">
-        <v>45499.62625</v>
+        <v>45502.595</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B81" s="2">
-        <v>45499.62972222222</v>
+        <v>45502.59847222222</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B82" s="2">
-        <v>45499.63319444445</v>
+        <v>45502.60194444445</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>536</v>
+        <v>527.5</v>
       </c>
       <c r="B83" s="2">
-        <v>45499.63666666667</v>
+        <v>45502.60541666667</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>537</v>
+        <v>526.5</v>
       </c>
       <c r="B84" s="2">
-        <v>45499.64013888889</v>
+        <v>45502.60888888889</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>536</v>
+        <v>526.5</v>
       </c>
       <c r="B85" s="2">
-        <v>45499.64361111111</v>
+        <v>45502.61236111111</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>536.5</v>
+        <v>527</v>
       </c>
       <c r="B86" s="2">
-        <v>45499.64708333334</v>
+        <v>45502.61583333334</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>535.5</v>
+        <v>526.5</v>
       </c>
       <c r="B87" s="2">
-        <v>45499.65055555556</v>
+        <v>45502.61930555556</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>536.5</v>
+        <v>527</v>
       </c>
       <c r="B88" s="2">
-        <v>45499.65402777777</v>
+        <v>45502.62277777777</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>535.5</v>
+        <v>527.5</v>
       </c>
       <c r="B89" s="2">
-        <v>45499.6575</v>
+        <v>45502.62625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>535.5</v>
+        <v>527.5</v>
       </c>
       <c r="B90" s="2">
-        <v>45499.66097222222</v>
+        <v>45502.62972222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>536.5</v>
+        <v>528</v>
       </c>
       <c r="B91" s="2">
-        <v>45499.66444444445</v>
+        <v>45502.63319444445</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>536</v>
+        <v>538.5</v>
       </c>
       <c r="B92" s="2">
-        <v>45499.66791666667</v>
+        <v>45502.63666666667</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>537.5</v>
+        <v>528.5</v>
       </c>
       <c r="B93" s="2">
-        <v>45499.67138888889</v>
+        <v>45502.64013888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B94" s="2">
-        <v>45499.67486111111</v>
+        <v>45502.64361111111</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B95" s="2">
-        <v>45499.67833333334</v>
+        <v>45502.64708333334</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>534</v>
+        <v>531.5</v>
       </c>
       <c r="B96" s="2">
-        <v>45499.68180555556</v>
+        <v>45502.65055555556</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>534</v>
+        <v>530.5</v>
       </c>
       <c r="B97" s="2">
-        <v>45499.68527777777</v>
+        <v>45502.65402777777</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>535</v>
+        <v>530.5</v>
       </c>
       <c r="B98" s="2">
-        <v>45499.68875</v>
+        <v>45502.6575</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>540</v>
+        <v>529.5</v>
       </c>
       <c r="B99" s="2">
-        <v>45499.69222222222</v>
+        <v>45502.66097222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>536</v>
+        <v>529.5</v>
       </c>
       <c r="B100" s="2">
-        <v>45499.69569444445</v>
+        <v>45502.66444444445</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>536</v>
+        <v>529.5</v>
       </c>
       <c r="B101" s="2">
-        <v>45499.69916666667</v>
+        <v>45502.66791666667</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B102" s="2">
-        <v>45499.70263888889</v>
+        <v>45502.67138888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>536.5</v>
+        <v>530.5</v>
       </c>
       <c r="B103" s="2">
-        <v>45499.70611111111</v>
+        <v>45502.67486111111</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>535.5</v>
+        <v>528.5</v>
       </c>
       <c r="B104" s="2">
-        <v>45499.70958333334</v>
+        <v>45502.67833333334</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>535.5</v>
+        <v>530</v>
       </c>
       <c r="B105" s="2">
-        <v>45499.71305555556</v>
+        <v>45502.68180555556</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B106" s="2">
-        <v>45499.71652777777</v>
+        <v>45502.68527777777</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>536</v>
+        <v>529.5</v>
       </c>
       <c r="B107" s="2">
-        <v>45499.72</v>
+        <v>45502.68875</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>534.5</v>
+        <v>528.5</v>
       </c>
       <c r="B108" s="2">
-        <v>45499.72347222222</v>
+        <v>45502.69222222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B109" s="2">
-        <v>45499.72694444445</v>
+        <v>45502.69569444445</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>531.5</v>
+        <v>527</v>
       </c>
       <c r="B110" s="2">
-        <v>45499.73041666667</v>
+        <v>45502.69916666667</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B111" s="2">
-        <v>45499.73388888889</v>
+        <v>45502.70263888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B112" s="2">
-        <v>45499.73736111111</v>
+        <v>45502.70611111111</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B113" s="2">
-        <v>45499.74083333334</v>
+        <v>45502.70958333334</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>536</v>
+        <v>527.5</v>
       </c>
       <c r="B114" s="2">
-        <v>45499.74430555556</v>
+        <v>45502.71305555556</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B115" s="2">
-        <v>45499.74777777777</v>
+        <v>45502.71652777777</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B116" s="2">
-        <v>45499.75472222222</v>
+        <v>45502.72</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>535.5</v>
+        <v>528.5</v>
       </c>
       <c r="B117" s="2">
-        <v>45502.41444444445</v>
+        <v>45502.72347222222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>522.5</v>
+        <v>527.5</v>
       </c>
       <c r="B118" s="2">
-        <v>45502.41791666667</v>
+        <v>45502.72694444445</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>521.5</v>
+        <v>527.5</v>
       </c>
       <c r="B119" s="2">
-        <v>45502.42138888889</v>
+        <v>45502.73041666667</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>523.5</v>
+        <v>525</v>
       </c>
       <c r="B120" s="2">
-        <v>45502.42486111111</v>
+        <v>45502.73388888889</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1352,1655 +1352,1655 @@
         <v>524</v>
       </c>
       <c r="B121" s="2">
-        <v>45502.42833333334</v>
+        <v>45502.73736111111</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>522.5</v>
+        <v>525</v>
       </c>
       <c r="B122" s="2">
-        <v>45502.43180555556</v>
+        <v>45502.74083333334</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>525</v>
+        <v>524.5</v>
       </c>
       <c r="B123" s="2">
-        <v>45502.43527777777</v>
+        <v>45502.74430555556</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B124" s="2">
-        <v>45502.43875</v>
+        <v>45502.74777777777</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>527</v>
+        <v>525.5</v>
       </c>
       <c r="B125" s="2">
-        <v>45502.44222222222</v>
+        <v>45502.75472222222</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>528.5</v>
+        <v>525.5</v>
       </c>
       <c r="B126" s="2">
-        <v>45502.44569444445</v>
+        <v>45503.41444444445</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>528</v>
+        <v>527.5</v>
       </c>
       <c r="B127" s="2">
-        <v>45502.44916666667</v>
+        <v>45503.41791666667</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B128" s="2">
-        <v>45502.45263888889</v>
+        <v>45503.42138888889</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B129" s="2">
-        <v>45502.45611111111</v>
+        <v>45503.42486111111</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>530</v>
+        <v>524.5</v>
       </c>
       <c r="B130" s="2">
-        <v>45502.45958333334</v>
+        <v>45503.42833333334</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>531</v>
+        <v>524.5</v>
       </c>
       <c r="B131" s="2">
-        <v>45502.46305555556</v>
+        <v>45503.43180555556</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B132" s="2">
-        <v>45502.46652777777</v>
+        <v>45503.43527777777</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>529.5</v>
+        <v>527</v>
       </c>
       <c r="B133" s="2">
-        <v>45502.47</v>
+        <v>45503.43875</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>530.5</v>
+        <v>529</v>
       </c>
       <c r="B134" s="2">
-        <v>45502.47347222222</v>
+        <v>45503.44222222222</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>529</v>
+        <v>528.5</v>
       </c>
       <c r="B135" s="2">
-        <v>45502.47694444445</v>
+        <v>45503.44569444445</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>529</v>
+        <v>530.5</v>
       </c>
       <c r="B136" s="2">
-        <v>45502.48041666667</v>
+        <v>45503.44916666667</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>525.5</v>
+        <v>532</v>
       </c>
       <c r="B137" s="2">
-        <v>45502.48388888889</v>
+        <v>45503.45263888889</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B138" s="2">
-        <v>45502.48736111111</v>
+        <v>45503.45611111111</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>526.5</v>
+        <v>531</v>
       </c>
       <c r="B139" s="2">
-        <v>45502.49083333334</v>
+        <v>45503.45958333334</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B140" s="2">
-        <v>45502.49430555556</v>
+        <v>45503.46305555556</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>529</v>
+        <v>531.5</v>
       </c>
       <c r="B141" s="2">
-        <v>45502.49777777777</v>
+        <v>45503.46652777777</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>528</v>
+        <v>534.5</v>
       </c>
       <c r="B142" s="2">
-        <v>45502.50125</v>
+        <v>45503.47</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>526.5</v>
+        <v>533.5</v>
       </c>
       <c r="B143" s="2">
-        <v>45502.50472222222</v>
+        <v>45503.47347222222</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B144" s="2">
-        <v>45502.50819444445</v>
+        <v>45503.47694444445</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B145" s="2">
-        <v>45502.51166666667</v>
+        <v>45503.48041666667</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>526.5</v>
+        <v>532.5</v>
       </c>
       <c r="B146" s="2">
-        <v>45502.51513888889</v>
+        <v>45503.48388888889</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>530.5</v>
+        <v>533</v>
       </c>
       <c r="B147" s="2">
-        <v>45502.51861111111</v>
+        <v>45503.48736111111</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B148" s="2">
-        <v>45502.52208333334</v>
+        <v>45503.49083333334</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B149" s="2">
-        <v>45502.52555555556</v>
+        <v>45503.49430555556</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B150" s="2">
-        <v>45502.52902777777</v>
+        <v>45503.49777777777</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B151" s="2">
-        <v>45502.5325</v>
+        <v>45503.50125</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B152" s="2">
-        <v>45502.53597222222</v>
+        <v>45503.50472222222</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B153" s="2">
-        <v>45502.53944444445</v>
+        <v>45503.50819444445</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B154" s="2">
-        <v>45502.54291666667</v>
+        <v>45503.51166666667</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>528.5</v>
+        <v>540</v>
       </c>
       <c r="B155" s="2">
-        <v>45502.54638888889</v>
+        <v>45503.51513888889</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>527</v>
+        <v>540.5</v>
       </c>
       <c r="B156" s="2">
-        <v>45502.54986111111</v>
+        <v>45503.51861111111</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B157" s="2">
-        <v>45502.55333333334</v>
+        <v>45503.52208333334</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B158" s="2">
-        <v>45502.55680555556</v>
+        <v>45503.52555555556</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>527.5</v>
+        <v>539</v>
       </c>
       <c r="B159" s="2">
-        <v>45502.56027777777</v>
+        <v>45503.52902777777</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>527.5</v>
+        <v>538</v>
       </c>
       <c r="B160" s="2">
-        <v>45502.56375</v>
+        <v>45503.5325</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>528.5</v>
+        <v>538</v>
       </c>
       <c r="B161" s="2">
-        <v>45502.56722222222</v>
+        <v>45503.53597222222</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>526.5</v>
+        <v>536.5</v>
       </c>
       <c r="B162" s="2">
-        <v>45502.57069444445</v>
+        <v>45503.53944444445</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>527.5</v>
+        <v>536</v>
       </c>
       <c r="B163" s="2">
-        <v>45502.57416666667</v>
+        <v>45503.54291666667</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>528</v>
+        <v>536.5</v>
       </c>
       <c r="B164" s="2">
-        <v>45502.57763888889</v>
+        <v>45503.54638888889</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>527.5</v>
+        <v>535.5</v>
       </c>
       <c r="B165" s="2">
-        <v>45502.58111111111</v>
+        <v>45503.54986111111</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B166" s="2">
-        <v>45502.58458333334</v>
+        <v>45503.55333333334</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>527.5</v>
+        <v>534.5</v>
       </c>
       <c r="B167" s="2">
-        <v>45502.58805555556</v>
+        <v>45503.55680555556</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>527</v>
+        <v>534.5</v>
       </c>
       <c r="B168" s="2">
-        <v>45502.59152777777</v>
+        <v>45503.56027777777</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>528.5</v>
+        <v>535.5</v>
       </c>
       <c r="B169" s="2">
-        <v>45502.595</v>
+        <v>45503.56375</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>527</v>
+        <v>535.5</v>
       </c>
       <c r="B170" s="2">
-        <v>45502.59847222222</v>
+        <v>45503.56722222222</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>526</v>
+        <v>533.5</v>
       </c>
       <c r="B171" s="2">
-        <v>45502.60194444445</v>
+        <v>45503.57069444445</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>527.5</v>
+        <v>534</v>
       </c>
       <c r="B172" s="2">
-        <v>45502.60541666667</v>
+        <v>45503.57416666667</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>526.5</v>
+        <v>535.5</v>
       </c>
       <c r="B173" s="2">
-        <v>45502.60888888889</v>
+        <v>45503.57763888889</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>526.5</v>
+        <v>538</v>
       </c>
       <c r="B174" s="2">
-        <v>45502.61236111111</v>
+        <v>45503.58111111111</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B175" s="2">
-        <v>45502.61583333334</v>
+        <v>45503.58458333334</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>526.5</v>
+        <v>536.5</v>
       </c>
       <c r="B176" s="2">
-        <v>45502.61930555556</v>
+        <v>45503.58805555556</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>527</v>
+        <v>535.5</v>
       </c>
       <c r="B177" s="2">
-        <v>45502.62277777777</v>
+        <v>45503.59152777777</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>527.5</v>
+        <v>537</v>
       </c>
       <c r="B178" s="2">
-        <v>45502.62625</v>
+        <v>45503.595</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>527.5</v>
+        <v>536.5</v>
       </c>
       <c r="B179" s="2">
-        <v>45502.62972222222</v>
+        <v>45503.59847222222</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>528</v>
+        <v>535.5</v>
       </c>
       <c r="B180" s="2">
-        <v>45502.63319444445</v>
+        <v>45503.60194444445</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>538.5</v>
+        <v>536</v>
       </c>
       <c r="B181" s="2">
-        <v>45502.63666666667</v>
+        <v>45503.60541666667</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>528.5</v>
+        <v>536</v>
       </c>
       <c r="B182" s="2">
-        <v>45502.64013888889</v>
+        <v>45503.60888888889</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>529</v>
+        <v>535.5</v>
       </c>
       <c r="B183" s="2">
-        <v>45502.64361111111</v>
+        <v>45503.61236111111</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B184" s="2">
-        <v>45502.64708333334</v>
+        <v>45503.61583333334</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>531.5</v>
+        <v>536</v>
       </c>
       <c r="B185" s="2">
-        <v>45502.65055555556</v>
+        <v>45503.61930555556</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>530.5</v>
+        <v>534.5</v>
       </c>
       <c r="B186" s="2">
-        <v>45502.65402777777</v>
+        <v>45503.62277777777</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>530.5</v>
+        <v>535.5</v>
       </c>
       <c r="B187" s="2">
-        <v>45502.6575</v>
+        <v>45503.62625</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>529.5</v>
+        <v>534</v>
       </c>
       <c r="B188" s="2">
-        <v>45502.66097222222</v>
+        <v>45503.62972222222</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>529.5</v>
+        <v>534.5</v>
       </c>
       <c r="B189" s="2">
-        <v>45502.66444444445</v>
+        <v>45503.63319444445</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>529.5</v>
+        <v>535.5</v>
       </c>
       <c r="B190" s="2">
-        <v>45502.66791666667</v>
+        <v>45503.63666666667</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B191" s="2">
-        <v>45502.67138888889</v>
+        <v>45503.64013888889</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>530.5</v>
+        <v>533</v>
       </c>
       <c r="B192" s="2">
-        <v>45502.67486111111</v>
+        <v>45503.64361111111</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>528.5</v>
+        <v>531.5</v>
       </c>
       <c r="B193" s="2">
-        <v>45502.67833333334</v>
+        <v>45503.64708333334</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>530</v>
+        <v>533.5</v>
       </c>
       <c r="B194" s="2">
-        <v>45502.68180555556</v>
+        <v>45503.65055555556</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B195" s="2">
-        <v>45502.68527777777</v>
+        <v>45503.65402777777</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>529.5</v>
+        <v>534.5</v>
       </c>
       <c r="B196" s="2">
-        <v>45502.68875</v>
+        <v>45503.6575</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>528.5</v>
+        <v>535</v>
       </c>
       <c r="B197" s="2">
-        <v>45502.69222222222</v>
+        <v>45503.66097222222</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B198" s="2">
-        <v>45502.69569444445</v>
+        <v>45503.66444444445</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>527</v>
+        <v>535.5</v>
       </c>
       <c r="B199" s="2">
-        <v>45502.69916666667</v>
+        <v>45503.66791666667</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>527</v>
+        <v>537.5</v>
       </c>
       <c r="B200" s="2">
-        <v>45502.70263888889</v>
+        <v>45503.67138888889</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>528</v>
+        <v>536.5</v>
       </c>
       <c r="B201" s="2">
-        <v>45502.70611111111</v>
+        <v>45503.67486111111</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>528</v>
+        <v>535.5</v>
       </c>
       <c r="B202" s="2">
-        <v>45502.70958333334</v>
+        <v>45503.67833333334</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>527.5</v>
+        <v>537</v>
       </c>
       <c r="B203" s="2">
-        <v>45502.71305555556</v>
+        <v>45503.68180555556</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B204" s="2">
-        <v>45502.71652777777</v>
+        <v>45503.68527777777</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="B205" s="2">
-        <v>45502.72</v>
+        <v>45503.68875</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>528.5</v>
+        <v>536</v>
       </c>
       <c r="B206" s="2">
-        <v>45502.72347222222</v>
+        <v>45503.69222222222</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>527.5</v>
+        <v>538</v>
       </c>
       <c r="B207" s="2">
-        <v>45502.72694444445</v>
+        <v>45503.69569444445</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>527.5</v>
+        <v>536.5</v>
       </c>
       <c r="B208" s="2">
-        <v>45502.73041666667</v>
+        <v>45503.69916666667</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B209" s="2">
-        <v>45502.73388888889</v>
+        <v>45503.70263888889</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>524</v>
+        <v>536.5</v>
       </c>
       <c r="B210" s="2">
-        <v>45502.73736111111</v>
+        <v>45503.70611111111</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B211" s="2">
-        <v>45502.74083333334</v>
+        <v>45503.70958333334</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>524.5</v>
+        <v>537.5</v>
       </c>
       <c r="B212" s="2">
-        <v>45502.74430555556</v>
+        <v>45503.71305555556</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>524</v>
+        <v>535.5</v>
       </c>
       <c r="B213" s="2">
-        <v>45502.74777777777</v>
+        <v>45503.71652777777</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>525.5</v>
+        <v>535</v>
       </c>
       <c r="B214" s="2">
-        <v>45502.75472222222</v>
+        <v>45503.72</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>525.5</v>
+        <v>537.5</v>
       </c>
       <c r="B215" s="2">
-        <v>45503.41444444445</v>
+        <v>45503.72347222222</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>527.5</v>
+        <v>535.5</v>
       </c>
       <c r="B216" s="2">
-        <v>45503.41791666667</v>
+        <v>45503.72694444445</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>524</v>
+        <v>535.5</v>
       </c>
       <c r="B217" s="2">
-        <v>45503.42138888889</v>
+        <v>45503.73041666667</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>523</v>
+        <v>536.5</v>
       </c>
       <c r="B218" s="2">
-        <v>45503.42486111111</v>
+        <v>45503.73388888889</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>524.5</v>
+        <v>535</v>
       </c>
       <c r="B219" s="2">
-        <v>45503.42833333334</v>
+        <v>45503.73736111111</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>524.5</v>
+        <v>536</v>
       </c>
       <c r="B220" s="2">
-        <v>45503.43180555556</v>
+        <v>45503.74083333334</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B221" s="2">
-        <v>45503.43527777777</v>
+        <v>45503.74430555556</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B222" s="2">
-        <v>45503.43875</v>
+        <v>45503.74777777777</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B223" s="2">
-        <v>45503.44222222222</v>
+        <v>45503.75472222222</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>528.5</v>
+        <v>530</v>
       </c>
       <c r="B224" s="2">
-        <v>45503.44569444445</v>
+        <v>45504.41444444445</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>530.5</v>
+        <v>528</v>
       </c>
       <c r="B225" s="2">
-        <v>45503.44916666667</v>
+        <v>45504.41791666667</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B226" s="2">
-        <v>45503.45263888889</v>
+        <v>45504.42138888889</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>531</v>
+        <v>526.5</v>
       </c>
       <c r="B227" s="2">
-        <v>45503.45611111111</v>
+        <v>45504.42486111111</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B228" s="2">
-        <v>45503.45958333334</v>
+        <v>45504.42833333334</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B229" s="2">
-        <v>45503.46305555556</v>
+        <v>45504.43180555556</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>531.5</v>
+        <v>528.5</v>
       </c>
       <c r="B230" s="2">
-        <v>45503.46652777777</v>
+        <v>45504.43527777777</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>534.5</v>
+        <v>528</v>
       </c>
       <c r="B231" s="2">
-        <v>45503.47</v>
+        <v>45504.43875</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>533.5</v>
+        <v>527</v>
       </c>
       <c r="B232" s="2">
-        <v>45503.47347222222</v>
+        <v>45504.44222222222</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>532</v>
+        <v>527.5</v>
       </c>
       <c r="B233" s="2">
-        <v>45503.47694444445</v>
+        <v>45504.44569444445</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B234" s="2">
-        <v>45503.48041666667</v>
+        <v>45504.44916666667</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>532.5</v>
+        <v>529.5</v>
       </c>
       <c r="B235" s="2">
-        <v>45503.48388888889</v>
+        <v>45504.45263888889</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>533</v>
+        <v>529.5</v>
       </c>
       <c r="B236" s="2">
-        <v>45503.48736111111</v>
+        <v>45504.45611111111</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>532</v>
+        <v>529.5</v>
       </c>
       <c r="B237" s="2">
-        <v>45503.49083333334</v>
+        <v>45504.45958333334</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>535</v>
+        <v>527.5</v>
       </c>
       <c r="B238" s="2">
-        <v>45503.49430555556</v>
+        <v>45504.46305555556</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B239" s="2">
-        <v>45503.49777777777</v>
+        <v>45504.46652777777</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>533</v>
+        <v>527.5</v>
       </c>
       <c r="B240" s="2">
-        <v>45503.50125</v>
+        <v>45504.47</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>533</v>
+        <v>527.5</v>
       </c>
       <c r="B241" s="2">
-        <v>45503.50472222222</v>
+        <v>45504.47347222222</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>534</v>
+        <v>527.5</v>
       </c>
       <c r="B242" s="2">
-        <v>45503.50819444445</v>
+        <v>45504.47694444445</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B243" s="2">
-        <v>45503.51166666667</v>
+        <v>45504.48041666667</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>540</v>
+        <v>526.5</v>
       </c>
       <c r="B244" s="2">
-        <v>45503.51513888889</v>
+        <v>45504.48388888889</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>540.5</v>
+        <v>526</v>
       </c>
       <c r="B245" s="2">
-        <v>45503.51861111111</v>
+        <v>45504.48736111111</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>540</v>
+        <v>526.5</v>
       </c>
       <c r="B246" s="2">
-        <v>45503.52208333334</v>
+        <v>45504.49083333334</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>542</v>
+        <v>526.5</v>
       </c>
       <c r="B247" s="2">
-        <v>45503.52555555556</v>
+        <v>45504.49430555556</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>539</v>
+        <v>526.5</v>
       </c>
       <c r="B248" s="2">
-        <v>45503.52902777777</v>
+        <v>45504.49777777777</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B249" s="2">
-        <v>45503.5325</v>
+        <v>45504.50125</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B250" s="2">
-        <v>45503.53597222222</v>
+        <v>45504.50472222222</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>536.5</v>
+        <v>526</v>
       </c>
       <c r="B251" s="2">
-        <v>45503.53944444445</v>
+        <v>45504.50819444445</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>536</v>
+        <v>525.5</v>
       </c>
       <c r="B252" s="2">
-        <v>45503.54291666667</v>
+        <v>45504.51166666667</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>536.5</v>
+        <v>526</v>
       </c>
       <c r="B253" s="2">
-        <v>45503.54638888889</v>
+        <v>45504.51513888889</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>535.5</v>
+        <v>526</v>
       </c>
       <c r="B254" s="2">
-        <v>45503.54986111111</v>
+        <v>45504.51861111111</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B255" s="2">
-        <v>45503.55333333334</v>
+        <v>45504.52208333334</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>534.5</v>
+        <v>525.5</v>
       </c>
       <c r="B256" s="2">
-        <v>45503.55680555556</v>
+        <v>45504.52555555556</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>534.5</v>
+        <v>526.5</v>
       </c>
       <c r="B257" s="2">
-        <v>45503.56027777777</v>
+        <v>45504.52902777777</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>535.5</v>
+        <v>525.5</v>
       </c>
       <c r="B258" s="2">
-        <v>45503.56375</v>
+        <v>45504.5325</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>535.5</v>
+        <v>526</v>
       </c>
       <c r="B259" s="2">
-        <v>45503.56722222222</v>
+        <v>45504.53597222222</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>533.5</v>
+        <v>525.5</v>
       </c>
       <c r="B260" s="2">
-        <v>45503.57069444445</v>
+        <v>45504.53944444445</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>534</v>
+        <v>525.5</v>
       </c>
       <c r="B261" s="2">
-        <v>45503.57416666667</v>
+        <v>45504.54291666667</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>535.5</v>
+        <v>525</v>
       </c>
       <c r="B262" s="2">
-        <v>45503.57763888889</v>
+        <v>45504.54638888889</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B263" s="2">
-        <v>45503.58111111111</v>
+        <v>45504.54986111111</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B264" s="2">
-        <v>45503.58458333334</v>
+        <v>45504.55333333334</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>536.5</v>
+        <v>524.5</v>
       </c>
       <c r="B265" s="2">
-        <v>45503.58805555556</v>
+        <v>45504.55680555556</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>535.5</v>
+        <v>523</v>
       </c>
       <c r="B266" s="2">
-        <v>45503.59152777777</v>
+        <v>45504.56027777777</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B267" s="2">
-        <v>45503.595</v>
+        <v>45504.56375</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>536.5</v>
+        <v>522.5</v>
       </c>
       <c r="B268" s="2">
-        <v>45503.59847222222</v>
+        <v>45504.56722222222</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>535.5</v>
+        <v>522.5</v>
       </c>
       <c r="B269" s="2">
-        <v>45503.60194444445</v>
+        <v>45504.57069444445</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B270" s="2">
-        <v>45503.60541666667</v>
+        <v>45504.57416666667</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B271" s="2">
-        <v>45503.60888888889</v>
+        <v>45504.57763888889</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>535.5</v>
+        <v>525</v>
       </c>
       <c r="B272" s="2">
-        <v>45503.61236111111</v>
+        <v>45504.58111111111</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B273" s="2">
-        <v>45503.61583333334</v>
+        <v>45504.58458333334</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>536</v>
+        <v>525.5</v>
       </c>
       <c r="B274" s="2">
-        <v>45503.61930555556</v>
+        <v>45504.58805555556</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>534.5</v>
+        <v>526</v>
       </c>
       <c r="B275" s="2">
-        <v>45503.62277777777</v>
+        <v>45504.59152777777</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>535.5</v>
+        <v>525.5</v>
       </c>
       <c r="B276" s="2">
-        <v>45503.62625</v>
+        <v>45504.595</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>534</v>
+        <v>524.5</v>
       </c>
       <c r="B277" s="2">
-        <v>45503.62972222222</v>
+        <v>45504.59847222222</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>534.5</v>
+        <v>524.5</v>
       </c>
       <c r="B278" s="2">
-        <v>45503.63319444445</v>
+        <v>45504.60194444445</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>535.5</v>
+        <v>521</v>
       </c>
       <c r="B279" s="2">
-        <v>45503.63666666667</v>
+        <v>45504.60541666667</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>534</v>
+        <v>521.5</v>
       </c>
       <c r="B280" s="2">
-        <v>45503.64013888889</v>
+        <v>45504.60888888889</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B281" s="2">
-        <v>45503.64361111111</v>
+        <v>45504.61236111111</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>531.5</v>
+        <v>522</v>
       </c>
       <c r="B282" s="2">
-        <v>45503.64708333334</v>
+        <v>45504.61583333334</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>533.5</v>
+        <v>524</v>
       </c>
       <c r="B283" s="2">
-        <v>45503.65055555556</v>
+        <v>45504.61930555556</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>534</v>
+        <v>522.5</v>
       </c>
       <c r="B284" s="2">
-        <v>45503.65402777777</v>
+        <v>45504.62277777777</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>534.5</v>
+        <v>525</v>
       </c>
       <c r="B285" s="2">
-        <v>45503.6575</v>
+        <v>45504.62625</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B286" s="2">
-        <v>45503.66097222222</v>
+        <v>45504.62972222222</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>534</v>
+        <v>524.5</v>
       </c>
       <c r="B287" s="2">
-        <v>45503.66444444445</v>
+        <v>45504.63319444445</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>535.5</v>
+        <v>524</v>
       </c>
       <c r="B288" s="2">
-        <v>45503.66791666667</v>
+        <v>45504.63666666667</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>537.5</v>
+        <v>523</v>
       </c>
       <c r="B289" s="2">
-        <v>45503.67138888889</v>
+        <v>45504.64013888889</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>536.5</v>
+        <v>523</v>
       </c>
       <c r="B290" s="2">
-        <v>45503.67486111111</v>
+        <v>45504.64361111111</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>535.5</v>
+        <v>524</v>
       </c>
       <c r="B291" s="2">
-        <v>45503.67833333334</v>
+        <v>45504.64708333334</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>537</v>
+        <v>523.5</v>
       </c>
       <c r="B292" s="2">
-        <v>45503.68180555556</v>
+        <v>45504.65055555556</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B293" s="2">
-        <v>45503.68527777777</v>
+        <v>45504.65402777777</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>537</v>
+        <v>523.5</v>
       </c>
       <c r="B294" s="2">
-        <v>45503.68875</v>
+        <v>45504.6575</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B295" s="2">
-        <v>45503.69222222222</v>
+        <v>45504.66097222222</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B296" s="2">
-        <v>45503.69569444445</v>
+        <v>45504.66444444445</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>536.5</v>
+        <v>525</v>
       </c>
       <c r="B297" s="2">
-        <v>45503.69916666667</v>
+        <v>45504.66791666667</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>538</v>
+        <v>524.5</v>
       </c>
       <c r="B298" s="2">
-        <v>45503.70263888889</v>
+        <v>45504.67138888889</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>536.5</v>
+        <v>524.5</v>
       </c>
       <c r="B299" s="2">
-        <v>45503.70611111111</v>
+        <v>45504.67486111111</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B300" s="2">
-        <v>45503.70958333334</v>
+        <v>45504.67833333334</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>537.5</v>
+        <v>526</v>
       </c>
       <c r="B301" s="2">
-        <v>45503.71305555556</v>
+        <v>45504.68180555556</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>535.5</v>
+        <v>525.5</v>
       </c>
       <c r="B302" s="2">
-        <v>45503.71652777777</v>
+        <v>45504.68527777777</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B303" s="2">
-        <v>45503.72</v>
+        <v>45504.68875</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>537.5</v>
+        <v>524.5</v>
       </c>
       <c r="B304" s="2">
-        <v>45503.72347222222</v>
+        <v>45504.69222222222</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>535.5</v>
+        <v>524</v>
       </c>
       <c r="B305" s="2">
-        <v>45503.72694444445</v>
+        <v>45504.69569444445</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>535.5</v>
+        <v>524.5</v>
       </c>
       <c r="B306" s="2">
-        <v>45503.73041666667</v>
+        <v>45504.69916666667</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>536.5</v>
+        <v>523.5</v>
       </c>
       <c r="B307" s="2">
-        <v>45503.73388888889</v>
+        <v>45504.70263888889</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>535</v>
+        <v>524.5</v>
       </c>
       <c r="B308" s="2">
-        <v>45503.73736111111</v>
+        <v>45504.70611111111</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B309" s="2">
-        <v>45503.74083333334</v>
+        <v>45504.70958333334</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>534</v>
+        <v>524.5</v>
       </c>
       <c r="B310" s="2">
-        <v>45503.74430555556</v>
+        <v>45504.71305555556</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B311" s="2">
-        <v>45503.74777777777</v>
+        <v>45504.71652777777</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>533</v>
+        <v>525.5</v>
       </c>
       <c r="B312" s="2">
-        <v>45503.75472222222</v>
+        <v>45504.72</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B313" s="2">
-        <v>45504.41444444445</v>
+        <v>45504.72347222222</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>528</v>
+        <v>524.5</v>
       </c>
       <c r="B314" s="2">
-        <v>45504.41791666667</v>
+        <v>45504.72694444445</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>527</v>
+        <v>523.5</v>
       </c>
       <c r="B315" s="2">
-        <v>45504.42138888889</v>
+        <v>45504.73041666667</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>526.5</v>
+        <v>522</v>
       </c>
       <c r="B316" s="2">
-        <v>45504.42486111111</v>
+        <v>45504.73388888889</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B317" s="2">
-        <v>45504.42833333334</v>
+        <v>45504.73736111111</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B318" s="2">
-        <v>45504.43180555556</v>
+        <v>45504.74083333334</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>528.5</v>
+        <v>523</v>
       </c>
       <c r="B319" s="2">
-        <v>45504.43527777777</v>
+        <v>45504.74430555556</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B320" s="2">
-        <v>45504.43875</v>
+        <v>45504.74777777777</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B321" s="2">
-        <v>45504.44222222222</v>
+        <v>45504.75472222222</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>527.5</v>
+        <v>523.5</v>
       </c>
       <c r="B322" s="2">
-        <v>45504.44569444445</v>
+        <v>45505.41444444445</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>531</v>
+        <v>528.5</v>
       </c>
       <c r="B323" s="2">
-        <v>45504.44916666667</v>
+        <v>45505.41791666667</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>529.5</v>
+        <v>527</v>
       </c>
       <c r="B324" s="2">
-        <v>45504.45263888889</v>
+        <v>45505.42138888889</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>529.5</v>
+        <v>526</v>
       </c>
       <c r="B325" s="2">
-        <v>45504.45611111111</v>
+        <v>45505.42486111111</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>529.5</v>
+        <v>527.5</v>
       </c>
       <c r="B326" s="2">
-        <v>45504.45958333334</v>
+        <v>45505.42833333334</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>527.5</v>
+        <v>527</v>
       </c>
       <c r="B327" s="2">
-        <v>45504.46305555556</v>
+        <v>45505.43180555556</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>527</v>
       </c>
       <c r="B328" s="2">
-        <v>45504.46652777777</v>
+        <v>45505.43527777777</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>527.5</v>
       </c>
       <c r="B329" s="2">
-        <v>45504.47</v>
+        <v>45505.43875</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>527.5</v>
       </c>
       <c r="B330" s="2">
-        <v>45504.47347222222</v>
+        <v>45505.44222222222</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3032,15 +3032,15 @@
         <v>527.5</v>
       </c>
       <c r="B331" s="2">
-        <v>45504.47694444445</v>
+        <v>45505.44569444445</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B332" s="2">
-        <v>45504.48041666667</v>
+        <v>45505.44916666667</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3048,55 +3048,55 @@
         <v>526.5</v>
       </c>
       <c r="B333" s="2">
-        <v>45504.48388888889</v>
+        <v>45505.45263888889</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B334" s="2">
-        <v>45504.48736111111</v>
+        <v>45505.45611111111</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>526.5</v>
+        <v>527.5</v>
       </c>
       <c r="B335" s="2">
-        <v>45504.49083333334</v>
+        <v>45505.45958333334</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>526.5</v>
+        <v>527.5</v>
       </c>
       <c r="B336" s="2">
-        <v>45504.49430555556</v>
+        <v>45505.46305555556</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>526.5</v>
+        <v>528</v>
       </c>
       <c r="B337" s="2">
-        <v>45504.49777777777</v>
+        <v>45505.46652777777</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B338" s="2">
-        <v>45504.50125</v>
+        <v>45505.47</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B339" s="2">
-        <v>45504.50472222222</v>
+        <v>45505.47347222222</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3104,655 +3104,655 @@
         <v>526</v>
       </c>
       <c r="B340" s="2">
-        <v>45504.50819444445</v>
+        <v>45505.47694444445</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>525.5</v>
+        <v>527</v>
       </c>
       <c r="B341" s="2">
-        <v>45504.51166666667</v>
+        <v>45505.48041666667</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>526</v>
+        <v>526.5</v>
       </c>
       <c r="B342" s="2">
-        <v>45504.51513888889</v>
+        <v>45505.48388888889</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>526</v>
+        <v>528.5</v>
       </c>
       <c r="B343" s="2">
-        <v>45504.51861111111</v>
+        <v>45505.48736111111</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B344" s="2">
-        <v>45504.52208333334</v>
+        <v>45505.49083333334</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>525.5</v>
+        <v>528</v>
       </c>
       <c r="B345" s="2">
-        <v>45504.52555555556</v>
+        <v>45505.49430555556</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>526.5</v>
+        <v>527</v>
       </c>
       <c r="B346" s="2">
-        <v>45504.52902777777</v>
+        <v>45505.49777777777</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>525.5</v>
+        <v>528</v>
       </c>
       <c r="B347" s="2">
-        <v>45504.5325</v>
+        <v>45505.50125</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B348" s="2">
-        <v>45504.53597222222</v>
+        <v>45505.50472222222</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>525.5</v>
+        <v>526</v>
       </c>
       <c r="B349" s="2">
-        <v>45504.53944444445</v>
+        <v>45505.50819444445</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>525.5</v>
+        <v>528.5</v>
       </c>
       <c r="B350" s="2">
-        <v>45504.54291666667</v>
+        <v>45505.51166666667</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>525</v>
+        <v>528.5</v>
       </c>
       <c r="B351" s="2">
-        <v>45504.54638888889</v>
+        <v>45505.51513888889</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B352" s="2">
-        <v>45504.54986111111</v>
+        <v>45505.51861111111</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="B353" s="2">
-        <v>45504.55333333334</v>
+        <v>45505.52208333334</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>524.5</v>
+        <v>533</v>
       </c>
       <c r="B354" s="2">
-        <v>45504.55680555556</v>
+        <v>45505.52555555556</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B355" s="2">
-        <v>45504.56027777777</v>
+        <v>45505.52902777777</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B356" s="2">
-        <v>45504.56375</v>
+        <v>45505.5325</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>522.5</v>
+        <v>533</v>
       </c>
       <c r="B357" s="2">
-        <v>45504.56722222222</v>
+        <v>45505.53597222222</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>522.5</v>
+        <v>532.5</v>
       </c>
       <c r="B358" s="2">
-        <v>45504.57069444445</v>
+        <v>45505.53944444445</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>526</v>
+        <v>532.5</v>
       </c>
       <c r="B359" s="2">
-        <v>45504.57416666667</v>
+        <v>45505.54291666667</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>524</v>
+        <v>532.5</v>
       </c>
       <c r="B360" s="2">
-        <v>45504.57763888889</v>
+        <v>45505.54638888889</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B361" s="2">
-        <v>45504.58111111111</v>
+        <v>45505.54986111111</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B362" s="2">
-        <v>45504.58458333334</v>
+        <v>45505.55333333334</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>525.5</v>
+        <v>532</v>
       </c>
       <c r="B363" s="2">
-        <v>45504.58805555556</v>
+        <v>45505.55680555556</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B364" s="2">
-        <v>45504.59152777777</v>
+        <v>45505.56027777777</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>525.5</v>
+        <v>531</v>
       </c>
       <c r="B365" s="2">
-        <v>45504.595</v>
+        <v>45505.56375</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>524.5</v>
+        <v>531.5</v>
       </c>
       <c r="B366" s="2">
-        <v>45504.59847222222</v>
+        <v>45505.56722222222</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>524.5</v>
+        <v>530</v>
       </c>
       <c r="B367" s="2">
-        <v>45504.60194444445</v>
+        <v>45505.57069444445</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B368" s="2">
-        <v>45504.60541666667</v>
+        <v>45505.57416666667</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>521.5</v>
+        <v>531.5</v>
       </c>
       <c r="B369" s="2">
-        <v>45504.60888888889</v>
+        <v>45505.57763888889</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B370" s="2">
-        <v>45504.61236111111</v>
+        <v>45505.58111111111</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>522</v>
+        <v>532.5</v>
       </c>
       <c r="B371" s="2">
-        <v>45504.61583333334</v>
+        <v>45505.58458333334</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>524</v>
+        <v>532.5</v>
       </c>
       <c r="B372" s="2">
-        <v>45504.61930555556</v>
+        <v>45505.58805555556</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>522.5</v>
+        <v>532.5</v>
       </c>
       <c r="B373" s="2">
-        <v>45504.62277777777</v>
+        <v>45505.59152777777</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B374" s="2">
-        <v>45504.62625</v>
+        <v>45505.595</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B375" s="2">
-        <v>45504.62972222222</v>
+        <v>45505.59847222222</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>524.5</v>
+        <v>532.5</v>
       </c>
       <c r="B376" s="2">
-        <v>45504.63319444445</v>
+        <v>45505.60194444445</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>524</v>
+        <v>531.5</v>
       </c>
       <c r="B377" s="2">
-        <v>45504.63666666667</v>
+        <v>45505.60541666667</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>523</v>
+        <v>531.5</v>
       </c>
       <c r="B378" s="2">
-        <v>45504.64013888889</v>
+        <v>45505.60888888889</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B379" s="2">
-        <v>45504.64361111111</v>
+        <v>45505.61236111111</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>524</v>
+        <v>531.5</v>
       </c>
       <c r="B380" s="2">
-        <v>45504.64708333334</v>
+        <v>45505.61583333334</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>523.5</v>
+        <v>531</v>
       </c>
       <c r="B381" s="2">
-        <v>45504.65055555556</v>
+        <v>45505.61930555556</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B382" s="2">
-        <v>45504.65402777777</v>
+        <v>45505.62277777777</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>523.5</v>
+        <v>534</v>
       </c>
       <c r="B383" s="2">
-        <v>45504.6575</v>
+        <v>45505.62625</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B384" s="2">
-        <v>45504.66097222222</v>
+        <v>45505.62972222222</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B385" s="2">
-        <v>45504.66444444445</v>
+        <v>45505.63319444445</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B386" s="2">
-        <v>45504.66791666667</v>
+        <v>45505.63666666667</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>524.5</v>
+        <v>530</v>
       </c>
       <c r="B387" s="2">
-        <v>45504.67138888889</v>
+        <v>45505.64013888889</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>524.5</v>
+        <v>531</v>
       </c>
       <c r="B388" s="2">
-        <v>45504.67486111111</v>
+        <v>45505.64361111111</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B389" s="2">
-        <v>45504.67833333334</v>
+        <v>45505.64708333334</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>526</v>
+        <v>531.5</v>
       </c>
       <c r="B390" s="2">
-        <v>45504.68180555556</v>
+        <v>45505.65055555556</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>525.5</v>
+        <v>531.5</v>
       </c>
       <c r="B391" s="2">
-        <v>45504.68527777777</v>
+        <v>45505.65402777777</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>524</v>
+        <v>531.5</v>
       </c>
       <c r="B392" s="2">
-        <v>45504.68875</v>
+        <v>45505.6575</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>524.5</v>
+        <v>530.5</v>
       </c>
       <c r="B393" s="2">
-        <v>45504.69222222222</v>
+        <v>45505.66097222222</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>524</v>
+        <v>532.5</v>
       </c>
       <c r="B394" s="2">
-        <v>45504.69569444445</v>
+        <v>45505.66444444445</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>524.5</v>
+        <v>532</v>
       </c>
       <c r="B395" s="2">
-        <v>45504.69916666667</v>
+        <v>45505.66791666667</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>523.5</v>
+        <v>532</v>
       </c>
       <c r="B396" s="2">
-        <v>45504.70263888889</v>
+        <v>45505.67138888889</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>524.5</v>
+        <v>533</v>
       </c>
       <c r="B397" s="2">
-        <v>45504.70611111111</v>
+        <v>45505.67486111111</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B398" s="2">
-        <v>45504.70958333334</v>
+        <v>45505.67833333334</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>524.5</v>
+        <v>537</v>
       </c>
       <c r="B399" s="2">
-        <v>45504.71305555556</v>
+        <v>45505.68180555556</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B400" s="2">
-        <v>45504.71652777777</v>
+        <v>45505.68527777777</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>525.5</v>
+        <v>538.5</v>
       </c>
       <c r="B401" s="2">
-        <v>45504.72</v>
+        <v>45505.68875</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>525</v>
+        <v>537.5</v>
       </c>
       <c r="B402" s="2">
-        <v>45504.72347222222</v>
+        <v>45505.69222222222</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>524.5</v>
+        <v>538</v>
       </c>
       <c r="B403" s="2">
-        <v>45504.72694444445</v>
+        <v>45505.69569444445</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>523.5</v>
+        <v>535</v>
       </c>
       <c r="B404" s="2">
-        <v>45504.73041666667</v>
+        <v>45505.69916666667</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>522</v>
+        <v>536.5</v>
       </c>
       <c r="B405" s="2">
-        <v>45504.73388888889</v>
+        <v>45505.70263888889</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="B406" s="2">
-        <v>45504.73736111111</v>
+        <v>45505.70611111111</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>526</v>
+        <v>539.5</v>
       </c>
       <c r="B407" s="2">
-        <v>45504.74083333334</v>
+        <v>45505.70958333334</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B408" s="2">
-        <v>45504.74430555556</v>
+        <v>45505.71305555556</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B409" s="2">
-        <v>45504.74777777777</v>
+        <v>45505.71652777777</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B410" s="2">
-        <v>45504.75472222222</v>
+        <v>45505.72</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>523.5</v>
+        <v>536</v>
       </c>
       <c r="B411" s="2">
-        <v>45505.41444444445</v>
+        <v>45505.72347222222</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>528.5</v>
+        <v>537.5</v>
       </c>
       <c r="B412" s="2">
-        <v>45505.41791666667</v>
+        <v>45505.72694444445</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>527</v>
+        <v>534.5</v>
       </c>
       <c r="B413" s="2">
-        <v>45505.42138888889</v>
+        <v>45505.73041666667</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>526</v>
+        <v>533.5</v>
       </c>
       <c r="B414" s="2">
-        <v>45505.42486111111</v>
+        <v>45505.73388888889</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>527.5</v>
+        <v>535</v>
       </c>
       <c r="B415" s="2">
-        <v>45505.42833333334</v>
+        <v>45505.73736111111</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B416" s="2">
-        <v>45505.43180555556</v>
+        <v>45505.74083333334</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>527</v>
+        <v>530.5</v>
       </c>
       <c r="B417" s="2">
-        <v>45505.43527777777</v>
+        <v>45505.74430555556</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>527.5</v>
+        <v>535</v>
       </c>
       <c r="B418" s="2">
-        <v>45505.43875</v>
+        <v>45505.74777777777</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>527.5</v>
+        <v>530.5</v>
       </c>
       <c r="B419" s="2">
-        <v>45505.44222222222</v>
+        <v>45505.75472222222</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>527.5</v>
+        <v>528.5</v>
       </c>
       <c r="B420" s="2">
-        <v>45505.44569444445</v>
+        <v>45506.41444444445</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>526</v>
+        <v>525.5</v>
       </c>
       <c r="B421" s="2">
-        <v>45505.44916666667</v>
+        <v>45506.41791666667</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3760,103 +3760,103 @@
         <v>526.5</v>
       </c>
       <c r="B422" s="2">
-        <v>45505.45263888889</v>
+        <v>45506.42138888889</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B423" s="2">
-        <v>45505.45611111111</v>
+        <v>45506.42486111111</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>527.5</v>
+        <v>530</v>
       </c>
       <c r="B424" s="2">
-        <v>45505.45958333334</v>
+        <v>45506.42833333334</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>527.5</v>
+        <v>532.5</v>
       </c>
       <c r="B425" s="2">
-        <v>45505.46305555556</v>
+        <v>45506.43180555556</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>528</v>
+        <v>537.5</v>
       </c>
       <c r="B426" s="2">
-        <v>45505.46652777777</v>
+        <v>45506.43527777777</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B427" s="2">
-        <v>45505.47</v>
+        <v>45506.43875</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B428" s="2">
-        <v>45505.47347222222</v>
+        <v>45506.44222222222</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B429" s="2">
-        <v>45505.47694444445</v>
+        <v>45506.44569444445</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B430" s="2">
-        <v>45505.48041666667</v>
+        <v>45506.44916666667</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>526.5</v>
+        <v>535</v>
       </c>
       <c r="B431" s="2">
-        <v>45505.48388888889</v>
+        <v>45506.45263888889</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>528.5</v>
+        <v>533</v>
       </c>
       <c r="B432" s="2">
-        <v>45505.48736111111</v>
+        <v>45506.45611111111</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B433" s="2">
-        <v>45505.49083333334</v>
+        <v>45506.45958333334</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B434" s="2">
-        <v>45505.49430555556</v>
+        <v>45506.46305555556</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>527</v>
       </c>
       <c r="B435" s="2">
-        <v>45505.49777777777</v>
+        <v>45506.46652777777</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3872,1359 +3872,1359 @@
         <v>528</v>
       </c>
       <c r="B436" s="2">
-        <v>45505.50125</v>
+        <v>45506.47</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>527</v>
+        <v>528.5</v>
       </c>
       <c r="B437" s="2">
-        <v>45505.50472222222</v>
+        <v>45506.47347222222</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>526</v>
+        <v>525.5</v>
       </c>
       <c r="B438" s="2">
-        <v>45505.50819444445</v>
+        <v>45506.47694444445</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>528.5</v>
+        <v>525.5</v>
       </c>
       <c r="B439" s="2">
-        <v>45505.51166666667</v>
+        <v>45506.48041666667</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>528.5</v>
+        <v>526</v>
       </c>
       <c r="B440" s="2">
-        <v>45505.51513888889</v>
+        <v>45506.48388888889</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B441" s="2">
-        <v>45505.51861111111</v>
+        <v>45506.48736111111</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>537</v>
+        <v>525.5</v>
       </c>
       <c r="B442" s="2">
-        <v>45505.52208333334</v>
+        <v>45506.49083333334</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>533</v>
+        <v>525.5</v>
       </c>
       <c r="B443" s="2">
-        <v>45505.52555555556</v>
+        <v>45506.49430555556</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B444" s="2">
-        <v>45505.52902777777</v>
+        <v>45506.49777777777</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B445" s="2">
-        <v>45505.5325</v>
+        <v>45506.50125</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>533</v>
+        <v>525.5</v>
       </c>
       <c r="B446" s="2">
-        <v>45505.53597222222</v>
+        <v>45506.50472222222</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>532.5</v>
+        <v>525</v>
       </c>
       <c r="B447" s="2">
-        <v>45505.53944444445</v>
+        <v>45506.50819444445</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>532.5</v>
+        <v>526</v>
       </c>
       <c r="B448" s="2">
-        <v>45505.54291666667</v>
+        <v>45506.51166666667</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>532.5</v>
+        <v>527</v>
       </c>
       <c r="B449" s="2">
-        <v>45505.54638888889</v>
+        <v>45506.51513888889</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B450" s="2">
-        <v>45505.54986111111</v>
+        <v>45506.51861111111</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B451" s="2">
-        <v>45505.55333333334</v>
+        <v>45506.52208333334</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B452" s="2">
-        <v>45505.55680555556</v>
+        <v>45506.52555555556</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B453" s="2">
-        <v>45505.56027777777</v>
+        <v>45506.52902777777</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B454" s="2">
-        <v>45505.56375</v>
+        <v>45506.5325</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>531.5</v>
+        <v>527.5</v>
       </c>
       <c r="B455" s="2">
-        <v>45505.56722222222</v>
+        <v>45506.53597222222</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>530</v>
+        <v>527.5</v>
       </c>
       <c r="B456" s="2">
-        <v>45505.57069444445</v>
+        <v>45506.53944444445</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>531</v>
+        <v>527.5</v>
       </c>
       <c r="B457" s="2">
-        <v>45505.57416666667</v>
+        <v>45506.54291666667</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>531.5</v>
+        <v>527.5</v>
       </c>
       <c r="B458" s="2">
-        <v>45505.57763888889</v>
+        <v>45506.54638888889</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B459" s="2">
-        <v>45505.58111111111</v>
+        <v>45506.54986111111</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>532.5</v>
+        <v>525.5</v>
       </c>
       <c r="B460" s="2">
-        <v>45505.58458333334</v>
+        <v>45506.55333333334</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>532.5</v>
+        <v>525.5</v>
       </c>
       <c r="B461" s="2">
-        <v>45505.58805555556</v>
+        <v>45506.56027777777</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>532.5</v>
+        <v>525.5</v>
       </c>
       <c r="B462" s="2">
-        <v>45505.59152777777</v>
+        <v>45506.56375</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>531</v>
+        <v>526.5</v>
       </c>
       <c r="B463" s="2">
-        <v>45505.595</v>
+        <v>45506.56722222222</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>532</v>
+        <v>525.5</v>
       </c>
       <c r="B464" s="2">
-        <v>45505.59847222222</v>
+        <v>45506.57069444445</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>532.5</v>
+        <v>525.5</v>
       </c>
       <c r="B465" s="2">
-        <v>45505.60194444445</v>
+        <v>45506.57416666667</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466">
-        <v>531.5</v>
+        <v>525.5</v>
       </c>
       <c r="B466" s="2">
-        <v>45505.60541666667</v>
+        <v>45506.57763888889</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>531.5</v>
+        <v>524</v>
       </c>
       <c r="B467" s="2">
-        <v>45505.60888888889</v>
+        <v>45506.58111111111</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>533</v>
+        <v>523.5</v>
       </c>
       <c r="B468" s="2">
-        <v>45505.61236111111</v>
+        <v>45506.58458333334</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469">
-        <v>531.5</v>
+        <v>523.5</v>
       </c>
       <c r="B469" s="2">
-        <v>45505.61583333334</v>
+        <v>45506.58805555556</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B470" s="2">
-        <v>45505.61930555556</v>
+        <v>45506.59152777777</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B471" s="2">
-        <v>45505.62277777777</v>
+        <v>45506.595</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B472" s="2">
-        <v>45505.62625</v>
+        <v>45506.59847222222</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B473" s="2">
-        <v>45505.62972222222</v>
+        <v>45506.60194444445</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B474" s="2">
-        <v>45505.63319444445</v>
+        <v>45506.60541666667</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>531</v>
+        <v>522.5</v>
       </c>
       <c r="B475" s="2">
-        <v>45505.63666666667</v>
+        <v>45506.60888888889</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B476" s="2">
-        <v>45505.64013888889</v>
+        <v>45506.61236111111</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477">
-        <v>531</v>
+        <v>521.5</v>
       </c>
       <c r="B477" s="2">
-        <v>45505.64361111111</v>
+        <v>45506.61583333334</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B478" s="2">
-        <v>45505.64708333334</v>
+        <v>45506.61930555556</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>531.5</v>
+        <v>521.5</v>
       </c>
       <c r="B479" s="2">
-        <v>45505.65055555556</v>
+        <v>45506.62277777777</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>531.5</v>
+        <v>520.5</v>
       </c>
       <c r="B480" s="2">
-        <v>45505.65402777777</v>
+        <v>45506.62625</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>531.5</v>
+        <v>520</v>
       </c>
       <c r="B481" s="2">
-        <v>45505.6575</v>
+        <v>45506.62972222222</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>530.5</v>
+        <v>519.5</v>
       </c>
       <c r="B482" s="2">
-        <v>45505.66097222222</v>
+        <v>45506.63319444445</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>532.5</v>
+        <v>520.5</v>
       </c>
       <c r="B483" s="2">
-        <v>45505.66444444445</v>
+        <v>45506.63666666667</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>532</v>
+        <v>520.5</v>
       </c>
       <c r="B484" s="2">
-        <v>45505.66791666667</v>
+        <v>45506.64013888889</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B485" s="2">
-        <v>45505.67138888889</v>
+        <v>45506.64361111111</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B486" s="2">
-        <v>45505.67486111111</v>
+        <v>45506.64708333334</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487">
-        <v>533</v>
+        <v>520.5</v>
       </c>
       <c r="B487" s="2">
-        <v>45505.67833333334</v>
+        <v>45506.65055555556</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B488" s="2">
-        <v>45505.68180555556</v>
+        <v>45506.65402777777</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489">
-        <v>538</v>
+        <v>518.5</v>
       </c>
       <c r="B489" s="2">
-        <v>45505.68527777777</v>
+        <v>45506.6575</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>538.5</v>
+        <v>518.5</v>
       </c>
       <c r="B490" s="2">
-        <v>45505.68875</v>
+        <v>45506.66097222222</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>537.5</v>
+        <v>518</v>
       </c>
       <c r="B491" s="2">
-        <v>45505.69222222222</v>
+        <v>45506.66444444445</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>538</v>
+        <v>518.5</v>
       </c>
       <c r="B492" s="2">
-        <v>45505.69569444445</v>
+        <v>45506.66791666667</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B493" s="2">
-        <v>45505.69916666667</v>
+        <v>45506.67138888889</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>536.5</v>
+        <v>519</v>
       </c>
       <c r="B494" s="2">
-        <v>45505.70263888889</v>
+        <v>45506.67486111111</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>539</v>
+        <v>519.5</v>
       </c>
       <c r="B495" s="2">
-        <v>45505.70611111111</v>
+        <v>45506.67833333334</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>539.5</v>
+        <v>521</v>
       </c>
       <c r="B496" s="2">
-        <v>45505.70958333334</v>
+        <v>45506.68180555556</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="B497" s="2">
-        <v>45505.71305555556</v>
+        <v>45506.68527777777</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>538</v>
+        <v>518.5</v>
       </c>
       <c r="B498" s="2">
-        <v>45505.71652777777</v>
+        <v>45506.68875</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B499" s="2">
-        <v>45505.72</v>
+        <v>45506.69222222222</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="B500" s="2">
-        <v>45505.72347222222</v>
+        <v>45506.69569444445</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501">
-        <v>537.5</v>
+        <v>518</v>
       </c>
       <c r="B501" s="2">
-        <v>45505.72694444445</v>
+        <v>45506.69916666667</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>534.5</v>
+        <v>515.5</v>
       </c>
       <c r="B502" s="2">
-        <v>45505.73041666667</v>
+        <v>45506.70263888889</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>533.5</v>
+        <v>518</v>
       </c>
       <c r="B503" s="2">
-        <v>45505.73388888889</v>
+        <v>45506.70611111111</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B504" s="2">
-        <v>45505.73736111111</v>
+        <v>45506.70958333334</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505">
-        <v>533</v>
+        <v>524.5</v>
       </c>
       <c r="B505" s="2">
-        <v>45505.74083333334</v>
+        <v>45506.71305555556</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506">
-        <v>530.5</v>
+        <v>516.5</v>
       </c>
       <c r="B506" s="2">
-        <v>45505.74430555556</v>
+        <v>45506.71652777777</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="B507" s="2">
-        <v>45505.74777777777</v>
+        <v>45506.72</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508">
-        <v>530.5</v>
+        <v>519</v>
       </c>
       <c r="B508" s="2">
-        <v>45505.75472222222</v>
+        <v>45506.72347222222</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509">
-        <v>528.5</v>
+        <v>520</v>
       </c>
       <c r="B509" s="2">
-        <v>45506.41444444445</v>
+        <v>45506.72694444445</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>525.5</v>
+        <v>521.5</v>
       </c>
       <c r="B510" s="2">
-        <v>45506.41791666667</v>
+        <v>45506.73041666667</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511">
-        <v>526.5</v>
+        <v>517.5</v>
       </c>
       <c r="B511" s="2">
-        <v>45506.42138888889</v>
+        <v>45506.73388888889</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512">
-        <v>533</v>
+        <v>519.5</v>
       </c>
       <c r="B512" s="2">
-        <v>45506.42486111111</v>
+        <v>45506.73736111111</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B513" s="2">
-        <v>45506.42833333334</v>
+        <v>45506.74083333334</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514">
-        <v>532.5</v>
+        <v>521</v>
       </c>
       <c r="B514" s="2">
-        <v>45506.43180555556</v>
+        <v>45506.74430555556</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515">
-        <v>537.5</v>
+        <v>520</v>
       </c>
       <c r="B515" s="2">
-        <v>45506.43527777777</v>
+        <v>45506.74777777777</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="B516" s="2">
-        <v>45506.43875</v>
+        <v>45506.75472222222</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="B517" s="2">
-        <v>45506.44222222222</v>
+        <v>45509.41444444445</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="B518" s="2">
-        <v>45506.44569444445</v>
+        <v>45509.43527777777</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519">
-        <v>533</v>
+        <v>470.25</v>
       </c>
       <c r="B519" s="2">
-        <v>45506.44916666667</v>
+        <v>45509.45263888889</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520">
-        <v>535</v>
+        <v>500.5</v>
       </c>
       <c r="B520" s="2">
-        <v>45506.45263888889</v>
+        <v>45509.45611111111</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>533</v>
+        <v>495.5</v>
       </c>
       <c r="B521" s="2">
-        <v>45506.45611111111</v>
+        <v>45509.45958333334</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>531</v>
+        <v>499.5</v>
       </c>
       <c r="B522" s="2">
-        <v>45506.45958333334</v>
+        <v>45509.46305555556</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="B523" s="2">
-        <v>45506.46305555556</v>
+        <v>45509.46652777777</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>527</v>
+        <v>486.25</v>
       </c>
       <c r="B524" s="2">
-        <v>45506.46652777777</v>
+        <v>45509.47</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="B525" s="2">
-        <v>45506.47</v>
+        <v>45509.47347222222</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526">
-        <v>528.5</v>
+        <v>496.5</v>
       </c>
       <c r="B526" s="2">
-        <v>45506.47347222222</v>
+        <v>45509.47694444445</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527">
-        <v>525.5</v>
+        <v>496.75</v>
       </c>
       <c r="B527" s="2">
-        <v>45506.47694444445</v>
+        <v>45509.48041666667</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528">
-        <v>525.5</v>
+        <v>502.5</v>
       </c>
       <c r="B528" s="2">
-        <v>45506.48041666667</v>
+        <v>45509.48388888889</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529">
-        <v>526</v>
+        <v>498.5</v>
       </c>
       <c r="B529" s="2">
-        <v>45506.48388888889</v>
+        <v>45509.48736111111</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="B530" s="2">
-        <v>45506.48736111111</v>
+        <v>45509.49083333334</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531">
-        <v>525.5</v>
+        <v>497.5</v>
       </c>
       <c r="B531" s="2">
-        <v>45506.49083333334</v>
+        <v>45509.49430555556</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532">
-        <v>525.5</v>
+        <v>498.5</v>
       </c>
       <c r="B532" s="2">
-        <v>45506.49430555556</v>
+        <v>45509.49777777777</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533">
-        <v>525</v>
+        <v>497.25</v>
       </c>
       <c r="B533" s="2">
-        <v>45506.49777777777</v>
+        <v>45509.50125</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="B534" s="2">
-        <v>45506.50125</v>
+        <v>45509.50472222222</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535">
-        <v>525.5</v>
+        <v>495.75</v>
       </c>
       <c r="B535" s="2">
-        <v>45506.50472222222</v>
+        <v>45509.50819444445</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536">
-        <v>525</v>
+        <v>494.25</v>
       </c>
       <c r="B536" s="2">
-        <v>45506.50819444445</v>
+        <v>45509.51166666667</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537">
-        <v>526</v>
+        <v>490.75</v>
       </c>
       <c r="B537" s="2">
-        <v>45506.51166666667</v>
+        <v>45509.51513888889</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="B538" s="2">
-        <v>45506.51513888889</v>
+        <v>45509.51861111111</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="B539" s="2">
-        <v>45506.51861111111</v>
+        <v>45509.52208333334</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540">
-        <v>527</v>
+        <v>495.5</v>
       </c>
       <c r="B540" s="2">
-        <v>45506.52208333334</v>
+        <v>45509.52555555556</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="B541" s="2">
-        <v>45506.52555555556</v>
+        <v>45509.52902777777</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542">
-        <v>528</v>
+        <v>494.5</v>
       </c>
       <c r="B542" s="2">
-        <v>45506.52902777777</v>
+        <v>45509.5325</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="B543" s="2">
-        <v>45506.5325</v>
+        <v>45509.53597222222</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544">
-        <v>527.5</v>
+        <v>494</v>
       </c>
       <c r="B544" s="2">
-        <v>45506.53597222222</v>
+        <v>45509.53944444445</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545">
-        <v>527.5</v>
+        <v>493</v>
       </c>
       <c r="B545" s="2">
-        <v>45506.53944444445</v>
+        <v>45509.54291666667</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546">
-        <v>527.5</v>
+        <v>496.25</v>
       </c>
       <c r="B546" s="2">
-        <v>45506.54291666667</v>
+        <v>45509.54638888889</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547">
-        <v>527.5</v>
+        <v>496</v>
       </c>
       <c r="B547" s="2">
-        <v>45506.54638888889</v>
+        <v>45509.54986111111</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="B548" s="2">
-        <v>45506.54986111111</v>
+        <v>45509.55333333334</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549">
-        <v>525.5</v>
+        <v>494.25</v>
       </c>
       <c r="B549" s="2">
-        <v>45506.55333333334</v>
+        <v>45509.55680555556</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550">
-        <v>525.5</v>
+        <v>494</v>
       </c>
       <c r="B550" s="2">
-        <v>45506.56027777777</v>
+        <v>45509.56027777777</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551">
-        <v>525.5</v>
+        <v>492.75</v>
       </c>
       <c r="B551" s="2">
-        <v>45506.56375</v>
+        <v>45509.56375</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552">
-        <v>526.5</v>
+        <v>493</v>
       </c>
       <c r="B552" s="2">
-        <v>45506.56722222222</v>
+        <v>45509.56722222222</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>525.5</v>
+        <v>490</v>
       </c>
       <c r="B553" s="2">
-        <v>45506.57069444445</v>
+        <v>45509.57069444445</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554">
-        <v>525.5</v>
+        <v>492</v>
       </c>
       <c r="B554" s="2">
-        <v>45506.57416666667</v>
+        <v>45509.57416666667</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555">
-        <v>525.5</v>
+        <v>493.5</v>
       </c>
       <c r="B555" s="2">
-        <v>45506.57763888889</v>
+        <v>45509.57763888889</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="B556" s="2">
-        <v>45506.58111111111</v>
+        <v>45509.58111111111</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>523.5</v>
+        <v>489.75</v>
       </c>
       <c r="B557" s="2">
-        <v>45506.58458333334</v>
+        <v>45509.58458333334</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>523.5</v>
+        <v>490.5</v>
       </c>
       <c r="B558" s="2">
-        <v>45506.58805555556</v>
+        <v>45509.58805555556</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>522</v>
+        <v>490.5</v>
       </c>
       <c r="B559" s="2">
-        <v>45506.59152777777</v>
+        <v>45509.59152777777</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>522</v>
+        <v>490.25</v>
       </c>
       <c r="B560" s="2">
-        <v>45506.595</v>
+        <v>45509.595</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>522</v>
+        <v>493.25</v>
       </c>
       <c r="B561" s="2">
-        <v>45506.59847222222</v>
+        <v>45509.59847222222</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B562" s="2">
-        <v>45506.60194444445</v>
+        <v>45509.60194444445</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>523</v>
+        <v>489.5</v>
       </c>
       <c r="B563" s="2">
-        <v>45506.60541666667</v>
+        <v>45509.60541666667</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>522.5</v>
+        <v>490.75</v>
       </c>
       <c r="B564" s="2">
-        <v>45506.60888888889</v>
+        <v>45509.60888888889</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>522</v>
+        <v>486.75</v>
       </c>
       <c r="B565" s="2">
-        <v>45506.61236111111</v>
+        <v>45509.61236111111</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>521.5</v>
+        <v>487.75</v>
       </c>
       <c r="B566" s="2">
-        <v>45506.61583333334</v>
+        <v>45509.61583333334</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>523</v>
+        <v>486.25</v>
       </c>
       <c r="B567" s="2">
-        <v>45506.61930555556</v>
+        <v>45509.61930555556</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>521.5</v>
+        <v>482.5</v>
       </c>
       <c r="B568" s="2">
-        <v>45506.62277777777</v>
+        <v>45509.62277777777</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>520.5</v>
+        <v>486.5</v>
       </c>
       <c r="B569" s="2">
-        <v>45506.62625</v>
+        <v>45509.62625</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="B570" s="2">
-        <v>45506.62972222222</v>
+        <v>45509.62972222222</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>519.5</v>
+        <v>481.75</v>
       </c>
       <c r="B571" s="2">
-        <v>45506.63319444445</v>
+        <v>45509.63319444445</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>520.5</v>
+        <v>481.25</v>
       </c>
       <c r="B572" s="2">
-        <v>45506.63666666667</v>
+        <v>45509.63666666667</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>520.5</v>
+        <v>479.5</v>
       </c>
       <c r="B573" s="2">
-        <v>45506.64013888889</v>
+        <v>45509.64013888889</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="B574" s="2">
-        <v>45506.64361111111</v>
+        <v>45509.64361111111</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575">
-        <v>519</v>
+        <v>479.75</v>
       </c>
       <c r="B575" s="2">
-        <v>45506.64708333334</v>
+        <v>45509.64708333334</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>520.5</v>
+        <v>478</v>
       </c>
       <c r="B576" s="2">
-        <v>45506.65055555556</v>
+        <v>45509.65055555556</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B577" s="2">
-        <v>45506.65402777777</v>
+        <v>45509.65402777777</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578">
-        <v>518.5</v>
+        <v>478</v>
       </c>
       <c r="B578" s="2">
-        <v>45506.6575</v>
+        <v>45509.6575</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>518.5</v>
+        <v>476.5</v>
       </c>
       <c r="B579" s="2">
-        <v>45506.66097222222</v>
+        <v>45509.66097222222</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>518</v>
+        <v>480.5</v>
       </c>
       <c r="B580" s="2">
-        <v>45506.66444444445</v>
+        <v>45509.66444444445</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581">
-        <v>518.5</v>
+        <v>483.5</v>
       </c>
       <c r="B581" s="2">
-        <v>45506.66791666667</v>
+        <v>45509.66791666667</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
-        <v>520</v>
+        <v>487.5</v>
       </c>
       <c r="B582" s="2">
-        <v>45506.67138888889</v>
+        <v>45509.67138888889</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="B583" s="2">
-        <v>45506.67486111111</v>
+        <v>45509.67486111111</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584">
-        <v>519.5</v>
+        <v>489</v>
       </c>
       <c r="B584" s="2">
-        <v>45506.67833333334</v>
+        <v>45509.67833333334</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585">
-        <v>521</v>
+        <v>487.5</v>
       </c>
       <c r="B585" s="2">
-        <v>45506.68180555556</v>
+        <v>45509.68180555556</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="B586" s="2">
-        <v>45506.68527777777</v>
+        <v>45509.68527777777</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587">
-        <v>518.5</v>
+        <v>485</v>
       </c>
       <c r="B587" s="2">
-        <v>45506.68875</v>
+        <v>45509.68875</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="B588" s="2">
-        <v>45506.69222222222</v>
+        <v>45509.69222222222</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>519</v>
+        <v>486.5</v>
       </c>
       <c r="B589" s="2">
-        <v>45506.69569444445</v>
+        <v>45509.69569444445</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590">
-        <v>518</v>
+        <v>487.5</v>
       </c>
       <c r="B590" s="2">
-        <v>45506.69916666667</v>
+        <v>45509.69916666667</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>515.5</v>
+        <v>487.5</v>
       </c>
       <c r="B591" s="2">
-        <v>45506.70263888889</v>
+        <v>45509.70263888889</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="B592" s="2">
-        <v>45506.70611111111</v>
+        <v>45509.70611111111</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593">
-        <v>517</v>
+        <v>492.75</v>
       </c>
       <c r="B593" s="2">
-        <v>45506.70958333334</v>
+        <v>45509.70958333334</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594">
-        <v>524.5</v>
+        <v>490.25</v>
       </c>
       <c r="B594" s="2">
-        <v>45506.71305555556</v>
+        <v>45509.71305555556</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595">
-        <v>516.5</v>
+        <v>491</v>
       </c>
       <c r="B595" s="2">
-        <v>45506.71652777777</v>
+        <v>45509.71652777777</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B596" s="2">
-        <v>45506.72</v>
+        <v>45509.72</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="B597" s="2">
-        <v>45506.72347222222</v>
+        <v>45509.72347222222</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598">
-        <v>520</v>
+        <v>489.5</v>
       </c>
       <c r="B598" s="2">
-        <v>45506.72694444445</v>
+        <v>45509.72694444445</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599">
-        <v>521.5</v>
+        <v>487</v>
       </c>
       <c r="B599" s="2">
-        <v>45506.73041666667</v>
+        <v>45509.73041666667</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600">
-        <v>517.5</v>
+        <v>487.75</v>
       </c>
       <c r="B600" s="2">
-        <v>45506.73388888889</v>
+        <v>45509.73388888889</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601">
-        <v>519.5</v>
+        <v>486.25</v>
       </c>
       <c r="B601" s="2">
-        <v>45506.73736111111</v>
+        <v>45509.73736111111</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="B602" s="2">
-        <v>45506.74083333334</v>
+        <v>45509.74083333334</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="B603" s="2">
-        <v>45506.74430555556</v>
+        <v>45509.74430555556</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B604" s="2">
-        <v>45506.74777777777</v>
+        <v>45509.74777777777</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605">
-        <v>520</v>
+        <v>485.75</v>
       </c>
       <c r="B605" s="2">
-        <v>45506.75472222222</v>
+        <v>45509.75472222222</v>
       </c>
     </row>
   </sheetData>
